--- a/XLS/Covid19arData - historico.xlsx
+++ b/XLS/Covid19arData - historico.xlsx
@@ -4,16 +4,18 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="historico" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="CASOS TOTALES POR DIA" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="CASOS POR DIAPCIA" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="TOTALES POR PROVINCIA" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="contexto" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Tabla dinámica 2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="CASOS TOTALES POR DIA" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="CASOS POR DIAPCIA" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="TOTALES POR PROVINCIA" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="contexto" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="2" r:id="rId12"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -24,7 +26,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="N120">
+    <comment authorId="0" ref="N123">
       <text>
         <t xml:space="preserve">*El total de los casos fue de 101. Se suman en esta lista, 16 casos (anteriores) que en eldía de ayer figuraban sin localidad de residencia y hoy se agruparon en las jurisdiccionescorrespondientes</t>
       </text>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="110">
   <si>
     <t>fecha</t>
   </si>
@@ -177,6 +179,18 @@
     <t>https://www.argentina.gob.ar/sites/default/files/20-03-20_reporte_diario_covid_19_2.pdf</t>
   </si>
   <si>
+    <t>COUNT de tot_casosconf</t>
+  </si>
+  <si>
+    <t>transmision comunitaria</t>
+  </si>
+  <si>
+    <t>transmision local</t>
+  </si>
+  <si>
+    <t>Suma total</t>
+  </si>
+  <si>
     <t>Corrientes</t>
   </si>
   <si>
@@ -186,28 +200,10 @@
     <t>Santiago Del Estero</t>
   </si>
   <si>
-    <t>SUM de nue_casosconf_diff</t>
-  </si>
-  <si>
-    <t>transmision local</t>
-  </si>
-  <si>
     <t>https://www.argentina.gob.ar/sites/default/files/21-03-20-reporte-diario_covid19.pdf</t>
   </si>
   <si>
-    <t>La Pampa</t>
-  </si>
-  <si>
     <t>Mendoza</t>
-  </si>
-  <si>
-    <t>Misiones</t>
-  </si>
-  <si>
-    <t>San Luis</t>
-  </si>
-  <si>
-    <t>Suma total</t>
   </si>
   <si>
     <t>Ciudad de Santa Fe</t>
@@ -219,7 +215,19 @@
     <t>https://www.argentina.gob.ar/sites/default/files/22-03-20-reporte-diario_covid19.pdf</t>
   </si>
   <si>
-    <t>transmision comunitaria</t>
+    <t>SUM de nue_casosconf_diff</t>
+  </si>
+  <si>
+    <t>SUM de nue_fallecidos_diff</t>
+  </si>
+  <si>
+    <t>Confirmados</t>
+  </si>
+  <si>
+    <t>Fallecidos</t>
+  </si>
+  <si>
+    <t>Misiones</t>
   </si>
   <si>
     <t>https://www.argentina.gob.ar/sites/default/files/23-03-2020-covid19_informe-diario.pdf</t>
@@ -255,25 +263,19 @@
     <t>https://www.santafe.gob.ar/index.php/web/content/download/257621/1357167/file/Informe_Coronavirus_24_03_2020%2021%20hs.pdf</t>
   </si>
   <si>
-    <t>provincia</t>
-  </si>
-  <si>
     <t>Santa Fe Parte Provincial no son novedades son totales. Por esto viene el ruido.</t>
   </si>
   <si>
     <t>Roldan</t>
   </si>
   <si>
-    <t>SUM de nue_fallecidos_diff</t>
-  </si>
-  <si>
-    <t>Confirmados</t>
-  </si>
-  <si>
-    <t>Fallecidos</t>
+    <t>La Pampa</t>
   </si>
   <si>
     <t>https://www.argentina.gob.ar/sites/default/files/25-03-20-reporte-diario-vespertino-covid-19.pdf</t>
+  </si>
+  <si>
+    <t>San Luis</t>
   </si>
   <si>
     <t>Tierra del Fuego</t>
@@ -285,13 +287,19 @@
     <t>se suman 7casos, se compensa la diferencia entre los 20 casos del 27/3</t>
   </si>
   <si>
-    <t>fin parte diario</t>
+    <t>1 caso reclasificado el 28-3 a Cordoba.</t>
   </si>
   <si>
     <t>https://www.buenosaires.gob.ar/salud/noticias/actualizacion-de-los-casos-coronavirus-en-la-ciudad-buenos-aires</t>
   </si>
   <si>
-    <t>20 casos nuevos por GCBA. Revisar con autoridades si los 16 casos menos son unicamente de CABA.</t>
+    <t>GCABA publico que son 20 los casos nuevos. Cremos que acá estaría la diferencia de los 16 casos menos del parte diario nacional del dia.</t>
+  </si>
+  <si>
+    <t>provincia</t>
+  </si>
+  <si>
+    <t>https://www.argentina.gob.ar/sites/default/files/27-03-20-reporte-diario-vespertino-covid-19.pdf</t>
   </si>
   <si>
     <t>provinciaId</t>
@@ -306,13 +314,16 @@
     <t>https://sistemasmapache.github.io/Covid19arData/</t>
   </si>
   <si>
-    <t>https://www.argentina.gob.ar/sites/default/files/27-03-20-reporte-diario-vespertino-covid-19.pdf</t>
+    <t>Pueblo Andino</t>
   </si>
   <si>
-    <t>se asignó un fallecido sin provincia de forma random a BsAs. Cuando tengamos conocimiento de ese dato este fallecido será asignado a la provincia correspondiente.</t>
+    <t>Venado Tuerto</t>
   </si>
   <si>
     <t>Chubut</t>
+  </si>
+  <si>
+    <t>Villa Constitución</t>
   </si>
   <si>
     <t>Formosa</t>
@@ -327,10 +338,35 @@
     <t>Santiago del Estero</t>
   </si>
   <si>
+    <t>Indeterminado</t>
+  </si>
+  <si>
     <t>https://www.rionegro.gov.ar/?contID=58359</t>
   </si>
   <si>
-    <t>"*El total de los casos fue de 101. Se suman en esta lista, 16 casos (anteriores) que en eldía de ayer figuraban sin localidad de residencia y hoy se agruparon en las jurisdiccionescorrespondientes" se restan 16.</t>
+    <t>"*El total de los casos fue de 101. Se suman en esta lista, 16 casos (anteriores) que en eldía de ayer figuraban sin localidad de residencia y hoy se agruparon en las jurisdiccionescorrespondientes."Se asigno el fallecido con provincia indeterminada a este registro hasta que sepamos a que provincia corresponde.
+No se informas mas las provincias de los fallecidos, tuvimos que encontrar la ubicación provincial de fallecidos por partes provinciales y otras fuentes. Resta la ubicación de 1 fallecido.</t>
+  </si>
+  <si>
+    <t>informe nacional vespertino</t>
+  </si>
+  <si>
+    <t>https://www.argentina.gob.ar/sites/default/files/28-03-20-reporte-vespertino-covid-19.pdf</t>
+  </si>
+  <si>
+    <t>Rosaio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo Tomé </t>
+  </si>
+  <si>
+    <t>Chabás</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Las lajas</t>
   </si>
 </sst>
 </file>
@@ -389,18 +425,12 @@
       <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -410,8 +440,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -434,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -493,16 +523,13 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -533,6 +560,12 @@
     <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -545,29 +578,38 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -784,11 +826,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="997661529"/>
-        <c:axId val="1150854258"/>
+        <c:axId val="839525290"/>
+        <c:axId val="1014968440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="997661529"/>
+        <c:axId val="839525290"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40.0"/>
@@ -831,10 +873,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1150854258"/>
+        <c:crossAx val="1014968440"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1150854258"/>
+        <c:axId val="1014968440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000.0"/>
@@ -904,7 +946,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="997661529"/>
+        <c:crossAx val="839525290"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1074,11 +1116,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="640095102"/>
-        <c:axId val="2065926631"/>
+        <c:axId val="499483253"/>
+        <c:axId val="127566015"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="640095102"/>
+        <c:axId val="499483253"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40.0"/>
@@ -1121,10 +1163,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2065926631"/>
+        <c:crossAx val="127566015"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2065926631"/>
+        <c:axId val="127566015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000.0"/>
@@ -1194,7 +1236,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640095102"/>
+        <c:crossAx val="499483253"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1714,11 +1756,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="371830912"/>
-        <c:axId val="1998367225"/>
+        <c:axId val="1065914652"/>
+        <c:axId val="1986351459"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="371830912"/>
+        <c:axId val="1065914652"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25.0"/>
@@ -1761,10 +1803,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1998367225"/>
+        <c:crossAx val="1986351459"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1998367225"/>
+        <c:axId val="1986351459"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1833,7 +1875,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371830912"/>
+        <c:crossAx val="1065914652"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1864,6 +1906,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1918,11 +1964,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1952,11 +1998,706 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" invalid="1" refreshOnLoad="1">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:N138" sheet="historico"/>
+  </cacheSource>
+  <cacheFields>
+    <cacheField name="fecha" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsDate="1" containsString="0">
+        <d v="2020-03-05T00:00:00Z"/>
+        <d v="2020-03-06T00:00:00Z"/>
+        <d v="2020-03-07T00:00:00Z"/>
+        <d v="2020-03-08T00:00:00Z"/>
+        <d v="2020-03-09T00:00:00Z"/>
+        <d v="2020-03-10T00:00:00Z"/>
+        <d v="2020-03-11T00:00:00Z"/>
+        <d v="2020-03-12T00:00:00Z"/>
+        <d v="2020-03-13T00:00:00Z"/>
+        <d v="2020-03-14T00:00:00Z"/>
+        <d v="2020-03-15T00:00:00Z"/>
+        <d v="2020-03-16T00:00:00Z"/>
+        <d v="2020-03-17T00:00:00Z"/>
+        <d v="2020-03-18T00:00:00Z"/>
+        <d v="2020-03-19T00:00:00Z"/>
+        <d v="2020-03-20T00:00:00Z"/>
+        <d v="2020-03-21T00:00:00Z"/>
+        <d v="2020-03-22T00:00:00Z"/>
+        <d v="2020-03-23T00:00:00Z"/>
+        <d v="2020-03-24T00:00:00Z"/>
+        <d v="2020-03-25T00:00:00Z"/>
+        <d v="2020-03-26T00:00:00Z"/>
+        <d v="2020-03-27T00:00:00Z"/>
+        <d v="2020-03-28T00:00:00Z"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="dia_inicio" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
+        <n v="1.0"/>
+        <n v="2.0"/>
+        <n v="3.0"/>
+        <n v="4.0"/>
+        <n v="5.0"/>
+        <n v="6.0"/>
+        <n v="7.0"/>
+        <n v="8.0"/>
+        <n v="9.0"/>
+        <n v="10.0"/>
+        <n v="11.0"/>
+        <n v="12.0"/>
+        <n v="13.0"/>
+        <n v="14.0"/>
+        <n v="15.0"/>
+        <n v="16.0"/>
+        <n v="17.0"/>
+        <n v="18.0"/>
+        <n v="19.0"/>
+        <n v="20.0"/>
+        <n v="21.0"/>
+        <n v="22.0"/>
+        <n v="23.0"/>
+        <n v="24.0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="dia_cuarentena_dnu260" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1">
+        <m/>
+        <n v="1.0"/>
+        <n v="2.0"/>
+        <n v="3.0"/>
+        <n v="4.0"/>
+        <n v="5.0"/>
+        <n v="6.0"/>
+        <n v="7.0"/>
+        <n v="8.0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="osm_admin_level_2" numFmtId="0">
+      <sharedItems>
+        <s v="Argentina"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="osm_admin_level_4" numFmtId="0">
+      <sharedItems>
+        <s v="xx"/>
+        <s v="CABA"/>
+        <s v="Chaco"/>
+        <s v="Tierra Del Fuego"/>
+        <s v="Buenos Aires"/>
+        <s v="Córdoba"/>
+        <s v="Jujuy"/>
+        <s v="Salta"/>
+        <s v="Río Negro"/>
+        <s v="Entre Ríos"/>
+        <s v="Santa Cruz"/>
+        <s v="Tucumán"/>
+        <s v="Santa Fe"/>
+        <s v="Corrientes"/>
+        <s v="Neuquén"/>
+        <s v="Santiago Del Estero"/>
+        <s v="Mendoza"/>
+        <s v="Misiones"/>
+        <s v="La Pampa"/>
+        <s v="San Luis"/>
+        <s v="Indeterminado"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="osm_admin_level_8" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <m/>
+        <s v="Ciudad de Santa Fe"/>
+        <s v="Rafaela"/>
+        <s v="Helvecia"/>
+        <s v="Esperanza"/>
+        <s v="Rosario"/>
+        <s v="Galvez"/>
+        <s v="Roldan"/>
+        <s v="Pueblo Andino"/>
+        <s v="Venado Tuerto"/>
+        <s v="Villa Constitución"/>
+        <s v="Santa Fe"/>
+        <s v="Rosaio"/>
+        <s v="Santo Tomé "/>
+        <s v="Chabás"/>
+        <s v="Capital"/>
+        <s v="Las lajas"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="tot_casosconf" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
+        <n v="1.0"/>
+        <n v="2.0"/>
+        <n v="12.0"/>
+        <n v="17.0"/>
+        <n v="19.0"/>
+        <n v="21.0"/>
+        <n v="31.0"/>
+        <n v="34.0"/>
+        <n v="45.0"/>
+        <n v="51.0"/>
+        <n v="53.0"/>
+        <n v="55.0"/>
+        <n v="56.0"/>
+        <n v="61.0"/>
+        <n v="64.0"/>
+        <n v="65.0"/>
+        <n v="66.0"/>
+        <n v="70.0"/>
+        <n v="72.0"/>
+        <n v="73.0"/>
+        <n v="74.0"/>
+        <n v="75.0"/>
+        <n v="76.0"/>
+        <n v="77.0"/>
+        <n v="78.0"/>
+        <n v="88.0"/>
+        <n v="89.0"/>
+        <n v="95.0"/>
+        <n v="96.0"/>
+        <n v="97.0"/>
+        <n v="112.0"/>
+        <n v="120.0"/>
+        <n v="123.0"/>
+        <n v="125.0"/>
+        <n v="126.0"/>
+        <n v="127.0"/>
+        <n v="128.0"/>
+        <n v="137.0"/>
+        <n v="146.0"/>
+        <n v="151.0"/>
+        <n v="152.0"/>
+        <n v="153.0"/>
+        <n v="154.0"/>
+        <n v="155.0"/>
+        <n v="157.0"/>
+        <n v="158.0"/>
+        <n v="187.0"/>
+        <n v="202.0"/>
+        <n v="207.0"/>
+        <n v="212.0"/>
+        <n v="216.0"/>
+        <n v="219.0"/>
+        <n v="221.0"/>
+        <n v="222.0"/>
+        <n v="223.0"/>
+        <n v="224.0"/>
+        <n v="225.0"/>
+        <n v="236.0"/>
+        <n v="244.0"/>
+        <n v="252.0"/>
+        <n v="259.0"/>
+        <n v="264.0"/>
+        <n v="265.0"/>
+        <n v="276.0"/>
+        <n v="281.0"/>
+        <n v="282.0"/>
+        <n v="283.0"/>
+        <n v="291.0"/>
+        <n v="294.0"/>
+        <n v="297.0"/>
+        <n v="301.0"/>
+        <n v="330.0"/>
+        <n v="359.0"/>
+        <n v="368.0"/>
+        <n v="375.0"/>
+        <n v="379.0"/>
+        <n v="380.0"/>
+        <n v="381.0"/>
+        <n v="382.0"/>
+        <n v="383.0"/>
+        <n v="384.0"/>
+        <n v="385.0"/>
+        <n v="415.0"/>
+        <n v="436.0"/>
+        <n v="451.0"/>
+        <n v="463.0"/>
+        <n v="468.0"/>
+        <n v="472.0"/>
+        <n v="475.0"/>
+        <n v="476.0"/>
+        <n v="477.0"/>
+        <n v="478.0"/>
+        <n v="480.0"/>
+        <n v="502.0"/>
+        <n v="532.0"/>
+        <n v="559.0"/>
+        <n v="571.0"/>
+        <n v="574.0"/>
+        <n v="577.0"/>
+        <n v="580.0"/>
+        <n v="583.0"/>
+        <n v="585.0"/>
+        <n v="587.0"/>
+        <n v="588.0"/>
+        <n v="631.0"/>
+        <n v="667.0"/>
+        <n v="670.0"/>
+        <n v="675.0"/>
+        <n v="681.0"/>
+        <n v="687.0"/>
+        <n v="688.0"/>
+        <n v="689.0"/>
+        <n v="690.0"/>
+        <n v="693.0"/>
+        <n v="697.0"/>
+        <n v="698.0"/>
+        <n v="701.0"/>
+        <n v="703.0"/>
+        <n v="704.0"/>
+        <n v="705.0"/>
+        <n v="715.0"/>
+        <n v="719.0"/>
+        <n v="723.0"/>
+        <n v="726.0"/>
+        <n v="727.0"/>
+        <n v="728.0"/>
+        <n v="733.0"/>
+        <n v="734.0"/>
+        <n v="738.0"/>
+        <n v="739.0"/>
+        <n v="740.0"/>
+        <n v="741.0"/>
+        <n v="745.0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="nue_casosconf_diff" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
+        <n v="1.0"/>
+        <n v="0.0"/>
+        <n v="10.0"/>
+        <n v="5.0"/>
+        <n v="2.0"/>
+        <n v="3.0"/>
+        <n v="11.0"/>
+        <n v="6.0"/>
+        <n v="4.0"/>
+        <n v="15.0"/>
+        <n v="8.0"/>
+        <n v="9.0"/>
+        <n v="29.0"/>
+        <n v="7.0"/>
+        <n v="30.0"/>
+        <n v="21.0"/>
+        <n v="12.0"/>
+        <n v="22.0"/>
+        <n v="27.0"/>
+        <n v="43.0"/>
+        <n v="36.0"/>
+        <n v="-16.0"/>
+        <n v="18.0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="tot_fallecidos" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
+        <n v="0.0"/>
+        <n v="1.0"/>
+        <n v="2.0"/>
+        <n v="3.0"/>
+        <n v="4.0"/>
+        <n v="5.0"/>
+        <n v="6.0"/>
+        <n v="7.0"/>
+        <n v="8.0"/>
+        <n v="9.0"/>
+        <n v="11.0"/>
+        <n v="12.0"/>
+        <n v="13.0"/>
+        <n v="14.0"/>
+        <n v="15.0"/>
+        <n v="16.0"/>
+        <n v="17.0"/>
+        <n v="18.0"/>
+        <n v="19.0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="nue_fallecidos_diff" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
+        <n v="0.0"/>
+        <n v="1.0"/>
+        <n v="2.0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="transmision_tipo" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <s v="importado"/>
+        <m/>
+        <s v="transmision local"/>
+        <s v="transmision comunitaria"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="informe_tipo" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <s v="informe nacional"/>
+        <m/>
+        <s v="informe provincial"/>
+        <s v="informe nacional vespertino"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="informe_link" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <s v="https://www.argentina.gob.ar/sites/default/files/5-03-2020-nuevo-coronavirus-covid-19-reporte-diario_1.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/6-03-2020-nuevo-coronavirus-covid-19-reporte-diario_1.pdf"/>
+        <m/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/8-03-2020-nuevo-coronavirus-covid-19-reporte-diario_0.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/9-03-2020-nuevo-coronavirus-covid-19-reporte_diario_0.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/10-03-2020-nuevo-coronavirus-covid-19-reporte-diario_1.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/11-03-2020-nuevo-coronavirus-covid-19-reporte-diario_0.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/12-03-20-nuevo-coronavirus-covid-19_reporte-diario_0.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/13-03-20-reporte-diario-covid-19_0.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/14-03-20-reporte-diario-covid-19_0.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/15032020-nuevo-coronavirus-covid-19_0.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/16-03-20-reporte-diario-covid-19_0.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/17-03-20_reporte_diario_covid-19.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/18-03-20_reporte_diario_covid-19_1.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/19-03-20-reporte-diario-covid-19.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/20-03-20_reporte_diario_covid_19_2.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/21-03-20-reporte-diario_covid19.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/22-03-20-reporte-diario_covid19.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/23-03-2020-covid19_informe-diario.pdf"/>
+        <s v="https://www.santafe.gob.ar/index.php/web/content/download/257616/1357149/file/Parte%20MSSF%20Coronavirus%2023-03-2020%2018hs.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/24-03-20-reporte-diario-vespertino-covid-19_0.pdf"/>
+        <s v="https://www.santafe.gob.ar/index.php/web/content/download/257621/1357167/file/Informe_Coronavirus_24_03_2020%2021%20hs.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/25-03-20-reporte-diario-vespertino-covid-19.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/26-03-20-reporte-diario-vespertino-covid-19.pdf"/>
+        <s v="https://www.buenosaires.gob.ar/salud/noticias/actualizacion-de-los-casos-coronavirus-en-la-ciudad-buenos-aires"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/27-03-20-reporte-diario-vespertino-covid-19.pdf"/>
+        <s v="https://www.rionegro.gov.ar/?contID=58359"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/28-03-20-reporte-vespertino-covid-19.pdf"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="observacion" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <m/>
+        <s v="no hay informe"/>
+        <s v="Si bien separa por provincias no se aclara las cantidades por provincia."/>
+        <s v="Santa Fe Parte Provincial suma15 casos. Parte Nacional reporta solo 13."/>
+        <s v="2 casos informados en el día de ayer se reclasificaron por lo que dejaron de formar parte del total. Se resto uno random en esta ciudad"/>
+        <s v="Santa Fe Parte Provincial no son novedades son totales. Por esto viene el ruido."/>
+        <s v="se suman 7casos, se compensa la diferencia entre los 20 casos del 27/3"/>
+        <s v="1 caso reclasificado el 28-3 a Cordoba."/>
+        <s v="GCABA publico que son 20 los casos nuevos. Cremos que acá estaría la diferencia de los 16 casos menos del parte diario nacional del dia."/>
+        <s v="&quot;*El total de los casos fue de 101. Se suman en esta lista, 16 casos (anteriores) que en eldía de ayer figuraban sin localidad de residencia y hoy se agruparon en las jurisdiccionescorrespondientes.&quot;Se asigno el fallecido con provincia indeterminada a est"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" invalid="1" refreshOnLoad="1">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:N97" sheet="historico"/>
+  </cacheSource>
+  <cacheFields>
+    <cacheField name="fecha" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsDate="1" containsString="0">
+        <d v="2020-03-05T00:00:00Z"/>
+        <d v="2020-03-06T00:00:00Z"/>
+        <d v="2020-03-07T00:00:00Z"/>
+        <d v="2020-03-08T00:00:00Z"/>
+        <d v="2020-03-09T00:00:00Z"/>
+        <d v="2020-03-10T00:00:00Z"/>
+        <d v="2020-03-11T00:00:00Z"/>
+        <d v="2020-03-12T00:00:00Z"/>
+        <d v="2020-03-13T00:00:00Z"/>
+        <d v="2020-03-14T00:00:00Z"/>
+        <d v="2020-03-15T00:00:00Z"/>
+        <d v="2020-03-16T00:00:00Z"/>
+        <d v="2020-03-17T00:00:00Z"/>
+        <d v="2020-03-18T00:00:00Z"/>
+        <d v="2020-03-19T00:00:00Z"/>
+        <d v="2020-03-20T00:00:00Z"/>
+        <d v="2020-03-21T00:00:00Z"/>
+        <d v="2020-03-22T00:00:00Z"/>
+        <d v="2020-03-23T00:00:00Z"/>
+        <d v="2020-03-24T00:00:00Z"/>
+        <d v="2020-03-25T00:00:00Z"/>
+        <d v="2020-03-26T00:00:00Z"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="dia_inicio" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
+        <n v="1.0"/>
+        <n v="2.0"/>
+        <n v="3.0"/>
+        <n v="4.0"/>
+        <n v="5.0"/>
+        <n v="6.0"/>
+        <n v="7.0"/>
+        <n v="8.0"/>
+        <n v="9.0"/>
+        <n v="10.0"/>
+        <n v="11.0"/>
+        <n v="12.0"/>
+        <n v="13.0"/>
+        <n v="14.0"/>
+        <n v="15.0"/>
+        <n v="16.0"/>
+        <n v="17.0"/>
+        <n v="18.0"/>
+        <n v="19.0"/>
+        <n v="20.0"/>
+        <n v="21.0"/>
+        <n v="22.0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="dia_cuarentena_dnu260" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1">
+        <m/>
+        <n v="1.0"/>
+        <n v="2.0"/>
+        <n v="3.0"/>
+        <n v="4.0"/>
+        <n v="5.0"/>
+        <n v="6.0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="osm_admin_level_2" numFmtId="0">
+      <sharedItems>
+        <s v="Argentina"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="osm_admin_level_4" numFmtId="0">
+      <sharedItems>
+        <s v="xx"/>
+        <s v="CABA"/>
+        <s v="Chaco"/>
+        <s v="Tierra Del Fuego"/>
+        <s v="Buenos Aires"/>
+        <s v="Córdoba"/>
+        <s v="Jujuy"/>
+        <s v="Salta"/>
+        <s v="Río Negro"/>
+        <s v="Entre Ríos"/>
+        <s v="Santa Cruz"/>
+        <s v="Tucumán"/>
+        <s v="Santa Fe"/>
+        <s v="Corrientes"/>
+        <s v="Neuquén"/>
+        <s v="Santiago Del Estero"/>
+        <s v="Mendoza"/>
+        <s v="Misiones"/>
+        <s v="La Pampa"/>
+        <s v="San Luis"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="osm_admin_level_8" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <m/>
+        <s v="Ciudad de Santa Fe"/>
+        <s v="Rafaela"/>
+        <s v="Helvecia"/>
+        <s v="Esperanza"/>
+        <s v="Rosario"/>
+        <s v="Galvez"/>
+        <s v="Roldan"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="tot_casosconf" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
+        <n v="1.0"/>
+        <n v="2.0"/>
+        <n v="12.0"/>
+        <n v="17.0"/>
+        <n v="19.0"/>
+        <n v="21.0"/>
+        <n v="31.0"/>
+        <n v="34.0"/>
+        <n v="45.0"/>
+        <n v="51.0"/>
+        <n v="53.0"/>
+        <n v="55.0"/>
+        <n v="56.0"/>
+        <n v="61.0"/>
+        <n v="64.0"/>
+        <n v="65.0"/>
+        <n v="66.0"/>
+        <n v="70.0"/>
+        <n v="72.0"/>
+        <n v="73.0"/>
+        <n v="74.0"/>
+        <n v="75.0"/>
+        <n v="76.0"/>
+        <n v="77.0"/>
+        <n v="78.0"/>
+        <n v="88.0"/>
+        <n v="89.0"/>
+        <n v="95.0"/>
+        <n v="96.0"/>
+        <n v="97.0"/>
+        <n v="112.0"/>
+        <n v="120.0"/>
+        <n v="123.0"/>
+        <n v="125.0"/>
+        <n v="126.0"/>
+        <n v="127.0"/>
+        <n v="128.0"/>
+        <n v="137.0"/>
+        <n v="146.0"/>
+        <n v="151.0"/>
+        <n v="152.0"/>
+        <n v="153.0"/>
+        <n v="154.0"/>
+        <n v="155.0"/>
+        <n v="157.0"/>
+        <n v="158.0"/>
+        <n v="187.0"/>
+        <n v="202.0"/>
+        <n v="207.0"/>
+        <n v="212.0"/>
+        <n v="216.0"/>
+        <n v="219.0"/>
+        <n v="221.0"/>
+        <n v="222.0"/>
+        <n v="223.0"/>
+        <n v="224.0"/>
+        <n v="225.0"/>
+        <n v="236.0"/>
+        <n v="244.0"/>
+        <n v="252.0"/>
+        <n v="259.0"/>
+        <n v="264.0"/>
+        <n v="265.0"/>
+        <n v="276.0"/>
+        <n v="281.0"/>
+        <n v="282.0"/>
+        <n v="283.0"/>
+        <n v="291.0"/>
+        <n v="294.0"/>
+        <n v="297.0"/>
+        <n v="301.0"/>
+        <n v="330.0"/>
+        <n v="359.0"/>
+        <n v="368.0"/>
+        <n v="375.0"/>
+        <n v="379.0"/>
+        <n v="380.0"/>
+        <n v="381.0"/>
+        <n v="382.0"/>
+        <n v="383.0"/>
+        <n v="384.0"/>
+        <n v="385.0"/>
+        <n v="415.0"/>
+        <n v="436.0"/>
+        <n v="451.0"/>
+        <n v="463.0"/>
+        <n v="468.0"/>
+        <n v="472.0"/>
+        <n v="475.0"/>
+        <n v="476.0"/>
+        <n v="477.0"/>
+        <n v="478.0"/>
+        <n v="480.0"/>
+        <n v="502.0"/>
+        <n v="532.0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="nue_casosconf_diff" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
+        <n v="1.0"/>
+        <n v="0.0"/>
+        <n v="10.0"/>
+        <n v="5.0"/>
+        <n v="2.0"/>
+        <n v="3.0"/>
+        <n v="11.0"/>
+        <n v="6.0"/>
+        <n v="4.0"/>
+        <n v="15.0"/>
+        <n v="8.0"/>
+        <n v="9.0"/>
+        <n v="29.0"/>
+        <n v="7.0"/>
+        <n v="30.0"/>
+        <n v="21.0"/>
+        <n v="12.0"/>
+        <n v="22.0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="tot_fallecidos" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
+        <n v="0.0"/>
+        <n v="1.0"/>
+        <n v="2.0"/>
+        <n v="3.0"/>
+        <n v="4.0"/>
+        <n v="5.0"/>
+        <n v="6.0"/>
+        <n v="7.0"/>
+        <n v="8.0"/>
+        <n v="9.0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="nue_fallecidos_diff" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
+        <n v="0.0"/>
+        <n v="1.0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="transmision_tipo" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <s v="importado"/>
+        <m/>
+        <s v="transmision local"/>
+        <s v="transmision comunitaria"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="informe_tipo" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <s v="informe nacional"/>
+        <m/>
+        <s v="informe provincial"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="informe_link" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <s v="https://www.argentina.gob.ar/sites/default/files/5-03-2020-nuevo-coronavirus-covid-19-reporte-diario_1.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/6-03-2020-nuevo-coronavirus-covid-19-reporte-diario_1.pdf"/>
+        <m/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/8-03-2020-nuevo-coronavirus-covid-19-reporte-diario_0.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/9-03-2020-nuevo-coronavirus-covid-19-reporte_diario_0.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/10-03-2020-nuevo-coronavirus-covid-19-reporte-diario_1.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/11-03-2020-nuevo-coronavirus-covid-19-reporte-diario_0.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/12-03-20-nuevo-coronavirus-covid-19_reporte-diario_0.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/13-03-20-reporte-diario-covid-19_0.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/14-03-20-reporte-diario-covid-19_0.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/15032020-nuevo-coronavirus-covid-19_0.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/16-03-20-reporte-diario-covid-19_0.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/17-03-20_reporte_diario_covid-19.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/18-03-20_reporte_diario_covid-19_1.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/19-03-20-reporte-diario-covid-19.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/20-03-20_reporte_diario_covid_19_2.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/21-03-20-reporte-diario_covid19.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/22-03-20-reporte-diario_covid19.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/23-03-2020-covid19_informe-diario.pdf"/>
+        <s v="https://www.santafe.gob.ar/index.php/web/content/download/257616/1357149/file/Parte%20MSSF%20Coronavirus%2023-03-2020%2018hs.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/24-03-20-reporte-diario-vespertino-covid-19_0.pdf"/>
+        <s v="https://www.santafe.gob.ar/index.php/web/content/download/257621/1357167/file/Informe_Coronavirus_24_03_2020%2021%20hs.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/25-03-20-reporte-diario-vespertino-covid-19.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/26-03-20-reporte-diario-vespertino-covid-19.pdf"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="observacion" numFmtId="0">
+      <sharedItems containsBlank="1">
+        <m/>
+        <s v="no hay informe"/>
+        <s v="Si bien separa por provincias no se aclara las cantidades por provincia."/>
+        <s v="Santa Fe Parte Provincial suma15 casos. Parte Nacional reporta solo 13."/>
+        <s v="2 casos informados en el día de ayer se reclasificaron por lo que dejaron de formar parte del total. Se resto uno random en esta ciudad"/>
+        <s v="Santa Fe Parte Provincial no son novedades son totales. Por esto viene el ruido."/>
+        <s v="se suman 7casos, se compensa la diferencia entre los 20 casos del 27/3"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" invalid="1" refreshOnLoad="1">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N96" sheet="historico"/>
@@ -2258,317 +2999,414 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" invalid="1" refreshOnLoad="1">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:N97" sheet="historico"/>
-  </cacheSource>
-  <cacheFields>
-    <cacheField name="fecha" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsDate="1" containsString="0">
-        <d v="2020-03-05T00:00:00Z"/>
-        <d v="2020-03-06T00:00:00Z"/>
-        <d v="2020-03-07T00:00:00Z"/>
-        <d v="2020-03-08T00:00:00Z"/>
-        <d v="2020-03-09T00:00:00Z"/>
-        <d v="2020-03-10T00:00:00Z"/>
-        <d v="2020-03-11T00:00:00Z"/>
-        <d v="2020-03-12T00:00:00Z"/>
-        <d v="2020-03-13T00:00:00Z"/>
-        <d v="2020-03-14T00:00:00Z"/>
-        <d v="2020-03-15T00:00:00Z"/>
-        <d v="2020-03-16T00:00:00Z"/>
-        <d v="2020-03-17T00:00:00Z"/>
-        <d v="2020-03-18T00:00:00Z"/>
-        <d v="2020-03-19T00:00:00Z"/>
-        <d v="2020-03-20T00:00:00Z"/>
-        <d v="2020-03-21T00:00:00Z"/>
-        <d v="2020-03-22T00:00:00Z"/>
-        <d v="2020-03-23T00:00:00Z"/>
-        <d v="2020-03-24T00:00:00Z"/>
-        <d v="2020-03-25T00:00:00Z"/>
-        <d v="2020-03-26T00:00:00Z"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="dia_inicio" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
-        <n v="1.0"/>
-        <n v="2.0"/>
-        <n v="3.0"/>
-        <n v="4.0"/>
-        <n v="5.0"/>
-        <n v="6.0"/>
-        <n v="7.0"/>
-        <n v="8.0"/>
-        <n v="9.0"/>
-        <n v="10.0"/>
-        <n v="11.0"/>
-        <n v="12.0"/>
-        <n v="13.0"/>
-        <n v="14.0"/>
-        <n v="15.0"/>
-        <n v="16.0"/>
-        <n v="17.0"/>
-        <n v="18.0"/>
-        <n v="19.0"/>
-        <n v="20.0"/>
-        <n v="21.0"/>
-        <n v="22.0"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="dia_cuarentena_dnu260" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1">
-        <m/>
-        <n v="1.0"/>
-        <n v="2.0"/>
-        <n v="3.0"/>
-        <n v="4.0"/>
-        <n v="5.0"/>
-        <n v="6.0"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="osm_admin_level_2" numFmtId="0">
-      <sharedItems>
-        <s v="Argentina"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="osm_admin_level_4" numFmtId="0">
-      <sharedItems>
-        <s v="xx"/>
-        <s v="CABA"/>
-        <s v="Chaco"/>
-        <s v="Tierra Del Fuego"/>
-        <s v="Buenos Aires"/>
-        <s v="Córdoba"/>
-        <s v="Jujuy"/>
-        <s v="Salta"/>
-        <s v="Río Negro"/>
-        <s v="Entre Ríos"/>
-        <s v="Santa Cruz"/>
-        <s v="Tucumán"/>
-        <s v="Santa Fe"/>
-        <s v="Corrientes"/>
-        <s v="Neuquén"/>
-        <s v="Santiago Del Estero"/>
-        <s v="Mendoza"/>
-        <s v="Misiones"/>
-        <s v="La Pampa"/>
-        <s v="San Luis"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="osm_admin_level_8" numFmtId="0">
-      <sharedItems containsBlank="1">
-        <m/>
-        <s v="Ciudad de Santa Fe"/>
-        <s v="Rafaela"/>
-        <s v="Helvecia"/>
-        <s v="Esperanza"/>
-        <s v="Rosario"/>
-        <s v="Galvez"/>
-        <s v="Roldan"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="tot_casosconf" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
-        <n v="1.0"/>
-        <n v="2.0"/>
-        <n v="12.0"/>
-        <n v="17.0"/>
-        <n v="19.0"/>
-        <n v="21.0"/>
-        <n v="31.0"/>
-        <n v="34.0"/>
-        <n v="45.0"/>
-        <n v="51.0"/>
-        <n v="53.0"/>
-        <n v="55.0"/>
-        <n v="56.0"/>
-        <n v="61.0"/>
-        <n v="64.0"/>
-        <n v="65.0"/>
-        <n v="66.0"/>
-        <n v="70.0"/>
-        <n v="72.0"/>
-        <n v="73.0"/>
-        <n v="74.0"/>
-        <n v="75.0"/>
-        <n v="76.0"/>
-        <n v="77.0"/>
-        <n v="78.0"/>
-        <n v="88.0"/>
-        <n v="89.0"/>
-        <n v="95.0"/>
-        <n v="96.0"/>
-        <n v="97.0"/>
-        <n v="112.0"/>
-        <n v="120.0"/>
-        <n v="123.0"/>
-        <n v="125.0"/>
-        <n v="126.0"/>
-        <n v="127.0"/>
-        <n v="128.0"/>
-        <n v="137.0"/>
-        <n v="146.0"/>
-        <n v="151.0"/>
-        <n v="152.0"/>
-        <n v="153.0"/>
-        <n v="154.0"/>
-        <n v="155.0"/>
-        <n v="157.0"/>
-        <n v="158.0"/>
-        <n v="187.0"/>
-        <n v="202.0"/>
-        <n v="207.0"/>
-        <n v="212.0"/>
-        <n v="216.0"/>
-        <n v="219.0"/>
-        <n v="221.0"/>
-        <n v="222.0"/>
-        <n v="223.0"/>
-        <n v="224.0"/>
-        <n v="225.0"/>
-        <n v="236.0"/>
-        <n v="244.0"/>
-        <n v="252.0"/>
-        <n v="259.0"/>
-        <n v="264.0"/>
-        <n v="265.0"/>
-        <n v="276.0"/>
-        <n v="281.0"/>
-        <n v="282.0"/>
-        <n v="283.0"/>
-        <n v="291.0"/>
-        <n v="294.0"/>
-        <n v="297.0"/>
-        <n v="301.0"/>
-        <n v="330.0"/>
-        <n v="359.0"/>
-        <n v="368.0"/>
-        <n v="375.0"/>
-        <n v="379.0"/>
-        <n v="380.0"/>
-        <n v="381.0"/>
-        <n v="382.0"/>
-        <n v="383.0"/>
-        <n v="384.0"/>
-        <n v="385.0"/>
-        <n v="415.0"/>
-        <n v="436.0"/>
-        <n v="451.0"/>
-        <n v="463.0"/>
-        <n v="468.0"/>
-        <n v="472.0"/>
-        <n v="475.0"/>
-        <n v="476.0"/>
-        <n v="477.0"/>
-        <n v="478.0"/>
-        <n v="480.0"/>
-        <n v="502.0"/>
-        <n v="539.0"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="nue_casosconf_diff" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
-        <n v="1.0"/>
-        <n v="0.0"/>
-        <n v="10.0"/>
-        <n v="5.0"/>
-        <n v="2.0"/>
-        <n v="3.0"/>
-        <n v="11.0"/>
-        <n v="6.0"/>
-        <n v="4.0"/>
-        <n v="15.0"/>
-        <n v="8.0"/>
-        <n v="9.0"/>
-        <n v="29.0"/>
-        <n v="7.0"/>
-        <n v="30.0"/>
-        <n v="21.0"/>
-        <n v="12.0"/>
-        <n v="22.0"/>
-        <n v="37.0"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="tot_fallecidos" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
-        <n v="0.0"/>
-        <n v="1.0"/>
-        <n v="2.0"/>
-        <n v="3.0"/>
-        <n v="4.0"/>
-        <n v="5.0"/>
-        <n v="6.0"/>
-        <n v="7.0"/>
-        <n v="8.0"/>
-        <n v="9.0"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="nue_fallecidos_diff" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
-        <n v="0.0"/>
-        <n v="1.0"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="transmision_tipo" numFmtId="0">
-      <sharedItems containsBlank="1">
-        <s v="importado"/>
-        <m/>
-        <s v="transmision local"/>
-        <s v="transmision comunitaria"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="informe_tipo" numFmtId="0">
-      <sharedItems containsBlank="1">
-        <s v="informe nacional"/>
-        <m/>
-        <s v="informe provincial"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="informe_link" numFmtId="0">
-      <sharedItems containsBlank="1">
-        <s v="https://www.argentina.gob.ar/sites/default/files/5-03-2020-nuevo-coronavirus-covid-19-reporte-diario_1.pdf"/>
-        <s v="https://www.argentina.gob.ar/sites/default/files/6-03-2020-nuevo-coronavirus-covid-19-reporte-diario_1.pdf"/>
-        <m/>
-        <s v="https://www.argentina.gob.ar/sites/default/files/8-03-2020-nuevo-coronavirus-covid-19-reporte-diario_0.pdf"/>
-        <s v="https://www.argentina.gob.ar/sites/default/files/9-03-2020-nuevo-coronavirus-covid-19-reporte_diario_0.pdf"/>
-        <s v="https://www.argentina.gob.ar/sites/default/files/10-03-2020-nuevo-coronavirus-covid-19-reporte-diario_1.pdf"/>
-        <s v="https://www.argentina.gob.ar/sites/default/files/11-03-2020-nuevo-coronavirus-covid-19-reporte-diario_0.pdf"/>
-        <s v="https://www.argentina.gob.ar/sites/default/files/12-03-20-nuevo-coronavirus-covid-19_reporte-diario_0.pdf"/>
-        <s v="https://www.argentina.gob.ar/sites/default/files/13-03-20-reporte-diario-covid-19_0.pdf"/>
-        <s v="https://www.argentina.gob.ar/sites/default/files/14-03-20-reporte-diario-covid-19_0.pdf"/>
-        <s v="https://www.argentina.gob.ar/sites/default/files/15032020-nuevo-coronavirus-covid-19_0.pdf"/>
-        <s v="https://www.argentina.gob.ar/sites/default/files/16-03-20-reporte-diario-covid-19_0.pdf"/>
-        <s v="https://www.argentina.gob.ar/sites/default/files/17-03-20_reporte_diario_covid-19.pdf"/>
-        <s v="https://www.argentina.gob.ar/sites/default/files/18-03-20_reporte_diario_covid-19_1.pdf"/>
-        <s v="https://www.argentina.gob.ar/sites/default/files/19-03-20-reporte-diario-covid-19.pdf"/>
-        <s v="https://www.argentina.gob.ar/sites/default/files/20-03-20_reporte_diario_covid_19_2.pdf"/>
-        <s v="https://www.argentina.gob.ar/sites/default/files/21-03-20-reporte-diario_covid19.pdf"/>
-        <s v="https://www.argentina.gob.ar/sites/default/files/22-03-20-reporte-diario_covid19.pdf"/>
-        <s v="https://www.argentina.gob.ar/sites/default/files/23-03-2020-covid19_informe-diario.pdf"/>
-        <s v="https://www.santafe.gob.ar/index.php/web/content/download/257616/1357149/file/Parte%20MSSF%20Coronavirus%2023-03-2020%2018hs.pdf"/>
-        <s v="https://www.argentina.gob.ar/sites/default/files/24-03-20-reporte-diario-vespertino-covid-19_0.pdf"/>
-        <s v="https://www.santafe.gob.ar/index.php/web/content/download/257621/1357167/file/Informe_Coronavirus_24_03_2020%2021%20hs.pdf"/>
-        <s v="https://www.argentina.gob.ar/sites/default/files/25-03-20-reporte-diario-vespertino-covid-19.pdf"/>
-        <s v="https://www.argentina.gob.ar/sites/default/files/26-03-20-reporte-diario-vespertino-covid-19.pdf"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="observacion" numFmtId="0">
-      <sharedItems containsBlank="1">
-        <m/>
-        <s v="no hay informe"/>
-        <s v="Si bien separa por provincias no se aclara las cantidades por provincia."/>
-        <s v="Santa Fe Parte Provincial suma15 casos. Parte Nacional reporta solo 13."/>
-        <s v="2 casos informados en el día de ayer se reclasificaron por lo que dejaron de formar parte del total. Se resto uno random en esta ciudad"/>
-        <s v="Santa Fe Parte Provincial no son novedades son totales. Por esto viene el ruido."/>
-        <s v="se suman 7casos, se compensa la diferencia entre los 20 casos del 27/3"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica 2" cacheId="0" dataCaption="" compact="0" compactData="0">
+  <location ref="A1:F27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields>
+    <pivotField name="fecha" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="dia_inicio" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="dia_cuarentena_dnu260" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="osm_admin_level_2" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="osm_admin_level_4" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="osm_admin_level_8" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="tot_casosconf" dataField="1" compact="0" numFmtId="3" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="nue_casosconf_diff" compact="0" numFmtId="3" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="tot_fallecidos" compact="0" numFmtId="3" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="nue_fallecidos_diff" compact="0" numFmtId="3" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="transmision_tipo" axis="axisCol" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+      <items>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="informe_tipo" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="informe_link" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="observacion" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields>
+    <field x="1"/>
+  </rowFields>
+  <colFields>
+    <field x="10"/>
+  </colFields>
+  <dataFields>
+    <dataField name="COUNT of tot_casosconf" fld="6" subtotal="countNums" baseField="0"/>
+  </dataFields>
+</pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CASOS TOTALES POR DIA" cacheId="1" dataCaption="" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:C23" firstHeaderRow="0" firstDataRow="2" firstDataCol="0"/>
   <pivotFields>
@@ -2802,7 +3640,6 @@
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
-        <item x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2900,8 +3737,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CASOS POR DIAPCIA" cacheId="0" dataCaption="" colGrandTotals="0" compact="0" compactData="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CASOS POR DIAPCIA" cacheId="2" dataCaption="" colGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:V22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields>
     <pivotField name="fecha" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -3435,8 +4272,8 @@
     <col customWidth="1" min="1" max="1" width="10.29"/>
     <col customWidth="1" min="2" max="2" width="8.86"/>
     <col customWidth="1" min="3" max="3" width="20.71"/>
-    <col customWidth="1" min="4" max="4" width="18.29"/>
-    <col customWidth="1" min="5" max="5" width="17.71"/>
+    <col customWidth="1" min="4" max="4" width="17.29"/>
+    <col customWidth="1" min="5" max="5" width="20.57"/>
     <col customWidth="1" min="6" max="6" width="17.57"/>
     <col customWidth="1" min="7" max="7" width="13.71"/>
     <col customWidth="1" min="8" max="8" width="20.0"/>
@@ -3496,7 +4333,7 @@
         <v>43895.0</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:B120" si="1">DAYS(A2,DATE(2020,3,4))</f>
+        <f t="shared" ref="B2:B138" si="1">DAYS(A2,DATE(2020,3,4))</f>
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
@@ -3547,7 +4384,7 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G120" si="2">G2+H3</f>
+        <f t="shared" ref="G3:G138" si="2">G2+H3</f>
         <v>2</v>
       </c>
       <c r="H3" s="3">
@@ -3594,7 +4431,7 @@
         <v>0.0</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" ref="I4:I120" si="3">I3+J4</f>
+        <f t="shared" ref="I4:I116" si="3">I3+J4</f>
         <v>0</v>
       </c>
       <c r="J4" s="3">
@@ -5397,7 +6234,7 @@
         <v>14</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G46" s="23">
         <f t="shared" si="2"/>
@@ -5437,7 +6274,7 @@
         <v>14</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="23">
@@ -5478,7 +6315,7 @@
         <v>14</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="23">
@@ -5515,7 +6352,7 @@
         <v>17</v>
       </c>
       <c r="C49" s="9">
-        <f t="shared" ref="C49:C120" si="4">DAYS(A49,DATE(2020,3,20))</f>
+        <f t="shared" ref="C49:C138" si="4">DAYS(A49,DATE(2020,3,20))</f>
         <v>1</v>
       </c>
       <c r="D49" s="9" t="s">
@@ -5540,13 +6377,13 @@
         <v>0.0</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L49" s="12" t="s">
         <v>17</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N49" s="14"/>
       <c r="O49" s="10"/>
@@ -5603,13 +6440,13 @@
         <v>1.0</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N50" s="6"/>
     </row>
@@ -5646,13 +6483,13 @@
         <v>0.0</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N51" s="6"/>
     </row>
@@ -5672,7 +6509,7 @@
         <v>14</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G52" s="23">
         <f t="shared" si="2"/>
@@ -5689,13 +6526,13 @@
         <v>0.0</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N52" s="6"/>
     </row>
@@ -5732,13 +6569,13 @@
         <v>0.0</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N53" s="6"/>
     </row>
@@ -5776,13 +6613,13 @@
         <v>0.0</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N54" s="6"/>
     </row>
@@ -5802,7 +6639,7 @@
         <v>14</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G55" s="23">
         <f t="shared" si="2"/>
@@ -5819,13 +6656,13 @@
         <v>0.0</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N55" s="6"/>
     </row>
@@ -5848,7 +6685,7 @@
         <v>45</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G56" s="23">
         <f t="shared" si="2"/>
@@ -5865,13 +6702,13 @@
         <v>0.0</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N56" s="6"/>
     </row>
@@ -5894,7 +6731,7 @@
         <v>45</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G57" s="23">
         <f t="shared" si="2"/>
@@ -5911,13 +6748,13 @@
         <v>0.0</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N57" s="6"/>
     </row>
@@ -5955,13 +6792,13 @@
         <v>0.0</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N58" s="6"/>
     </row>
@@ -5998,13 +6835,13 @@
         <v>0.0</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N59" s="6"/>
     </row>
@@ -6042,13 +6879,13 @@
         <v>0.0</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L60" s="12" t="s">
         <v>17</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N60" s="14"/>
       <c r="O60" s="10"/>
@@ -6105,13 +6942,13 @@
         <v>0.0</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N61" s="6"/>
     </row>
@@ -6148,13 +6985,13 @@
         <v>0.0</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N62" s="6"/>
     </row>
@@ -6191,13 +7028,13 @@
         <v>0.0</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N63" s="6"/>
     </row>
@@ -6235,13 +7072,13 @@
         <v>0.0</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N64" s="6"/>
     </row>
@@ -6261,7 +7098,7 @@
         <v>14</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="23">
@@ -6279,13 +7116,13 @@
         <v>0.0</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L65" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N65" s="6"/>
     </row>
@@ -6323,13 +7160,13 @@
         <v>0.0</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L66" s="12" t="s">
         <v>17</v>
       </c>
       <c r="M66" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N66" s="14"/>
       <c r="O66" s="10"/>
@@ -6386,13 +7223,13 @@
         <v>0.0</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L67" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N67" s="6"/>
     </row>
@@ -6415,7 +7252,7 @@
         <v>45</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G68" s="23">
         <f t="shared" si="2"/>
@@ -6432,16 +7269,16 @@
         <v>0.0</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" ht="16.5" customHeight="1">
@@ -6463,7 +7300,7 @@
         <v>45</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G69" s="23">
         <f t="shared" si="2"/>
@@ -6480,16 +7317,16 @@
         <v>0.0</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" ht="16.5" customHeight="1">
@@ -6511,7 +7348,7 @@
         <v>45</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G70" s="23">
         <f t="shared" si="2"/>
@@ -6528,16 +7365,16 @@
         <v>0.0</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" ht="16.5" customHeight="1">
@@ -6559,7 +7396,7 @@
         <v>45</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G71" s="23">
         <f t="shared" si="2"/>
@@ -6576,16 +7413,16 @@
         <v>0.0</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" ht="16.5" customHeight="1">
@@ -6621,13 +7458,13 @@
         <v>0.0</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N72" s="6"/>
     </row>
@@ -6664,13 +7501,13 @@
         <v>0.0</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L73" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N73" s="6"/>
     </row>
@@ -6708,16 +7545,16 @@
         <v>0.0</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L74" s="12" t="s">
         <v>17</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="N74" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="N74" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
@@ -6773,16 +7610,16 @@
         <v>1.0</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L75" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="N75" s="27" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="N75" s="28" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="76" ht="16.5" customHeight="1">
@@ -6819,13 +7656,13 @@
         <v>1.0</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L76" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N76" s="6"/>
     </row>
@@ -6863,13 +7700,13 @@
         <v>0.0</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L77" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M77" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N77" s="6"/>
     </row>
@@ -6907,13 +7744,13 @@
         <v>0.0</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L78" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M78" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N78" s="6"/>
     </row>
@@ -6936,7 +7773,7 @@
         <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G79" s="23">
         <f t="shared" si="2"/>
@@ -6953,16 +7790,16 @@
         <v>0.0</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" ht="16.5" customHeight="1">
@@ -6984,7 +7821,7 @@
         <v>45</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G80" s="23">
         <f t="shared" si="2"/>
@@ -7001,16 +7838,16 @@
         <v>0.0</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" ht="16.5" customHeight="1">
@@ -7032,7 +7869,7 @@
         <v>45</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G81" s="23">
         <f t="shared" si="2"/>
@@ -7049,16 +7886,16 @@
         <v>0.0</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" ht="16.5" customHeight="1">
@@ -7077,7 +7914,7 @@
         <v>14</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="23">
@@ -7095,13 +7932,13 @@
         <v>0.0</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L82" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N82" s="6"/>
     </row>
@@ -7121,7 +7958,7 @@
         <v>14</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="23">
@@ -7139,13 +7976,13 @@
         <v>0.0</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L83" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N83" s="6"/>
     </row>
@@ -7183,13 +8020,13 @@
         <v>0.0</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L84" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N84" s="6"/>
     </row>
@@ -7227,13 +8064,13 @@
         <v>0.0</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L85" s="12" t="s">
         <v>17</v>
       </c>
       <c r="M85" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N85" s="14"/>
       <c r="O85" s="10"/>
@@ -7290,13 +8127,13 @@
         <v>1.0</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L86" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M86" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N86" s="6"/>
     </row>
@@ -7333,13 +8170,13 @@
         <v>0.0</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L87" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M87" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N87" s="6"/>
     </row>
@@ -7376,13 +8213,13 @@
         <v>1.0</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L88" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N88" s="6"/>
     </row>
@@ -7419,13 +8256,13 @@
         <v>0.0</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L89" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N89" s="6"/>
     </row>
@@ -7445,7 +8282,7 @@
         <v>14</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="G90" s="23">
         <f t="shared" si="2"/>
@@ -7462,13 +8299,13 @@
         <v>0.0</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L90" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N90" s="6"/>
     </row>
@@ -7505,13 +8342,13 @@
         <v>0.0</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L91" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N91" s="6"/>
     </row>
@@ -7531,7 +8368,7 @@
         <v>14</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G92" s="23">
         <f t="shared" si="2"/>
@@ -7548,13 +8385,13 @@
         <v>0.0</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L92" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N92" s="6"/>
     </row>
@@ -7574,7 +8411,7 @@
         <v>14</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G93" s="23">
         <f t="shared" si="2"/>
@@ -7591,13 +8428,13 @@
         <v>0.0</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N93" s="6"/>
     </row>
@@ -7634,13 +8471,13 @@
         <v>0.0</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L94" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N94" s="6"/>
     </row>
@@ -7677,13 +8514,13 @@
         <v>0.0</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L95" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N95" s="6"/>
     </row>
@@ -7720,81 +8557,81 @@
         <v>0.0</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L96" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="N96" s="30"/>
+        <v>78</v>
+      </c>
+      <c r="N96" s="29"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="31">
+      <c r="A97" s="30">
         <v>43916.0</v>
       </c>
-      <c r="B97" s="32">
+      <c r="B97" s="31">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C97" s="32">
+      <c r="C97" s="31">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="D97" s="32" t="s">
+      <c r="D97" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="32" t="s">
+      <c r="E97" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F97" s="33"/>
-      <c r="G97" s="34">
+      <c r="F97" s="32"/>
+      <c r="G97" s="33">
         <f t="shared" si="2"/>
-        <v>539</v>
-      </c>
-      <c r="H97" s="35">
-        <v>37.0</v>
-      </c>
-      <c r="I97" s="34">
+        <v>532</v>
+      </c>
+      <c r="H97" s="34">
+        <v>30.0</v>
+      </c>
+      <c r="I97" s="33">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J97" s="36">
+      <c r="J97" s="35">
         <v>1.0</v>
       </c>
-      <c r="K97" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="L97" s="37" t="s">
+      <c r="K97" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L97" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="M97" s="38" t="s">
+      <c r="M97" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="N97" s="39" t="s">
+      <c r="N97" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="O97" s="33"/>
-      <c r="P97" s="33"/>
-      <c r="Q97" s="33"/>
-      <c r="R97" s="33"/>
-      <c r="S97" s="33"/>
-      <c r="T97" s="33"/>
-      <c r="U97" s="33"/>
-      <c r="V97" s="33"/>
-      <c r="W97" s="33"/>
-      <c r="X97" s="33"/>
-      <c r="Y97" s="33"/>
-      <c r="Z97" s="33"/>
-      <c r="AA97" s="33"/>
-      <c r="AB97" s="33"/>
-      <c r="AC97" s="33"/>
-      <c r="AD97" s="33"/>
-      <c r="AE97" s="33"/>
-      <c r="AF97" s="33"/>
-      <c r="AG97" s="33"/>
-      <c r="AH97" s="33"/>
+      <c r="O97" s="32"/>
+      <c r="P97" s="32"/>
+      <c r="Q97" s="32"/>
+      <c r="R97" s="32"/>
+      <c r="S97" s="32"/>
+      <c r="T97" s="32"/>
+      <c r="U97" s="32"/>
+      <c r="V97" s="32"/>
+      <c r="W97" s="32"/>
+      <c r="X97" s="32"/>
+      <c r="Y97" s="32"/>
+      <c r="Z97" s="32"/>
+      <c r="AA97" s="32"/>
+      <c r="AB97" s="32"/>
+      <c r="AC97" s="32"/>
+      <c r="AD97" s="32"/>
+      <c r="AE97" s="32"/>
+      <c r="AF97" s="32"/>
+      <c r="AG97" s="32"/>
+      <c r="AH97" s="32"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="1">
@@ -7816,7 +8653,7 @@
       </c>
       <c r="G98" s="23">
         <f t="shared" si="2"/>
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="H98" s="3">
         <v>27.0</v>
@@ -7829,7 +8666,7 @@
         <v>2.0</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L98" s="4" t="s">
         <v>17</v>
@@ -7859,7 +8696,7 @@
       </c>
       <c r="G99" s="23">
         <f t="shared" si="2"/>
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="H99" s="3">
         <v>12.0</v>
@@ -7872,7 +8709,7 @@
         <v>0.0</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L99" s="4" t="s">
         <v>17</v>
@@ -7902,7 +8739,7 @@
       </c>
       <c r="G100" s="23">
         <f t="shared" si="2"/>
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="H100" s="3">
         <v>3.0</v>
@@ -7915,7 +8752,7 @@
         <v>1.0</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L100" s="4" t="s">
         <v>17</v>
@@ -7945,7 +8782,7 @@
       </c>
       <c r="G101" s="23">
         <f t="shared" si="2"/>
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="H101" s="3">
         <v>3.0</v>
@@ -7958,7 +8795,7 @@
         <v>0.0</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>17</v>
@@ -7988,7 +8825,7 @@
       </c>
       <c r="G102" s="23">
         <f t="shared" si="2"/>
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="H102" s="3">
         <v>3.0</v>
@@ -8001,7 +8838,7 @@
         <v>0.0</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>17</v>
@@ -8027,11 +8864,11 @@
         <v>14</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G103" s="23">
         <f t="shared" si="2"/>
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="H103" s="3">
         <v>3.0</v>
@@ -8044,7 +8881,7 @@
         <v>0.0</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L103" s="4" t="s">
         <v>17</v>
@@ -8074,7 +8911,7 @@
       </c>
       <c r="G104" s="23">
         <f t="shared" si="2"/>
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="H104" s="3">
         <v>2.0</v>
@@ -8087,7 +8924,7 @@
         <v>0.0</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L104" s="4" t="s">
         <v>17</v>
@@ -8117,7 +8954,7 @@
       </c>
       <c r="G105" s="23">
         <f t="shared" si="2"/>
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="H105" s="3">
         <v>2.0</v>
@@ -8130,7 +8967,7 @@
         <v>0.0</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L105" s="4" t="s">
         <v>17</v>
@@ -8156,11 +8993,11 @@
         <v>14</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G106" s="23">
         <f t="shared" si="2"/>
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="H106" s="3">
         <v>1.0</v>
@@ -8173,7 +9010,7 @@
         <v>0.0</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L106" s="4" t="s">
         <v>17</v>
@@ -8198,15 +9035,15 @@
       <c r="D107" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>56</v>
+      <c r="E107" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="G107" s="23">
         <f t="shared" si="2"/>
-        <v>596</v>
-      </c>
-      <c r="H107" s="3">
-        <v>1.0</v>
+        <v>588</v>
+      </c>
+      <c r="H107" s="39">
+        <v>0.0</v>
       </c>
       <c r="I107" s="23">
         <f t="shared" si="3"/>
@@ -8216,7 +9053,7 @@
         <v>0.0</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L107" s="4" t="s">
         <v>17</v>
@@ -8224,78 +9061,78 @@
       <c r="M107" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N107" s="4" t="s">
+      <c r="N107" s="40" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="108" ht="16.5" customHeight="1">
-      <c r="A108" s="40">
+      <c r="A108" s="41">
         <v>43917.0</v>
       </c>
-      <c r="B108" s="32">
+      <c r="B108" s="31">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C108" s="32">
+      <c r="C108" s="31">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="D108" s="41" t="s">
+      <c r="D108" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E108" s="32" t="s">
+      <c r="E108" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F108" s="33"/>
-      <c r="G108" s="34">
+      <c r="F108" s="32"/>
+      <c r="G108" s="33">
         <f t="shared" si="2"/>
-        <v>616</v>
-      </c>
-      <c r="H108" s="35">
-        <v>20.0</v>
-      </c>
-      <c r="I108" s="34">
+        <v>631</v>
+      </c>
+      <c r="H108" s="34">
+        <v>43.0</v>
+      </c>
+      <c r="I108" s="33">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="J108" s="35">
+      <c r="J108" s="34">
         <v>1.0</v>
       </c>
-      <c r="K108" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="L108" s="39" t="s">
+      <c r="K108" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="L108" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="M108" s="38" t="s">
+      <c r="M108" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="N108" s="42" t="s">
+      <c r="N108" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="O108" s="33"/>
-      <c r="P108" s="33"/>
-      <c r="Q108" s="33"/>
-      <c r="R108" s="33"/>
-      <c r="S108" s="33"/>
-      <c r="T108" s="33"/>
-      <c r="U108" s="33"/>
-      <c r="V108" s="33"/>
-      <c r="W108" s="33"/>
-      <c r="X108" s="33"/>
-      <c r="Y108" s="33"/>
-      <c r="Z108" s="33"/>
-      <c r="AA108" s="33"/>
-      <c r="AB108" s="33"/>
-      <c r="AC108" s="33"/>
-      <c r="AD108" s="33"/>
-      <c r="AE108" s="33"/>
-      <c r="AF108" s="33"/>
-      <c r="AG108" s="33"/>
-      <c r="AH108" s="33"/>
+      <c r="O108" s="32"/>
+      <c r="P108" s="32"/>
+      <c r="Q108" s="32"/>
+      <c r="R108" s="32"/>
+      <c r="S108" s="32"/>
+      <c r="T108" s="32"/>
+      <c r="U108" s="32"/>
+      <c r="V108" s="32"/>
+      <c r="W108" s="32"/>
+      <c r="X108" s="32"/>
+      <c r="Y108" s="32"/>
+      <c r="Z108" s="32"/>
+      <c r="AA108" s="32"/>
+      <c r="AB108" s="32"/>
+      <c r="AC108" s="32"/>
+      <c r="AD108" s="32"/>
+      <c r="AE108" s="32"/>
+      <c r="AF108" s="32"/>
+      <c r="AG108" s="32"/>
+      <c r="AH108" s="32"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
-      <c r="A109" s="43">
+      <c r="A109" s="44">
         <v>43917.0</v>
       </c>
       <c r="B109" s="2">
@@ -8314,33 +9151,30 @@
       </c>
       <c r="G109" s="23">
         <f t="shared" si="2"/>
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="H109" s="46">
         <v>36.0</v>
       </c>
       <c r="I109" s="23">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J109" s="46">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L109" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="L109" s="47" t="s">
         <v>17</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N109" s="48" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110" ht="16.5" customHeight="1">
-      <c r="A110" s="43">
+      <c r="A110" s="44">
         <v>43917.0</v>
       </c>
       <c r="B110" s="2">
@@ -8359,31 +9193,31 @@
       </c>
       <c r="G110" s="23">
         <f t="shared" si="2"/>
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="H110" s="46">
         <v>3.0</v>
       </c>
       <c r="I110" s="23">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J110" s="46">
         <v>0.0</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L110" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="L110" s="47" t="s">
         <v>17</v>
       </c>
       <c r="M110" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N110" s="48"/>
+        <v>87</v>
+      </c>
+      <c r="N110" s="47"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
-      <c r="A111" s="43">
+      <c r="A111" s="44">
         <v>43917.0</v>
       </c>
       <c r="B111" s="2">
@@ -8402,31 +9236,31 @@
       </c>
       <c r="G111" s="23">
         <f t="shared" si="2"/>
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="H111" s="46">
         <v>5.0</v>
       </c>
       <c r="I111" s="23">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J111" s="46">
         <v>0.0</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L111" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="L111" s="47" t="s">
         <v>17</v>
       </c>
       <c r="M111" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N111" s="48"/>
+        <v>87</v>
+      </c>
+      <c r="N111" s="47"/>
     </row>
     <row r="112" ht="16.5" customHeight="1">
-      <c r="A112" s="43">
+      <c r="A112" s="44">
         <v>43917.0</v>
       </c>
       <c r="B112" s="2">
@@ -8445,31 +9279,31 @@
       </c>
       <c r="G112" s="23">
         <f t="shared" si="2"/>
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="H112" s="46">
         <v>6.0</v>
       </c>
       <c r="I112" s="23">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J112" s="46">
         <v>0.0</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L112" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="L112" s="47" t="s">
         <v>17</v>
       </c>
       <c r="M112" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N112" s="48"/>
+        <v>87</v>
+      </c>
+      <c r="N112" s="47"/>
     </row>
     <row r="113" ht="16.5" customHeight="1">
-      <c r="A113" s="43">
+      <c r="A113" s="44">
         <v>43917.0</v>
       </c>
       <c r="B113" s="2">
@@ -8486,33 +9320,36 @@
       <c r="E113" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="F113" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G113" s="23">
         <f t="shared" si="2"/>
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="H113" s="46">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="I113" s="23">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J113" s="46">
         <v>0.0</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L113" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="L113" s="47" t="s">
         <v>17</v>
       </c>
       <c r="M113" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N113" s="48"/>
+        <v>87</v>
+      </c>
+      <c r="N113" s="47"/>
     </row>
     <row r="114" ht="16.5" customHeight="1">
-      <c r="A114" s="43">
+      <c r="A114" s="1">
         <v>43917.0</v>
       </c>
       <c r="B114" s="2">
@@ -8527,35 +9364,38 @@
         <v>14</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="G114" s="23">
         <f t="shared" si="2"/>
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="H114" s="46">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I114" s="23">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="J114" s="46">
+        <v>13</v>
+      </c>
+      <c r="J114" s="3">
         <v>0.0</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L114" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="L114" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M114" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N114" s="48"/>
+        <v>87</v>
+      </c>
+      <c r="N114" s="4"/>
     </row>
     <row r="115" ht="16.5" customHeight="1">
-      <c r="A115" s="43">
+      <c r="A115" s="1">
         <v>43917.0</v>
       </c>
       <c r="B115" s="2">
@@ -8570,35 +9410,38 @@
         <v>14</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="G115" s="23">
         <f t="shared" si="2"/>
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="H115" s="46">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I115" s="23">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="J115" s="46">
-        <v>1.0</v>
+        <v>13</v>
+      </c>
+      <c r="J115" s="3">
+        <v>0.0</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L115" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="L115" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M115" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N115" s="48"/>
+        <v>87</v>
+      </c>
+      <c r="N115" s="4"/>
     </row>
     <row r="116" ht="16.5" customHeight="1">
-      <c r="A116" s="43">
+      <c r="A116" s="1">
         <v>43917.0</v>
       </c>
       <c r="B116" s="2">
@@ -8613,35 +9456,38 @@
         <v>14</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="G116" s="23">
         <f t="shared" si="2"/>
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="H116" s="46">
         <v>1.0</v>
       </c>
       <c r="I116" s="23">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="J116" s="46">
-        <v>1.0</v>
+        <v>13</v>
+      </c>
+      <c r="J116" s="3">
+        <v>0.0</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L116" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="L116" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M116" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N116" s="48"/>
+        <v>87</v>
+      </c>
+      <c r="N116" s="4"/>
     </row>
     <row r="117" ht="16.5" customHeight="1">
-      <c r="A117" s="43">
+      <c r="A117" s="44">
         <v>43917.0</v>
       </c>
       <c r="B117" s="2">
@@ -8656,35 +9502,35 @@
         <v>14</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G117" s="23">
         <f t="shared" si="2"/>
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="H117" s="46">
         <v>3.0</v>
       </c>
       <c r="I117" s="23">
-        <f t="shared" si="3"/>
+        <f>I113+J117</f>
+        <v>13</v>
+      </c>
+      <c r="J117" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L117" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J117" s="46">
-        <v>1.0</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L117" s="48" t="s">
-        <v>17</v>
-      </c>
       <c r="M117" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N117" s="48"/>
+        <v>87</v>
+      </c>
+      <c r="N117" s="47"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
-      <c r="A118" s="43">
+      <c r="A118" s="44">
         <v>43917.0</v>
       </c>
       <c r="B118" s="2">
@@ -8699,35 +9545,35 @@
         <v>14</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G118" s="23">
         <f t="shared" si="2"/>
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="H118" s="46">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I118" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I118:I131" si="5">I117+J118</f>
+        <v>14</v>
+      </c>
+      <c r="J118" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L118" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J118" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L118" s="48" t="s">
-        <v>17</v>
-      </c>
       <c r="M118" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N118" s="48"/>
+        <v>87</v>
+      </c>
+      <c r="N118" s="47"/>
     </row>
     <row r="119" ht="16.5" customHeight="1">
-      <c r="A119" s="43">
+      <c r="A119" s="44">
         <v>43917.0</v>
       </c>
       <c r="B119" s="2">
@@ -8742,35 +9588,35 @@
         <v>14</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="G119" s="23">
         <f t="shared" si="2"/>
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="H119" s="46">
         <v>1.0</v>
       </c>
       <c r="I119" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="J119" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L119" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J119" s="46">
-        <v>0.0</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L119" s="48" t="s">
-        <v>17</v>
-      </c>
       <c r="M119" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N119" s="48"/>
+        <v>87</v>
+      </c>
+      <c r="N119" s="47"/>
     </row>
     <row r="120" ht="16.5" customHeight="1">
-      <c r="A120" s="43">
+      <c r="A120" s="44">
         <v>43917.0</v>
       </c>
       <c r="B120" s="2">
@@ -8785,238 +9631,861 @@
         <v>14</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G120" s="23">
         <f t="shared" si="2"/>
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="H120" s="46">
+        <v>3.0</v>
+      </c>
+      <c r="I120" s="23">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="J120" s="46">
         <v>1.0</v>
       </c>
-      <c r="I120" s="23">
-        <f t="shared" si="3"/>
+      <c r="K120" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L120" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J120" s="46">
+      <c r="M120" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N120" s="47"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c r="A121" s="44">
+        <v>43917.0</v>
+      </c>
+      <c r="B121" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C121" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G121" s="23">
+        <f t="shared" si="2"/>
+        <v>703</v>
+      </c>
+      <c r="H121" s="46">
+        <v>2.0</v>
+      </c>
+      <c r="I121" s="23">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="J121" s="46">
         <v>0.0</v>
       </c>
-      <c r="K120" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L120" s="48" t="s">
+      <c r="K121" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L121" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="M120" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N120" s="51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c r="A121" s="19"/>
-      <c r="E121" s="25"/>
-      <c r="G121" s="21"/>
-      <c r="H121" s="52"/>
-      <c r="I121" s="21"/>
-      <c r="J121" s="21"/>
-      <c r="L121" s="6"/>
-      <c r="M121" s="6"/>
-      <c r="N121" s="6"/>
+      <c r="M121" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N121" s="47"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
-      <c r="A122" s="19"/>
-      <c r="E122" s="25"/>
-      <c r="G122" s="21"/>
-      <c r="H122" s="21"/>
-      <c r="I122" s="21"/>
-      <c r="J122" s="21"/>
-      <c r="L122" s="6"/>
-      <c r="M122" s="6"/>
-      <c r="N122" s="6"/>
+      <c r="A122" s="44">
+        <v>43917.0</v>
+      </c>
+      <c r="B122" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C122" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G122" s="23">
+        <f t="shared" si="2"/>
+        <v>704</v>
+      </c>
+      <c r="H122" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I122" s="23">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="J122" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L122" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="M122" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N122" s="47"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
-      <c r="A123" s="19"/>
-      <c r="E123" s="25"/>
-      <c r="G123" s="21"/>
-      <c r="H123" s="21"/>
-      <c r="I123" s="21"/>
-      <c r="J123" s="21"/>
-      <c r="L123" s="6"/>
-      <c r="M123" s="6"/>
-      <c r="N123" s="6"/>
+      <c r="A123" s="44">
+        <v>43917.0</v>
+      </c>
+      <c r="B123" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C123" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G123" s="23">
+        <f t="shared" si="2"/>
+        <v>705</v>
+      </c>
+      <c r="H123" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I123" s="23">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="J123" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L123" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="M123" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N123" s="4"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
-      <c r="A124" s="19"/>
-      <c r="E124" s="25"/>
-      <c r="G124" s="21"/>
-      <c r="H124" s="21"/>
-      <c r="I124" s="21"/>
-      <c r="J124" s="21"/>
-      <c r="L124" s="6"/>
-      <c r="M124" s="6"/>
-      <c r="N124" s="6"/>
+      <c r="A124" s="44">
+        <v>43917.0</v>
+      </c>
+      <c r="B124" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C124" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="G124" s="23">
+        <f t="shared" si="2"/>
+        <v>689</v>
+      </c>
+      <c r="H124" s="39">
+        <v>-16.0</v>
+      </c>
+      <c r="I124" s="23">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="J124" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L124" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N124" s="47" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="125" ht="16.5" customHeight="1">
-      <c r="A125" s="19"/>
-      <c r="E125" s="25"/>
-      <c r="G125" s="21"/>
-      <c r="H125" s="21"/>
-      <c r="I125" s="21"/>
-      <c r="J125" s="21"/>
-      <c r="L125" s="6"/>
-      <c r="M125" s="6"/>
-      <c r="N125" s="6"/>
+      <c r="A125" s="41">
+        <v>43918.0</v>
+      </c>
+      <c r="B125" s="31">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C125" s="31">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D125" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F125" s="32"/>
+      <c r="G125" s="33">
+        <f t="shared" si="2"/>
+        <v>697</v>
+      </c>
+      <c r="H125" s="34">
+        <v>8.0</v>
+      </c>
+      <c r="I125" s="33">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="J125" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="K125" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="L125" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="M125" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="N125" s="54"/>
+      <c r="O125" s="32"/>
+      <c r="P125" s="32"/>
+      <c r="Q125" s="32"/>
+      <c r="R125" s="32"/>
+      <c r="S125" s="32"/>
+      <c r="T125" s="32"/>
+      <c r="U125" s="32"/>
+      <c r="V125" s="32"/>
+      <c r="W125" s="32"/>
+      <c r="X125" s="32"/>
+      <c r="Y125" s="32"/>
+      <c r="Z125" s="32"/>
+      <c r="AA125" s="32"/>
+      <c r="AB125" s="32"/>
+      <c r="AC125" s="32"/>
+      <c r="AD125" s="32"/>
+      <c r="AE125" s="32"/>
+      <c r="AF125" s="32"/>
+      <c r="AG125" s="32"/>
+      <c r="AH125" s="32"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
-      <c r="A126" s="19"/>
-      <c r="E126" s="25"/>
-      <c r="G126" s="21"/>
-      <c r="H126" s="21"/>
-      <c r="I126" s="21"/>
-      <c r="J126" s="21"/>
-      <c r="L126" s="6"/>
-      <c r="M126" s="6"/>
-      <c r="N126" s="6"/>
+      <c r="A126" s="44">
+        <v>43918.0</v>
+      </c>
+      <c r="B126" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C126" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G126" s="23">
+        <f t="shared" si="2"/>
+        <v>715</v>
+      </c>
+      <c r="H126" s="46">
+        <v>18.0</v>
+      </c>
+      <c r="I126" s="23">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="J126" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L126" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M126" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N126" s="55"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
-      <c r="A127" s="19"/>
-      <c r="E127" s="25"/>
-      <c r="G127" s="21"/>
-      <c r="H127" s="21"/>
-      <c r="I127" s="21"/>
-      <c r="J127" s="21"/>
-      <c r="L127" s="6"/>
-      <c r="M127" s="6"/>
-      <c r="N127" s="6"/>
+      <c r="A127" s="44">
+        <v>43918.0</v>
+      </c>
+      <c r="B127" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C127" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G127" s="23">
+        <f t="shared" si="2"/>
+        <v>719</v>
+      </c>
+      <c r="H127" s="46">
+        <v>4.0</v>
+      </c>
+      <c r="I127" s="23">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="J127" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L127" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M127" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N127" s="55"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
-      <c r="A128" s="19"/>
-      <c r="E128" s="25"/>
-      <c r="G128" s="21"/>
-      <c r="H128" s="21"/>
-      <c r="I128" s="21"/>
-      <c r="J128" s="21"/>
-      <c r="L128" s="6"/>
-      <c r="M128" s="6"/>
-      <c r="N128" s="6"/>
+      <c r="A128" s="44">
+        <v>43918.0</v>
+      </c>
+      <c r="B128" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C128" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D128" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G128" s="23">
+        <f t="shared" si="2"/>
+        <v>723</v>
+      </c>
+      <c r="H128" s="46">
+        <v>4.0</v>
+      </c>
+      <c r="I128" s="23">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="J128" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K128" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L128" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M128" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N128" s="55"/>
     </row>
     <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="19"/>
-      <c r="E129" s="25"/>
-      <c r="G129" s="21"/>
-      <c r="H129" s="21"/>
-      <c r="I129" s="21"/>
-      <c r="J129" s="21"/>
-      <c r="L129" s="6"/>
-      <c r="M129" s="6"/>
-      <c r="N129" s="6"/>
+      <c r="A129" s="44">
+        <v>43918.0</v>
+      </c>
+      <c r="B129" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C129" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D129" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G129" s="23">
+        <f t="shared" si="2"/>
+        <v>726</v>
+      </c>
+      <c r="H129" s="46">
+        <v>3.0</v>
+      </c>
+      <c r="I129" s="23">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="J129" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K129" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L129" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M129" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N129" s="55"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
-      <c r="A130" s="19"/>
-      <c r="E130" s="25"/>
-      <c r="G130" s="21"/>
-      <c r="H130" s="21"/>
-      <c r="I130" s="21"/>
-      <c r="J130" s="21"/>
-      <c r="L130" s="6"/>
-      <c r="M130" s="6"/>
-      <c r="N130" s="6"/>
+      <c r="A130" s="44">
+        <v>43918.0</v>
+      </c>
+      <c r="B130" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C130" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D130" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G130" s="23">
+        <f t="shared" si="2"/>
+        <v>727</v>
+      </c>
+      <c r="H130" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I130" s="23">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="J130" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K130" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L130" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M130" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N130" s="55"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="19"/>
-      <c r="E131" s="25"/>
-      <c r="G131" s="21"/>
-      <c r="H131" s="21"/>
-      <c r="I131" s="21"/>
-      <c r="J131" s="21"/>
-      <c r="L131" s="6"/>
-      <c r="M131" s="6"/>
-      <c r="N131" s="6"/>
+      <c r="A131" s="44">
+        <v>43918.0</v>
+      </c>
+      <c r="B131" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C131" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D131" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F131" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="G131" s="23">
+        <f t="shared" si="2"/>
+        <v>728</v>
+      </c>
+      <c r="H131" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I131" s="23">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="J131" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K131" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L131" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M131" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N131" s="55"/>
     </row>
     <row r="132" ht="16.5" customHeight="1">
-      <c r="A132" s="19"/>
-      <c r="E132" s="25"/>
-      <c r="G132" s="21"/>
-      <c r="H132" s="21"/>
-      <c r="I132" s="21"/>
-      <c r="J132" s="21"/>
-      <c r="L132" s="6"/>
-      <c r="M132" s="6"/>
-      <c r="N132" s="6"/>
+      <c r="A132" s="44">
+        <v>43918.0</v>
+      </c>
+      <c r="B132" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C132" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G132" s="23">
+        <f t="shared" si="2"/>
+        <v>733</v>
+      </c>
+      <c r="H132" s="46">
+        <v>5.0</v>
+      </c>
+      <c r="I132" s="23">
+        <f>I127+J132</f>
+        <v>19</v>
+      </c>
+      <c r="J132" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L132" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M132" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N132" s="55"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
-      <c r="A133" s="19"/>
-      <c r="E133" s="25"/>
-      <c r="G133" s="21"/>
-      <c r="H133" s="21"/>
-      <c r="I133" s="21"/>
-      <c r="J133" s="21"/>
-      <c r="L133" s="6"/>
-      <c r="M133" s="6"/>
-      <c r="N133" s="6"/>
+      <c r="A133" s="44">
+        <v>43918.0</v>
+      </c>
+      <c r="B133" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C133" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G133" s="23">
+        <f t="shared" si="2"/>
+        <v>734</v>
+      </c>
+      <c r="H133" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I133" s="23">
+        <f t="shared" ref="I133:I136" si="6">I132+J133</f>
+        <v>19</v>
+      </c>
+      <c r="J133" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L133" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M133" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N133" s="40" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="134" ht="16.5" customHeight="1">
-      <c r="A134" s="19"/>
-      <c r="E134" s="25"/>
-      <c r="G134" s="21"/>
-      <c r="H134" s="21"/>
-      <c r="I134" s="21"/>
-      <c r="J134" s="21"/>
-      <c r="L134" s="6"/>
-      <c r="M134" s="6"/>
-      <c r="N134" s="6"/>
+      <c r="A134" s="44">
+        <v>43918.0</v>
+      </c>
+      <c r="B134" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C134" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G134" s="23">
+        <f t="shared" si="2"/>
+        <v>738</v>
+      </c>
+      <c r="H134" s="46">
+        <v>4.0</v>
+      </c>
+      <c r="I134" s="23">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="J134" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L134" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M134" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N134" s="55"/>
     </row>
     <row r="135" ht="16.5" customHeight="1">
-      <c r="A135" s="19"/>
-      <c r="E135" s="25"/>
-      <c r="G135" s="21"/>
-      <c r="H135" s="21"/>
-      <c r="I135" s="21"/>
-      <c r="J135" s="21"/>
-      <c r="L135" s="6"/>
-      <c r="M135" s="6"/>
-      <c r="N135" s="6"/>
+      <c r="A135" s="44">
+        <v>43918.0</v>
+      </c>
+      <c r="B135" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C135" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G135" s="23">
+        <f t="shared" si="2"/>
+        <v>739</v>
+      </c>
+      <c r="H135" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I135" s="23">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="J135" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L135" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M135" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N135" s="55"/>
     </row>
     <row r="136" ht="16.5" customHeight="1">
-      <c r="A136" s="19"/>
-      <c r="E136" s="25"/>
-      <c r="G136" s="21"/>
-      <c r="H136" s="21"/>
-      <c r="I136" s="21"/>
-      <c r="J136" s="21"/>
-      <c r="L136" s="6"/>
-      <c r="M136" s="6"/>
-      <c r="N136" s="6"/>
+      <c r="A136" s="44">
+        <v>43918.0</v>
+      </c>
+      <c r="B136" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C136" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D136" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G136" s="23">
+        <f t="shared" si="2"/>
+        <v>740</v>
+      </c>
+      <c r="H136" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I136" s="23">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="J136" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K136" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L136" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M136" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N136" s="55"/>
     </row>
     <row r="137" ht="16.5" customHeight="1">
-      <c r="A137" s="19"/>
-      <c r="E137" s="25"/>
-      <c r="G137" s="21"/>
-      <c r="H137" s="21"/>
-      <c r="I137" s="21"/>
-      <c r="J137" s="21"/>
-      <c r="L137" s="6"/>
-      <c r="M137" s="6"/>
-      <c r="N137" s="6"/>
+      <c r="A137" s="44">
+        <v>43918.0</v>
+      </c>
+      <c r="B137" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C137" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G137" s="23">
+        <f t="shared" si="2"/>
+        <v>741</v>
+      </c>
+      <c r="H137" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I137" s="23">
+        <f>I135+J137</f>
+        <v>19</v>
+      </c>
+      <c r="J137" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L137" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M137" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N137" s="55"/>
     </row>
     <row r="138" ht="16.5" customHeight="1">
-      <c r="A138" s="19"/>
-      <c r="E138" s="25"/>
-      <c r="G138" s="21"/>
-      <c r="H138" s="21"/>
-      <c r="I138" s="21"/>
-      <c r="J138" s="21"/>
-      <c r="L138" s="6"/>
-      <c r="M138" s="6"/>
-      <c r="N138" s="6"/>
+      <c r="A138" s="44">
+        <v>43918.0</v>
+      </c>
+      <c r="B138" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C138" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F138" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="G138" s="23">
+        <f t="shared" si="2"/>
+        <v>745</v>
+      </c>
+      <c r="H138" s="46">
+        <v>4.0</v>
+      </c>
+      <c r="I138" s="23">
+        <f>I137+J138</f>
+        <v>19</v>
+      </c>
+      <c r="J138" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L138" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M138" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N138" s="55"/>
     </row>
     <row r="139" ht="16.5" customHeight="1">
       <c r="A139" s="19"/>
       <c r="E139" s="25"/>
       <c r="G139" s="21"/>
-      <c r="H139" s="21"/>
+      <c r="H139" s="56"/>
       <c r="I139" s="21"/>
       <c r="J139" s="21"/>
       <c r="L139" s="6"/>
@@ -18452,6 +19921,7 @@
     </row>
     <row r="997" ht="16.5" customHeight="1">
       <c r="A997" s="19"/>
+      <c r="E997" s="25"/>
       <c r="G997" s="21"/>
       <c r="H997" s="21"/>
       <c r="I997" s="21"/>
@@ -18462,6 +19932,7 @@
     </row>
     <row r="998" ht="16.5" customHeight="1">
       <c r="A998" s="19"/>
+      <c r="E998" s="25"/>
       <c r="G998" s="21"/>
       <c r="H998" s="21"/>
       <c r="I998" s="21"/>
@@ -18472,6 +19943,7 @@
     </row>
     <row r="999" ht="16.5" customHeight="1">
       <c r="A999" s="19"/>
+      <c r="E999" s="25"/>
       <c r="G999" s="21"/>
       <c r="H999" s="21"/>
       <c r="I999" s="21"/>
@@ -18482,6 +19954,7 @@
     </row>
     <row r="1000" ht="16.5" customHeight="1">
       <c r="A1000" s="19"/>
+      <c r="E1000" s="25"/>
       <c r="G1000" s="21"/>
       <c r="H1000" s="21"/>
       <c r="I1000" s="21"/>
@@ -18492,6 +19965,7 @@
     </row>
     <row r="1001" ht="16.5" customHeight="1">
       <c r="A1001" s="19"/>
+      <c r="E1001" s="25"/>
       <c r="G1001" s="21"/>
       <c r="H1001" s="21"/>
       <c r="I1001" s="21"/>
@@ -18502,6 +19976,7 @@
     </row>
     <row r="1002" ht="16.5" customHeight="1">
       <c r="A1002" s="19"/>
+      <c r="E1002" s="25"/>
       <c r="G1002" s="21"/>
       <c r="H1002" s="21"/>
       <c r="I1002" s="21"/>
@@ -18512,6 +19987,7 @@
     </row>
     <row r="1003" ht="16.5" customHeight="1">
       <c r="A1003" s="19"/>
+      <c r="E1003" s="25"/>
       <c r="G1003" s="21"/>
       <c r="H1003" s="21"/>
       <c r="I1003" s="21"/>
@@ -18522,6 +19998,7 @@
     </row>
     <row r="1004" ht="16.5" customHeight="1">
       <c r="A1004" s="19"/>
+      <c r="E1004" s="25"/>
       <c r="G1004" s="21"/>
       <c r="H1004" s="21"/>
       <c r="I1004" s="21"/>
@@ -18980,10 +20457,93 @@
       <c r="M1049" s="6"/>
       <c r="N1049" s="6"/>
     </row>
+    <row r="1050" ht="16.5" customHeight="1">
+      <c r="A1050" s="19"/>
+      <c r="G1050" s="21"/>
+      <c r="H1050" s="21"/>
+      <c r="I1050" s="21"/>
+      <c r="J1050" s="21"/>
+      <c r="L1050" s="6"/>
+      <c r="M1050" s="6"/>
+      <c r="N1050" s="6"/>
+    </row>
+    <row r="1051" ht="16.5" customHeight="1">
+      <c r="A1051" s="19"/>
+      <c r="G1051" s="21"/>
+      <c r="H1051" s="21"/>
+      <c r="I1051" s="21"/>
+      <c r="J1051" s="21"/>
+      <c r="L1051" s="6"/>
+      <c r="M1051" s="6"/>
+      <c r="N1051" s="6"/>
+    </row>
+    <row r="1052" ht="16.5" customHeight="1">
+      <c r="A1052" s="19"/>
+      <c r="G1052" s="21"/>
+      <c r="H1052" s="21"/>
+      <c r="I1052" s="21"/>
+      <c r="J1052" s="21"/>
+      <c r="L1052" s="6"/>
+      <c r="M1052" s="6"/>
+      <c r="N1052" s="6"/>
+    </row>
+    <row r="1053" ht="16.5" customHeight="1">
+      <c r="A1053" s="19"/>
+      <c r="G1053" s="21"/>
+      <c r="H1053" s="21"/>
+      <c r="I1053" s="21"/>
+      <c r="J1053" s="21"/>
+      <c r="L1053" s="6"/>
+      <c r="M1053" s="6"/>
+      <c r="N1053" s="6"/>
+    </row>
+    <row r="1054" ht="16.5" customHeight="1">
+      <c r="A1054" s="19"/>
+      <c r="G1054" s="21"/>
+      <c r="H1054" s="21"/>
+      <c r="I1054" s="21"/>
+      <c r="J1054" s="21"/>
+      <c r="L1054" s="6"/>
+      <c r="M1054" s="6"/>
+      <c r="N1054" s="6"/>
+    </row>
+    <row r="1055" ht="16.5" customHeight="1">
+      <c r="A1055" s="19"/>
+      <c r="G1055" s="21"/>
+      <c r="H1055" s="21"/>
+      <c r="I1055" s="21"/>
+      <c r="J1055" s="21"/>
+      <c r="L1055" s="6"/>
+      <c r="M1055" s="6"/>
+      <c r="N1055" s="6"/>
+    </row>
+    <row r="1056" ht="16.5" customHeight="1">
+      <c r="A1056" s="19"/>
+      <c r="G1056" s="21"/>
+      <c r="H1056" s="21"/>
+      <c r="I1056" s="21"/>
+      <c r="J1056" s="21"/>
+      <c r="L1056" s="6"/>
+      <c r="M1056" s="6"/>
+      <c r="N1056" s="6"/>
+    </row>
+    <row r="1057" ht="16.5" customHeight="1">
+      <c r="A1057" s="19"/>
+      <c r="G1057" s="21"/>
+      <c r="H1057" s="21"/>
+      <c r="I1057" s="21"/>
+      <c r="J1057" s="21"/>
+      <c r="L1057" s="6"/>
+      <c r="M1057" s="6"/>
+      <c r="N1057" s="6"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E996">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E123 E139:E1004">
       <formula1>contexto!$B$2:$B$25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E124:E138">
+      <formula1>contexto!$B$2:$B$26</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -19105,13 +20665,73 @@
     <hyperlink r:id="rId117" ref="M118"/>
     <hyperlink r:id="rId118" ref="M119"/>
     <hyperlink r:id="rId119" ref="M120"/>
+    <hyperlink r:id="rId120" ref="M121"/>
+    <hyperlink r:id="rId121" ref="M122"/>
+    <hyperlink r:id="rId122" ref="M123"/>
+    <hyperlink r:id="rId123" ref="M124"/>
+    <hyperlink r:id="rId124" ref="M125"/>
+    <hyperlink r:id="rId125" ref="M126"/>
+    <hyperlink r:id="rId126" ref="M127"/>
+    <hyperlink r:id="rId127" ref="M128"/>
+    <hyperlink r:id="rId128" ref="M129"/>
+    <hyperlink r:id="rId129" ref="M130"/>
+    <hyperlink r:id="rId130" ref="M131"/>
+    <hyperlink r:id="rId131" ref="M132"/>
+    <hyperlink r:id="rId132" ref="M133"/>
+    <hyperlink r:id="rId133" ref="M134"/>
+    <hyperlink r:id="rId134" ref="M135"/>
+    <hyperlink r:id="rId135" ref="M136"/>
+    <hyperlink r:id="rId136" ref="M137"/>
+    <hyperlink r:id="rId137" ref="M138"/>
   </hyperlinks>
-  <drawing r:id="rId120"/>
-  <legacyDrawing r:id="rId121"/>
+  <drawing r:id="rId138"/>
+  <legacyDrawing r:id="rId139"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+  </sheetData>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -19126,10 +20746,10 @@
   <sheetData>
     <row r="1">
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>concatenate("Duplica cada ",ROUND(H2,1)," días")</f>
@@ -19139,7 +20759,7 @@
         <f>concatenate("Duplica cada ",ROUND(H2,1)*2," días")</f>
         <v>Duplica cada 8 días</v>
       </c>
-      <c r="H1" s="29">
+      <c r="H1" s="26">
         <v>0.25</v>
       </c>
     </row>
@@ -19526,7 +21146,7 @@
     <row r="23">
       <c r="D23" s="21">
         <f t="shared" ref="D23:E23" si="23">D22+B23</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E23" s="21">
         <f t="shared" si="23"/>
@@ -19547,7 +21167,7 @@
       </c>
       <c r="D24" s="21">
         <f t="shared" ref="D24:E24" si="24">D23+B24</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E24" s="21">
         <f t="shared" si="24"/>
@@ -19568,7 +21188,7 @@
       </c>
       <c r="D25" s="21">
         <f t="shared" ref="D25:E25" si="25">D24+B25</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E25" s="21">
         <f t="shared" si="25"/>
@@ -19589,7 +21209,7 @@
       </c>
       <c r="D26" s="21">
         <f t="shared" ref="D26:E26" si="26">D25+B26</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E26" s="21">
         <f t="shared" si="26"/>
@@ -19610,7 +21230,7 @@
       </c>
       <c r="D27" s="21">
         <f t="shared" ref="D27:E27" si="27">D26+B27</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E27" s="21">
         <f t="shared" si="27"/>
@@ -19631,7 +21251,7 @@
       </c>
       <c r="D28" s="21">
         <f t="shared" ref="D28:E28" si="28">D27+B28</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E28" s="21">
         <f t="shared" si="28"/>
@@ -19652,7 +21272,7 @@
       </c>
       <c r="D29" s="21">
         <f t="shared" ref="D29:E29" si="29">D28+B29</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E29" s="21">
         <f t="shared" si="29"/>
@@ -19673,7 +21293,7 @@
       </c>
       <c r="D30" s="21">
         <f t="shared" ref="D30:E30" si="30">D29+B30</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E30" s="21">
         <f t="shared" si="30"/>
@@ -19694,7 +21314,7 @@
       </c>
       <c r="D31" s="21">
         <f t="shared" ref="D31:E31" si="31">D30+B31</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E31" s="21">
         <f t="shared" si="31"/>
@@ -19715,7 +21335,7 @@
       </c>
       <c r="D32" s="21">
         <f t="shared" ref="D32:E32" si="32">D31+B32</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E32" s="21">
         <f t="shared" si="32"/>
@@ -19736,7 +21356,7 @@
       </c>
       <c r="D33" s="21">
         <f t="shared" ref="D33:E33" si="33">D32+B33</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E33" s="21">
         <f t="shared" si="33"/>
@@ -19757,7 +21377,7 @@
       </c>
       <c r="D34" s="21">
         <f t="shared" ref="D34:E34" si="34">D33+B34</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E34" s="21">
         <f t="shared" si="34"/>
@@ -19778,7 +21398,7 @@
       </c>
       <c r="D35" s="21">
         <f t="shared" ref="D35:E35" si="35">D34+B35</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E35" s="21">
         <f t="shared" si="35"/>
@@ -19792,7 +21412,7 @@
     <row r="36">
       <c r="D36" s="21">
         <f t="shared" ref="D36:E36" si="36">D35+B36</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E36" s="21">
         <f t="shared" si="36"/>
@@ -19806,7 +21426,7 @@
     <row r="37">
       <c r="D37" s="21">
         <f t="shared" ref="D37:E37" si="37">D36+B37</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E37" s="21">
         <f t="shared" si="37"/>
@@ -19820,7 +21440,7 @@
     <row r="38">
       <c r="D38" s="21">
         <f t="shared" ref="D38:E38" si="38">D37+B38</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E38" s="21">
         <f t="shared" si="38"/>
@@ -19834,7 +21454,7 @@
     <row r="39">
       <c r="D39" s="21">
         <f t="shared" ref="D39:E39" si="39">D38+B39</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E39" s="21">
         <f t="shared" si="39"/>
@@ -19848,7 +21468,7 @@
     <row r="40">
       <c r="D40" s="21">
         <f t="shared" ref="D40:E40" si="40">D39+B40</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E40" s="21">
         <f t="shared" si="40"/>
@@ -19862,7 +21482,7 @@
     <row r="41">
       <c r="D41" s="21">
         <f t="shared" ref="D41:E41" si="41">D40+B41</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E41" s="21">
         <f t="shared" si="41"/>
@@ -19876,7 +21496,7 @@
     <row r="42">
       <c r="D42" s="21">
         <f t="shared" ref="D42:E42" si="42">D41+B42</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E42" s="21">
         <f t="shared" si="42"/>
@@ -19890,7 +21510,7 @@
     <row r="43">
       <c r="D43" s="21">
         <f t="shared" ref="D43:E43" si="43">D42+B43</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E43" s="21">
         <f t="shared" si="43"/>
@@ -19904,7 +21524,7 @@
     <row r="44">
       <c r="D44" s="21">
         <f t="shared" ref="D44:E44" si="44">D43+B44</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E44" s="21">
         <f t="shared" si="44"/>
@@ -19918,7 +21538,7 @@
     <row r="45">
       <c r="D45" s="21">
         <f t="shared" ref="D45:E45" si="45">D44+B45</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E45" s="21">
         <f t="shared" si="45"/>
@@ -19932,7 +21552,7 @@
     <row r="46">
       <c r="D46" s="21">
         <f t="shared" ref="D46:E46" si="46">D45+B46</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E46" s="21">
         <f t="shared" si="46"/>
@@ -19946,7 +21566,7 @@
     <row r="47">
       <c r="D47" s="21">
         <f t="shared" ref="D47:E47" si="47">D46+B47</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E47" s="21">
         <f t="shared" si="47"/>
@@ -19960,7 +21580,7 @@
     <row r="48">
       <c r="D48" s="21">
         <f t="shared" ref="D48:E48" si="48">D47+B48</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E48" s="21">
         <f t="shared" si="48"/>
@@ -19974,7 +21594,7 @@
     <row r="49">
       <c r="D49" s="21">
         <f t="shared" ref="D49:E49" si="49">D48+B49</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E49" s="21">
         <f t="shared" si="49"/>
@@ -19988,7 +21608,7 @@
     <row r="50">
       <c r="D50" s="21">
         <f t="shared" ref="D50:E50" si="50">D49+B50</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E50" s="21">
         <f t="shared" si="50"/>
@@ -20002,7 +21622,7 @@
     <row r="51">
       <c r="D51" s="21">
         <f t="shared" ref="D51:E51" si="51">D50+B51</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E51" s="21">
         <f t="shared" si="51"/>
@@ -20016,7 +21636,7 @@
     <row r="52">
       <c r="D52" s="21">
         <f t="shared" ref="D52:E52" si="52">D51+B52</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E52" s="21">
         <f t="shared" si="52"/>
@@ -20030,7 +21650,7 @@
     <row r="53">
       <c r="D53" s="21">
         <f t="shared" ref="D53:E53" si="53">D52+B53</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E53" s="21">
         <f t="shared" si="53"/>
@@ -20040,7 +21660,7 @@
     <row r="54">
       <c r="D54" s="21">
         <f t="shared" ref="D54:E54" si="54">D53+B54</f>
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E54" s="21">
         <f t="shared" si="54"/>
@@ -20052,7 +21672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -20092,7 +21712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -20107,142 +21727,142 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="28">
+      <c r="A1" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="45">
         <v>1.0</v>
       </c>
-      <c r="C1" s="28">
+      <c r="C1" s="45">
         <v>2.0</v>
       </c>
-      <c r="D1" s="28">
+      <c r="D1" s="45">
         <v>3.0</v>
       </c>
-      <c r="E1" s="28">
+      <c r="E1" s="45">
         <v>4.0</v>
       </c>
-      <c r="F1" s="28">
+      <c r="F1" s="45">
         <v>5.0</v>
       </c>
-      <c r="G1" s="28">
+      <c r="G1" s="45">
         <v>6.0</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="45">
         <v>7.0</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="45">
         <v>8.0</v>
       </c>
-      <c r="J1" s="28">
+      <c r="J1" s="45">
         <v>9.0</v>
       </c>
-      <c r="K1" s="28">
+      <c r="K1" s="45">
         <v>10.0</v>
       </c>
-      <c r="L1" s="28">
+      <c r="L1" s="45">
         <v>11.0</v>
       </c>
-      <c r="M1" s="28">
+      <c r="M1" s="45">
         <v>12.0</v>
       </c>
-      <c r="N1" s="28">
+      <c r="N1" s="45">
         <v>13.0</v>
       </c>
-      <c r="O1" s="28">
+      <c r="O1" s="45">
         <v>14.0</v>
       </c>
-      <c r="P1" s="28">
+      <c r="P1" s="45">
         <v>15.0</v>
       </c>
-      <c r="Q1" s="28">
+      <c r="Q1" s="45">
         <v>16.0</v>
       </c>
-      <c r="R1" s="28">
+      <c r="R1" s="45">
         <v>17.0</v>
       </c>
-      <c r="S1" s="28">
+      <c r="S1" s="45">
         <v>18.0</v>
       </c>
-      <c r="T1" s="28">
+      <c r="T1" s="45">
         <v>19.0</v>
       </c>
-      <c r="U1" s="28">
+      <c r="U1" s="45">
         <v>20.0</v>
       </c>
-      <c r="V1" s="28">
+      <c r="V1" s="45">
         <v>21.0</v>
       </c>
-      <c r="W1" s="28">
+      <c r="W1" s="45">
         <v>22.0</v>
       </c>
-      <c r="X1" s="28">
+      <c r="X1" s="45">
         <v>23.0</v>
       </c>
-      <c r="Y1" s="28">
+      <c r="Y1" s="45">
         <v>24.0</v>
       </c>
-      <c r="Z1" s="28">
+      <c r="Z1" s="45">
         <v>25.0</v>
       </c>
-      <c r="AA1" s="28">
+      <c r="AA1" s="45">
         <v>26.0</v>
       </c>
-      <c r="AB1" s="28">
+      <c r="AB1" s="45">
         <v>27.0</v>
       </c>
-      <c r="AC1" s="28">
+      <c r="AC1" s="45">
         <v>28.0</v>
       </c>
-      <c r="AD1" s="28">
+      <c r="AD1" s="45">
         <v>29.0</v>
       </c>
-      <c r="AE1" s="28">
+      <c r="AE1" s="45">
         <v>30.0</v>
       </c>
-      <c r="AF1" s="28">
+      <c r="AF1" s="45">
         <v>31.0</v>
       </c>
-      <c r="AG1" s="28">
+      <c r="AG1" s="45">
         <v>32.0</v>
       </c>
-      <c r="AH1" s="28">
+      <c r="AH1" s="45">
         <v>33.0</v>
       </c>
-      <c r="AI1" s="28">
+      <c r="AI1" s="45">
         <v>34.0</v>
       </c>
-      <c r="AJ1" s="28">
+      <c r="AJ1" s="45">
         <v>35.0</v>
       </c>
-      <c r="AK1" s="28">
+      <c r="AK1" s="45">
         <v>36.0</v>
       </c>
-      <c r="AL1" s="28">
+      <c r="AL1" s="45">
         <v>37.0</v>
       </c>
-      <c r="AM1" s="28">
+      <c r="AM1" s="45">
         <v>38.0</v>
       </c>
-      <c r="AN1" s="28">
+      <c r="AN1" s="45">
         <v>39.0</v>
       </c>
-      <c r="AO1" s="28">
+      <c r="AO1" s="45">
         <v>40.0</v>
       </c>
-      <c r="AP1" s="28">
+      <c r="AP1" s="45">
         <v>41.0</v>
       </c>
-      <c r="AQ1" s="28">
+      <c r="AQ1" s="45">
         <v>42.0</v>
       </c>
-      <c r="AR1" s="28">
+      <c r="AR1" s="45">
         <v>43.0</v>
       </c>
-      <c r="AS1" s="28">
+      <c r="AS1" s="45">
         <v>44.0</v>
       </c>
-      <c r="AT1" s="28">
+      <c r="AT1" s="45">
         <v>45.0</v>
       </c>
     </row>
@@ -23962,7 +25582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -23977,209 +25597,217 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="45">
+      <c r="A2" s="49">
         <v>6.0</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="47" t="s">
-        <v>87</v>
+      <c r="E2" s="50" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="45">
+      <c r="A3" s="49">
         <v>10.0</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>89</v>
+      <c r="B3" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="45">
+      <c r="A4" s="49">
         <v>22.0</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="48" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="45">
+      <c r="A5" s="49">
         <v>26.0</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>92</v>
+      <c r="B5" s="48" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="45">
+      <c r="A6" s="49">
         <v>2.0</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="52" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="45">
+      <c r="A7" s="49">
         <v>14.0</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="48" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="45">
+      <c r="A8" s="49">
         <v>18.0</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>47</v>
+      <c r="B8" s="48" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="45">
+      <c r="A9" s="49">
         <v>30.0</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="48" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="45">
+      <c r="A10" s="49">
         <v>34.0</v>
       </c>
-      <c r="B10" s="44" t="s">
-        <v>93</v>
+      <c r="B10" s="48" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="45">
+      <c r="A11" s="49">
         <v>38.0</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="48" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="45">
+      <c r="A12" s="49">
         <v>42.0</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>53</v>
+      <c r="B12" s="48" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="45">
+      <c r="A13" s="49">
         <v>46.0</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>94</v>
+      <c r="B13" s="48" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="45">
+      <c r="A14" s="49">
         <v>50.0</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>54</v>
+      <c r="B14" s="48" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="45">
+      <c r="A15" s="49">
         <v>54.0</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>55</v>
+      <c r="B15" s="48" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="45">
+      <c r="A16" s="49">
         <v>58.0</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>48</v>
+      <c r="B16" s="48" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="45">
+      <c r="A17" s="49">
         <v>62.0</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="48" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="45">
+      <c r="A18" s="49">
         <v>66.0</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="48" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="45">
+      <c r="A19" s="49">
         <v>70.0</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>95</v>
+      <c r="B19" s="48" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="45">
+      <c r="A20" s="49">
         <v>74.0</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>56</v>
+      <c r="B20" s="48" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="45">
+      <c r="A21" s="49">
         <v>78.0</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="45">
+      <c r="A22" s="49">
         <v>82.0</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="48" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="45">
+      <c r="A23" s="49">
         <v>86.0</v>
       </c>
-      <c r="B23" s="50" t="s">
-        <v>96</v>
+      <c r="B23" s="52" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="45">
+      <c r="A24" s="49">
         <v>94.0</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="48" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="45">
+      <c r="A25" s="49">
         <v>90.0</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="48" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>99.0</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/XLS/Covid19arData - historico.xlsx
+++ b/XLS/Covid19arData - historico.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="113">
   <si>
     <t>fecha</t>
   </si>
@@ -176,10 +176,10 @@
     <t>Santa Fe</t>
   </si>
   <si>
-    <t>https://www.argentina.gob.ar/sites/default/files/20-03-20_reporte_diario_covid_19_2.pdf</t>
+    <t>COUNT de tot_casosconf</t>
   </si>
   <si>
-    <t>COUNT de tot_casosconf</t>
+    <t>https://www.argentina.gob.ar/sites/default/files/20-03-20_reporte_diario_covid_19_2.pdf</t>
   </si>
   <si>
     <t>transmision comunitaria</t>
@@ -215,18 +215,6 @@
     <t>https://www.argentina.gob.ar/sites/default/files/22-03-20-reporte-diario_covid19.pdf</t>
   </si>
   <si>
-    <t>SUM de nue_casosconf_diff</t>
-  </si>
-  <si>
-    <t>SUM de nue_fallecidos_diff</t>
-  </si>
-  <si>
-    <t>Confirmados</t>
-  </si>
-  <si>
-    <t>Fallecidos</t>
-  </si>
-  <si>
     <t>Misiones</t>
   </si>
   <si>
@@ -249,6 +237,18 @@
   </si>
   <si>
     <t>Rosario</t>
+  </si>
+  <si>
+    <t>SUM de nue_casosconf_diff</t>
+  </si>
+  <si>
+    <t>SUM de nue_fallecidos_diff</t>
+  </si>
+  <si>
+    <t>Confirmados</t>
+  </si>
+  <si>
+    <t>Fallecidos</t>
   </si>
   <si>
     <t>Galvez</t>
@@ -287,6 +287,9 @@
     <t>se suman 7casos, se compensa la diferencia entre los 20 casos del 27/3</t>
   </si>
   <si>
+    <t>provincia</t>
+  </si>
+  <si>
     <t>1 caso reclasificado el 28-3 a Cordoba.</t>
   </si>
   <si>
@@ -294,9 +297,6 @@
   </si>
   <si>
     <t>GCABA publico que son 20 los casos nuevos. Cremos que acá estaría la diferencia de los 16 casos menos del parte diario nacional del dia.</t>
-  </si>
-  <si>
-    <t>provincia</t>
   </si>
   <si>
     <t>https://www.argentina.gob.ar/sites/default/files/27-03-20-reporte-diario-vespertino-covid-19.pdf</t>
@@ -314,16 +314,7 @@
     <t>https://sistemasmapache.github.io/Covid19arData/</t>
   </si>
   <si>
-    <t>Pueblo Andino</t>
-  </si>
-  <si>
-    <t>Venado Tuerto</t>
-  </si>
-  <si>
     <t>Chubut</t>
-  </si>
-  <si>
-    <t>Villa Constitución</t>
   </si>
   <si>
     <t>Formosa</t>
@@ -339,6 +330,15 @@
   </si>
   <si>
     <t>Indeterminado</t>
+  </si>
+  <si>
+    <t>Pueblo Andino</t>
+  </si>
+  <si>
+    <t>Venado Tuerto</t>
+  </si>
+  <si>
+    <t>Villa Constitución</t>
   </si>
   <si>
     <t>https://www.rionegro.gov.ar/?contID=58359</t>
@@ -367,6 +367,15 @@
   </si>
   <si>
     <t>Las lajas</t>
+  </si>
+  <si>
+    <t>https://www.argentina.gob.ar/sites/default/files/29-03-20_reporte_vespertino_covid_19.pdf</t>
+  </si>
+  <si>
+    <t>Gálvez</t>
+  </si>
+  <si>
+    <t>Arroyo seco</t>
   </si>
 </sst>
 </file>
@@ -434,18 +443,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border/>
     <border>
       <top style="thin">
@@ -460,11 +469,16 @@
     <border>
       <right/>
     </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -560,10 +574,13 @@
     <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -578,9 +595,6 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -593,10 +607,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -611,7 +625,12 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -826,11 +845,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="839525290"/>
-        <c:axId val="1014968440"/>
+        <c:axId val="1809743428"/>
+        <c:axId val="1153349048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="839525290"/>
+        <c:axId val="1809743428"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40.0"/>
@@ -873,10 +892,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1014968440"/>
+        <c:crossAx val="1153349048"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1014968440"/>
+        <c:axId val="1153349048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000.0"/>
@@ -946,7 +965,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="839525290"/>
+        <c:crossAx val="1809743428"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1116,11 +1135,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="499483253"/>
-        <c:axId val="127566015"/>
+        <c:axId val="341071063"/>
+        <c:axId val="397177925"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="499483253"/>
+        <c:axId val="341071063"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40.0"/>
@@ -1163,10 +1182,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127566015"/>
+        <c:crossAx val="397177925"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127566015"/>
+        <c:axId val="397177925"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000.0"/>
@@ -1236,7 +1255,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499483253"/>
+        <c:crossAx val="341071063"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1756,11 +1775,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1065914652"/>
-        <c:axId val="1986351459"/>
+        <c:axId val="1865568016"/>
+        <c:axId val="1599296112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1065914652"/>
+        <c:axId val="1865568016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25.0"/>
@@ -1803,10 +1822,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1986351459"/>
+        <c:crossAx val="1599296112"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1986351459"/>
+        <c:axId val="1599296112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1875,7 +1894,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1065914652"/>
+        <c:crossAx val="1865568016"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4333,7 +4352,7 @@
         <v>43895.0</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:B138" si="1">DAYS(A2,DATE(2020,3,4))</f>
+        <f t="shared" ref="B2:B154" si="1">DAYS(A2,DATE(2020,3,4))</f>
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
@@ -4384,7 +4403,7 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G138" si="2">G2+H3</f>
+        <f t="shared" ref="G3:G154" si="2">G2+H3</f>
         <v>2</v>
       </c>
       <c r="H3" s="3">
@@ -5995,7 +6014,7 @@
         <v>17</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N40" s="14"/>
       <c r="O40" s="10"/>
@@ -6055,7 +6074,7 @@
         <v>17</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N41" s="6"/>
     </row>
@@ -6095,7 +6114,7 @@
         <v>17</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N42" s="6"/>
     </row>
@@ -6135,7 +6154,7 @@
         <v>17</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N43" s="6"/>
     </row>
@@ -6176,7 +6195,7 @@
         <v>17</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N44" s="6"/>
     </row>
@@ -6217,7 +6236,7 @@
         <v>17</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N45" s="6"/>
     </row>
@@ -6257,7 +6276,7 @@
         <v>17</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N46" s="6"/>
     </row>
@@ -6298,7 +6317,7 @@
         <v>17</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N47" s="6"/>
     </row>
@@ -6339,7 +6358,7 @@
         <v>17</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N48" s="6"/>
     </row>
@@ -6352,7 +6371,7 @@
         <v>17</v>
       </c>
       <c r="C49" s="9">
-        <f t="shared" ref="C49:C138" si="4">DAYS(A49,DATE(2020,3,20))</f>
+        <f t="shared" ref="C49:C154" si="4">DAYS(A49,DATE(2020,3,20))</f>
         <v>1</v>
       </c>
       <c r="D49" s="9" t="s">
@@ -7098,7 +7117,7 @@
         <v>14</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="23">
@@ -7166,7 +7185,7 @@
         <v>17</v>
       </c>
       <c r="M66" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N66" s="14"/>
       <c r="O66" s="10"/>
@@ -7229,7 +7248,7 @@
         <v>17</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N67" s="6"/>
     </row>
@@ -7252,7 +7271,7 @@
         <v>45</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G68" s="23">
         <f t="shared" si="2"/>
@@ -7272,13 +7291,13 @@
         <v>48</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" ht="16.5" customHeight="1">
@@ -7300,7 +7319,7 @@
         <v>45</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G69" s="23">
         <f t="shared" si="2"/>
@@ -7320,13 +7339,13 @@
         <v>48</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" ht="16.5" customHeight="1">
@@ -7348,7 +7367,7 @@
         <v>45</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G70" s="23">
         <f t="shared" si="2"/>
@@ -7368,13 +7387,13 @@
         <v>48</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" ht="16.5" customHeight="1">
@@ -7416,13 +7435,13 @@
         <v>48</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" ht="16.5" customHeight="1">
@@ -7464,7 +7483,7 @@
         <v>17</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N72" s="6"/>
     </row>
@@ -7507,7 +7526,7 @@
         <v>17</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N73" s="6"/>
     </row>
@@ -7773,7 +7792,7 @@
         <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G79" s="23">
         <f t="shared" si="2"/>
@@ -7793,7 +7812,7 @@
         <v>48</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M79" s="5" t="s">
         <v>74</v>
@@ -7841,7 +7860,7 @@
         <v>48</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M80" s="5" t="s">
         <v>74</v>
@@ -7889,7 +7908,7 @@
         <v>48</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M81" s="5" t="s">
         <v>74</v>
@@ -9042,7 +9061,7 @@
         <f t="shared" si="2"/>
         <v>588</v>
       </c>
-      <c r="H107" s="39">
+      <c r="H107" s="40">
         <v>0.0</v>
       </c>
       <c r="I107" s="23">
@@ -9061,12 +9080,12 @@
       <c r="M107" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N107" s="40" t="s">
-        <v>83</v>
+      <c r="N107" s="41" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="108" ht="16.5" customHeight="1">
-      <c r="A108" s="41">
+      <c r="A108" s="42">
         <v>43917.0</v>
       </c>
       <c r="B108" s="31">
@@ -9077,7 +9096,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="D108" s="42" t="s">
+      <c r="D108" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E108" s="31" t="s">
@@ -9098,17 +9117,17 @@
       <c r="J108" s="34">
         <v>1.0</v>
       </c>
-      <c r="K108" s="42" t="s">
+      <c r="K108" s="43" t="s">
         <v>48</v>
       </c>
       <c r="L108" s="38" t="s">
         <v>17</v>
       </c>
       <c r="M108" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="N108" s="43" t="s">
         <v>85</v>
+      </c>
+      <c r="N108" s="44" t="s">
+        <v>86</v>
       </c>
       <c r="O108" s="32"/>
       <c r="P108" s="32"/>
@@ -9132,7 +9151,7 @@
       <c r="AH108" s="32"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
-      <c r="A109" s="44">
+      <c r="A109" s="45">
         <v>43917.0</v>
       </c>
       <c r="B109" s="2">
@@ -9174,7 +9193,7 @@
       </c>
     </row>
     <row r="110" ht="16.5" customHeight="1">
-      <c r="A110" s="44">
+      <c r="A110" s="45">
         <v>43917.0</v>
       </c>
       <c r="B110" s="2">
@@ -9217,7 +9236,7 @@
       <c r="N110" s="47"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
-      <c r="A111" s="44">
+      <c r="A111" s="45">
         <v>43917.0</v>
       </c>
       <c r="B111" s="2">
@@ -9260,7 +9279,7 @@
       <c r="N111" s="47"/>
     </row>
     <row r="112" ht="16.5" customHeight="1">
-      <c r="A112" s="44">
+      <c r="A112" s="45">
         <v>43917.0</v>
       </c>
       <c r="B112" s="2">
@@ -9303,7 +9322,7 @@
       <c r="N112" s="47"/>
     </row>
     <row r="113" ht="16.5" customHeight="1">
-      <c r="A113" s="44">
+      <c r="A113" s="45">
         <v>43917.0</v>
       </c>
       <c r="B113" s="2">
@@ -9321,7 +9340,7 @@
         <v>45</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G113" s="23">
         <f t="shared" si="2"/>
@@ -9367,7 +9386,7 @@
         <v>45</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G114" s="23">
         <f t="shared" si="2"/>
@@ -9413,7 +9432,7 @@
         <v>45</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G115" s="23">
         <f t="shared" si="2"/>
@@ -9459,7 +9478,7 @@
         <v>45</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G116" s="23">
         <f t="shared" si="2"/>
@@ -9487,7 +9506,7 @@
       <c r="N116" s="4"/>
     </row>
     <row r="117" ht="16.5" customHeight="1">
-      <c r="A117" s="44">
+      <c r="A117" s="45">
         <v>43917.0</v>
       </c>
       <c r="B117" s="2">
@@ -9530,7 +9549,7 @@
       <c r="N117" s="47"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
-      <c r="A118" s="44">
+      <c r="A118" s="45">
         <v>43917.0</v>
       </c>
       <c r="B118" s="2">
@@ -9573,7 +9592,7 @@
       <c r="N118" s="47"/>
     </row>
     <row r="119" ht="16.5" customHeight="1">
-      <c r="A119" s="44">
+      <c r="A119" s="45">
         <v>43917.0</v>
       </c>
       <c r="B119" s="2">
@@ -9616,7 +9635,7 @@
       <c r="N119" s="47"/>
     </row>
     <row r="120" ht="16.5" customHeight="1">
-      <c r="A120" s="44">
+      <c r="A120" s="45">
         <v>43917.0</v>
       </c>
       <c r="B120" s="2">
@@ -9659,7 +9678,7 @@
       <c r="N120" s="47"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
-      <c r="A121" s="44">
+      <c r="A121" s="45">
         <v>43917.0</v>
       </c>
       <c r="B121" s="2">
@@ -9702,7 +9721,7 @@
       <c r="N121" s="47"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
-      <c r="A122" s="44">
+      <c r="A122" s="45">
         <v>43917.0</v>
       </c>
       <c r="B122" s="2">
@@ -9717,7 +9736,7 @@
         <v>14</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G122" s="23">
         <f t="shared" si="2"/>
@@ -9745,7 +9764,7 @@
       <c r="N122" s="47"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
-      <c r="A123" s="44">
+      <c r="A123" s="45">
         <v>43917.0</v>
       </c>
       <c r="B123" s="2">
@@ -9760,7 +9779,7 @@
         <v>14</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G123" s="23">
         <f t="shared" si="2"/>
@@ -9788,7 +9807,7 @@
       <c r="N123" s="4"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
-      <c r="A124" s="44">
+      <c r="A124" s="45">
         <v>43917.0</v>
       </c>
       <c r="B124" s="2">
@@ -9803,20 +9822,20 @@
         <v>14</v>
       </c>
       <c r="E124" s="50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G124" s="23">
         <f t="shared" si="2"/>
         <v>689</v>
       </c>
-      <c r="H124" s="39">
+      <c r="H124" s="40">
         <v>-16.0</v>
       </c>
       <c r="I124" s="23">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="J124" s="39">
+      <c r="J124" s="40">
         <v>1.0</v>
       </c>
       <c r="K124" s="2" t="s">
@@ -9833,7 +9852,7 @@
       </c>
     </row>
     <row r="125" ht="16.5" customHeight="1">
-      <c r="A125" s="41">
+      <c r="A125" s="42">
         <v>43918.0</v>
       </c>
       <c r="B125" s="31">
@@ -9844,7 +9863,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="D125" s="42" t="s">
+      <c r="D125" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E125" s="31" t="s">
@@ -9865,7 +9884,7 @@
       <c r="J125" s="34">
         <v>1.0</v>
       </c>
-      <c r="K125" s="42" t="s">
+      <c r="K125" s="43" t="s">
         <v>48</v>
       </c>
       <c r="L125" s="38" t="s">
@@ -9897,7 +9916,7 @@
       <c r="AH125" s="32"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
-      <c r="A126" s="44">
+      <c r="A126" s="45">
         <v>43918.0</v>
       </c>
       <c r="B126" s="2">
@@ -9940,7 +9959,7 @@
       <c r="N126" s="55"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
-      <c r="A127" s="44">
+      <c r="A127" s="45">
         <v>43918.0</v>
       </c>
       <c r="B127" s="2">
@@ -9986,7 +10005,7 @@
       <c r="N127" s="55"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
-      <c r="A128" s="44">
+      <c r="A128" s="45">
         <v>43918.0</v>
       </c>
       <c r="B128" s="2">
@@ -10032,7 +10051,7 @@
       <c r="N128" s="55"/>
     </row>
     <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="44">
+      <c r="A129" s="45">
         <v>43918.0</v>
       </c>
       <c r="B129" s="2">
@@ -10078,7 +10097,7 @@
       <c r="N129" s="55"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
-      <c r="A130" s="44">
+      <c r="A130" s="45">
         <v>43918.0</v>
       </c>
       <c r="B130" s="2">
@@ -10124,7 +10143,7 @@
       <c r="N130" s="55"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="44">
+      <c r="A131" s="45">
         <v>43918.0</v>
       </c>
       <c r="B131" s="2">
@@ -10170,7 +10189,7 @@
       <c r="N131" s="55"/>
     </row>
     <row r="132" ht="16.5" customHeight="1">
-      <c r="A132" s="44">
+      <c r="A132" s="45">
         <v>43918.0</v>
       </c>
       <c r="B132" s="2">
@@ -10213,7 +10232,7 @@
       <c r="N132" s="55"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
-      <c r="A133" s="44">
+      <c r="A133" s="45">
         <v>43918.0</v>
       </c>
       <c r="B133" s="2">
@@ -10253,12 +10272,12 @@
       <c r="M133" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N133" s="40" t="s">
-        <v>83</v>
+      <c r="N133" s="41" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="134" ht="16.5" customHeight="1">
-      <c r="A134" s="44">
+      <c r="A134" s="45">
         <v>43918.0</v>
       </c>
       <c r="B134" s="2">
@@ -10301,7 +10320,7 @@
       <c r="N134" s="55"/>
     </row>
     <row r="135" ht="16.5" customHeight="1">
-      <c r="A135" s="44">
+      <c r="A135" s="45">
         <v>43918.0</v>
       </c>
       <c r="B135" s="2">
@@ -10347,7 +10366,7 @@
       <c r="N135" s="55"/>
     </row>
     <row r="136" ht="16.5" customHeight="1">
-      <c r="A136" s="44">
+      <c r="A136" s="45">
         <v>43918.0</v>
       </c>
       <c r="B136" s="2">
@@ -10393,7 +10412,7 @@
       <c r="N136" s="55"/>
     </row>
     <row r="137" ht="16.5" customHeight="1">
-      <c r="A137" s="44">
+      <c r="A137" s="45">
         <v>43918.0</v>
       </c>
       <c r="B137" s="2">
@@ -10436,7 +10455,7 @@
       <c r="N137" s="55"/>
     </row>
     <row r="138" ht="16.5" customHeight="1">
-      <c r="A138" s="44">
+      <c r="A138" s="45">
         <v>43918.0</v>
       </c>
       <c r="B138" s="2">
@@ -10447,7 +10466,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="53" t="s">
         <v>14</v>
       </c>
       <c r="E138" s="2" t="s">
@@ -10464,13 +10483,13 @@
         <v>4.0</v>
       </c>
       <c r="I138" s="23">
-        <f>I137+J138</f>
+        <f t="shared" ref="I138:I154" si="7">I137+J138</f>
         <v>19</v>
       </c>
       <c r="J138" s="46">
         <v>0.0</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K138" s="56" t="s">
         <v>48</v>
       </c>
       <c r="L138" s="47" t="s">
@@ -10482,191 +10501,736 @@
       <c r="N138" s="55"/>
     </row>
     <row r="139" ht="16.5" customHeight="1">
-      <c r="A139" s="19"/>
-      <c r="E139" s="25"/>
-      <c r="G139" s="21"/>
-      <c r="H139" s="56"/>
-      <c r="I139" s="21"/>
-      <c r="J139" s="21"/>
-      <c r="L139" s="6"/>
-      <c r="M139" s="6"/>
-      <c r="N139" s="6"/>
+      <c r="A139" s="42">
+        <v>43919.0</v>
+      </c>
+      <c r="B139" s="31">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C139" s="31">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D139" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F139" s="32"/>
+      <c r="G139" s="33">
+        <f t="shared" si="2"/>
+        <v>761</v>
+      </c>
+      <c r="H139" s="34">
+        <v>16.0</v>
+      </c>
+      <c r="I139" s="33">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="J139" s="34">
+        <v>0.0</v>
+      </c>
+      <c r="K139" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L139" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="M139" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="N139" s="54"/>
+      <c r="O139" s="32"/>
+      <c r="P139" s="32"/>
+      <c r="Q139" s="32"/>
+      <c r="R139" s="32"/>
+      <c r="S139" s="32"/>
+      <c r="T139" s="32"/>
+      <c r="U139" s="32"/>
+      <c r="V139" s="32"/>
+      <c r="W139" s="32"/>
+      <c r="X139" s="32"/>
+      <c r="Y139" s="32"/>
+      <c r="Z139" s="32"/>
+      <c r="AA139" s="32"/>
+      <c r="AB139" s="32"/>
+      <c r="AC139" s="32"/>
+      <c r="AD139" s="32"/>
+      <c r="AE139" s="32"/>
+      <c r="AF139" s="32"/>
+      <c r="AG139" s="32"/>
+      <c r="AH139" s="32"/>
     </row>
     <row r="140" ht="16.5" customHeight="1">
-      <c r="A140" s="19"/>
-      <c r="E140" s="25"/>
-      <c r="G140" s="21"/>
-      <c r="H140" s="21"/>
-      <c r="I140" s="21"/>
-      <c r="J140" s="21"/>
-      <c r="L140" s="6"/>
-      <c r="M140" s="6"/>
-      <c r="N140" s="6"/>
+      <c r="A140" s="45">
+        <v>43919.0</v>
+      </c>
+      <c r="B140" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C140" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D140" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G140" s="23">
+        <f t="shared" si="2"/>
+        <v>774</v>
+      </c>
+      <c r="H140" s="46">
+        <v>13.0</v>
+      </c>
+      <c r="I140" s="23">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="J140" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K140" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L140" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M140" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N140" s="55"/>
     </row>
     <row r="141" ht="16.5" customHeight="1">
-      <c r="A141" s="19"/>
-      <c r="E141" s="25"/>
-      <c r="G141" s="21"/>
-      <c r="H141" s="21"/>
-      <c r="I141" s="21"/>
-      <c r="J141" s="21"/>
-      <c r="L141" s="6"/>
-      <c r="M141" s="6"/>
-      <c r="N141" s="6"/>
+      <c r="A141" s="45">
+        <v>43919.0</v>
+      </c>
+      <c r="B141" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C141" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D141" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G141" s="23">
+        <f t="shared" si="2"/>
+        <v>778</v>
+      </c>
+      <c r="H141" s="46">
+        <v>4.0</v>
+      </c>
+      <c r="I141" s="23">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="J141" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K141" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L141" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M141" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N141" s="55"/>
     </row>
     <row r="142" ht="16.5" customHeight="1">
-      <c r="A142" s="19"/>
-      <c r="E142" s="25"/>
-      <c r="G142" s="21"/>
-      <c r="H142" s="21"/>
-      <c r="I142" s="21"/>
-      <c r="J142" s="21"/>
-      <c r="L142" s="6"/>
-      <c r="M142" s="6"/>
-      <c r="N142" s="6"/>
+      <c r="A142" s="45">
+        <v>43919.0</v>
+      </c>
+      <c r="B142" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C142" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G142" s="23">
+        <f t="shared" si="2"/>
+        <v>785</v>
+      </c>
+      <c r="H142" s="46">
+        <v>7.0</v>
+      </c>
+      <c r="I142" s="23">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="J142" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K142" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L142" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M142" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N142" s="55"/>
     </row>
     <row r="143" ht="16.5" customHeight="1">
-      <c r="A143" s="19"/>
-      <c r="E143" s="25"/>
-      <c r="G143" s="21"/>
-      <c r="H143" s="21"/>
-      <c r="I143" s="21"/>
-      <c r="J143" s="21"/>
-      <c r="L143" s="6"/>
-      <c r="M143" s="6"/>
-      <c r="N143" s="6"/>
+      <c r="A143" s="45">
+        <v>43919.0</v>
+      </c>
+      <c r="B143" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C143" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D143" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G143" s="23">
+        <f t="shared" si="2"/>
+        <v>788</v>
+      </c>
+      <c r="H143" s="46">
+        <v>3.0</v>
+      </c>
+      <c r="I143" s="23">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="J143" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K143" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L143" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M143" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N143" s="55"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="19"/>
-      <c r="E144" s="25"/>
-      <c r="G144" s="21"/>
-      <c r="H144" s="21"/>
-      <c r="I144" s="21"/>
-      <c r="J144" s="21"/>
-      <c r="L144" s="6"/>
-      <c r="M144" s="6"/>
-      <c r="N144" s="6"/>
+      <c r="A144" s="45">
+        <v>43919.0</v>
+      </c>
+      <c r="B144" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C144" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D144" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G144" s="23">
+        <f t="shared" si="2"/>
+        <v>790</v>
+      </c>
+      <c r="H144" s="46">
+        <v>2.0</v>
+      </c>
+      <c r="I144" s="23">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="J144" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K144" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L144" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M144" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N144" s="55"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="19"/>
-      <c r="E145" s="25"/>
-      <c r="G145" s="21"/>
-      <c r="H145" s="21"/>
-      <c r="I145" s="21"/>
-      <c r="J145" s="21"/>
-      <c r="L145" s="6"/>
-      <c r="M145" s="6"/>
-      <c r="N145" s="6"/>
+      <c r="A145" s="45">
+        <v>43919.0</v>
+      </c>
+      <c r="B145" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C145" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D145" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G145" s="23">
+        <f t="shared" si="2"/>
+        <v>791</v>
+      </c>
+      <c r="H145" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I145" s="23">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="J145" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K145" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L145" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M145" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N145" s="55"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="19"/>
-      <c r="E146" s="25"/>
-      <c r="G146" s="21"/>
-      <c r="H146" s="21"/>
-      <c r="I146" s="21"/>
-      <c r="J146" s="21"/>
-      <c r="L146" s="6"/>
-      <c r="M146" s="6"/>
-      <c r="N146" s="6"/>
+      <c r="A146" s="45">
+        <v>43919.0</v>
+      </c>
+      <c r="B146" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C146" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G146" s="23">
+        <f t="shared" si="2"/>
+        <v>809</v>
+      </c>
+      <c r="H146" s="46">
+        <v>18.0</v>
+      </c>
+      <c r="I146" s="23">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="J146" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K146" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L146" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M146" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N146" s="55"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="19"/>
-      <c r="E147" s="25"/>
-      <c r="G147" s="21"/>
-      <c r="H147" s="21"/>
-      <c r="I147" s="21"/>
-      <c r="J147" s="21"/>
-      <c r="L147" s="6"/>
-      <c r="M147" s="6"/>
-      <c r="N147" s="6"/>
+      <c r="A147" s="45">
+        <v>43919.0</v>
+      </c>
+      <c r="B147" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C147" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G147" s="23">
+        <f t="shared" si="2"/>
+        <v>813</v>
+      </c>
+      <c r="H147" s="46">
+        <v>4.0</v>
+      </c>
+      <c r="I147" s="23">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="J147" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K147" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L147" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M147" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N147" s="55"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="19"/>
-      <c r="E148" s="25"/>
-      <c r="G148" s="21"/>
-      <c r="H148" s="21"/>
-      <c r="I148" s="21"/>
-      <c r="J148" s="21"/>
-      <c r="L148" s="6"/>
-      <c r="M148" s="6"/>
-      <c r="N148" s="6"/>
+      <c r="A148" s="45">
+        <v>43919.0</v>
+      </c>
+      <c r="B148" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C148" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G148" s="23">
+        <f t="shared" si="2"/>
+        <v>814</v>
+      </c>
+      <c r="H148" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I148" s="23">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="J148" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K148" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L148" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M148" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N148" s="55"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="19"/>
-      <c r="E149" s="25"/>
-      <c r="G149" s="21"/>
-      <c r="H149" s="21"/>
-      <c r="I149" s="21"/>
-      <c r="J149" s="21"/>
-      <c r="L149" s="6"/>
-      <c r="M149" s="6"/>
-      <c r="N149" s="6"/>
+      <c r="A149" s="45">
+        <v>43919.0</v>
+      </c>
+      <c r="B149" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C149" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G149" s="23">
+        <f t="shared" si="2"/>
+        <v>815</v>
+      </c>
+      <c r="H149" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I149" s="23">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="J149" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K149" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L149" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M149" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N149" s="55"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="19"/>
-      <c r="E150" s="25"/>
-      <c r="G150" s="21"/>
-      <c r="H150" s="21"/>
-      <c r="I150" s="21"/>
-      <c r="J150" s="21"/>
-      <c r="L150" s="6"/>
-      <c r="M150" s="6"/>
-      <c r="N150" s="6"/>
+      <c r="A150" s="45">
+        <v>43919.0</v>
+      </c>
+      <c r="B150" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C150" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G150" s="23">
+        <f t="shared" si="2"/>
+        <v>817</v>
+      </c>
+      <c r="H150" s="46">
+        <v>2.0</v>
+      </c>
+      <c r="I150" s="23">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="J150" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K150" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L150" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M150" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N150" s="55"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="19"/>
-      <c r="E151" s="25"/>
-      <c r="G151" s="21"/>
-      <c r="H151" s="21"/>
-      <c r="I151" s="21"/>
-      <c r="J151" s="21"/>
-      <c r="L151" s="6"/>
-      <c r="M151" s="6"/>
-      <c r="N151" s="6"/>
+      <c r="A151" s="45">
+        <v>43919.0</v>
+      </c>
+      <c r="B151" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C151" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G151" s="23">
+        <f t="shared" si="2"/>
+        <v>818</v>
+      </c>
+      <c r="H151" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I151" s="23">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="J151" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K151" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L151" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M151" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N151" s="55"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="19"/>
-      <c r="E152" s="25"/>
-      <c r="G152" s="21"/>
-      <c r="H152" s="21"/>
-      <c r="I152" s="21"/>
-      <c r="J152" s="21"/>
-      <c r="L152" s="6"/>
-      <c r="M152" s="6"/>
-      <c r="N152" s="6"/>
+      <c r="A152" s="45">
+        <v>43919.0</v>
+      </c>
+      <c r="B152" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C152" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G152" s="23">
+        <f t="shared" si="2"/>
+        <v>819</v>
+      </c>
+      <c r="H152" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I152" s="23">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="J152" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K152" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L152" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M152" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N152" s="55"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="19"/>
-      <c r="E153" s="25"/>
-      <c r="G153" s="21"/>
-      <c r="H153" s="21"/>
-      <c r="I153" s="21"/>
-      <c r="J153" s="21"/>
-      <c r="L153" s="6"/>
-      <c r="M153" s="6"/>
-      <c r="N153" s="6"/>
+      <c r="A153" s="45">
+        <v>43919.0</v>
+      </c>
+      <c r="B153" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C153" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G153" s="23">
+        <f t="shared" si="2"/>
+        <v>820</v>
+      </c>
+      <c r="H153" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I153" s="23">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="J153" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="K153" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L153" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M153" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N153" s="55"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="19"/>
-      <c r="E154" s="25"/>
-      <c r="G154" s="21"/>
-      <c r="H154" s="21"/>
-      <c r="I154" s="21"/>
-      <c r="J154" s="21"/>
-      <c r="L154" s="6"/>
-      <c r="M154" s="6"/>
-      <c r="N154" s="6"/>
+      <c r="A154" s="45">
+        <v>43919.0</v>
+      </c>
+      <c r="B154" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C154" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G154" s="23">
+        <f t="shared" si="2"/>
+        <v>820</v>
+      </c>
+      <c r="H154" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="I154" s="23">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="J154" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="K154" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L154" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M154" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N154" s="55"/>
     </row>
     <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="19"/>
+      <c r="A155" s="45"/>
       <c r="E155" s="25"/>
-      <c r="G155" s="21"/>
-      <c r="H155" s="21"/>
-      <c r="I155" s="21"/>
-      <c r="J155" s="21"/>
-      <c r="L155" s="6"/>
-      <c r="M155" s="6"/>
-      <c r="N155" s="6"/>
+      <c r="G155" s="57"/>
+      <c r="H155" s="46"/>
+      <c r="I155" s="57"/>
+      <c r="J155" s="46"/>
+      <c r="L155" s="47"/>
+      <c r="M155" s="47"/>
+      <c r="N155" s="55"/>
     </row>
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="19"/>
@@ -20009,6 +20573,7 @@
     </row>
     <row r="1005" ht="16.5" customHeight="1">
       <c r="A1005" s="19"/>
+      <c r="E1005" s="25"/>
       <c r="G1005" s="21"/>
       <c r="H1005" s="21"/>
       <c r="I1005" s="21"/>
@@ -20019,6 +20584,7 @@
     </row>
     <row r="1006" ht="16.5" customHeight="1">
       <c r="A1006" s="19"/>
+      <c r="E1006" s="25"/>
       <c r="G1006" s="21"/>
       <c r="H1006" s="21"/>
       <c r="I1006" s="21"/>
@@ -20029,6 +20595,7 @@
     </row>
     <row r="1007" ht="16.5" customHeight="1">
       <c r="A1007" s="19"/>
+      <c r="E1007" s="25"/>
       <c r="G1007" s="21"/>
       <c r="H1007" s="21"/>
       <c r="I1007" s="21"/>
@@ -20537,12 +21104,42 @@
       <c r="M1057" s="6"/>
       <c r="N1057" s="6"/>
     </row>
+    <row r="1058" ht="16.5" customHeight="1">
+      <c r="A1058" s="19"/>
+      <c r="G1058" s="21"/>
+      <c r="H1058" s="21"/>
+      <c r="I1058" s="21"/>
+      <c r="J1058" s="21"/>
+      <c r="L1058" s="6"/>
+      <c r="M1058" s="6"/>
+      <c r="N1058" s="6"/>
+    </row>
+    <row r="1059" ht="16.5" customHeight="1">
+      <c r="A1059" s="19"/>
+      <c r="G1059" s="21"/>
+      <c r="H1059" s="21"/>
+      <c r="I1059" s="21"/>
+      <c r="J1059" s="21"/>
+      <c r="L1059" s="6"/>
+      <c r="M1059" s="6"/>
+      <c r="N1059" s="6"/>
+    </row>
+    <row r="1060" ht="16.5" customHeight="1">
+      <c r="A1060" s="19"/>
+      <c r="G1060" s="21"/>
+      <c r="H1060" s="21"/>
+      <c r="I1060" s="21"/>
+      <c r="J1060" s="21"/>
+      <c r="L1060" s="6"/>
+      <c r="M1060" s="6"/>
+      <c r="N1060" s="6"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E123 E139:E1004">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E123 E156:E1007">
       <formula1>contexto!$B$2:$B$25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E124:E138">
+    <dataValidation type="list" allowBlank="1" sqref="E124:E155">
       <formula1>contexto!$B$2:$B$26</formula1>
     </dataValidation>
   </dataValidations>
@@ -20683,9 +21280,25 @@
     <hyperlink r:id="rId135" ref="M136"/>
     <hyperlink r:id="rId136" ref="M137"/>
     <hyperlink r:id="rId137" ref="M138"/>
+    <hyperlink r:id="rId138" ref="M139"/>
+    <hyperlink r:id="rId139" ref="M140"/>
+    <hyperlink r:id="rId140" ref="M141"/>
+    <hyperlink r:id="rId141" ref="M142"/>
+    <hyperlink r:id="rId142" ref="M143"/>
+    <hyperlink r:id="rId143" ref="M144"/>
+    <hyperlink r:id="rId144" ref="M145"/>
+    <hyperlink r:id="rId145" ref="M146"/>
+    <hyperlink r:id="rId146" ref="M147"/>
+    <hyperlink r:id="rId147" ref="M148"/>
+    <hyperlink r:id="rId148" ref="M149"/>
+    <hyperlink r:id="rId149" ref="M150"/>
+    <hyperlink r:id="rId150" ref="M151"/>
+    <hyperlink r:id="rId151" ref="M152"/>
+    <hyperlink r:id="rId152" ref="M153"/>
+    <hyperlink r:id="rId153" ref="M154"/>
   </hyperlinks>
-  <drawing r:id="rId138"/>
-  <legacyDrawing r:id="rId139"/>
+  <drawing r:id="rId154"/>
+  <legacyDrawing r:id="rId155"/>
 </worksheet>
 </file>
 
@@ -20746,10 +21359,10 @@
   <sheetData>
     <row r="1">
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>concatenate("Duplica cada ",ROUND(H2,1)," días")</f>
@@ -21727,142 +22340,142 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="45">
+      <c r="A1" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="39">
         <v>1.0</v>
       </c>
-      <c r="C1" s="45">
+      <c r="C1" s="39">
         <v>2.0</v>
       </c>
-      <c r="D1" s="45">
+      <c r="D1" s="39">
         <v>3.0</v>
       </c>
-      <c r="E1" s="45">
+      <c r="E1" s="39">
         <v>4.0</v>
       </c>
-      <c r="F1" s="45">
+      <c r="F1" s="39">
         <v>5.0</v>
       </c>
-      <c r="G1" s="45">
+      <c r="G1" s="39">
         <v>6.0</v>
       </c>
-      <c r="H1" s="45">
+      <c r="H1" s="39">
         <v>7.0</v>
       </c>
-      <c r="I1" s="45">
+      <c r="I1" s="39">
         <v>8.0</v>
       </c>
-      <c r="J1" s="45">
+      <c r="J1" s="39">
         <v>9.0</v>
       </c>
-      <c r="K1" s="45">
+      <c r="K1" s="39">
         <v>10.0</v>
       </c>
-      <c r="L1" s="45">
+      <c r="L1" s="39">
         <v>11.0</v>
       </c>
-      <c r="M1" s="45">
+      <c r="M1" s="39">
         <v>12.0</v>
       </c>
-      <c r="N1" s="45">
+      <c r="N1" s="39">
         <v>13.0</v>
       </c>
-      <c r="O1" s="45">
+      <c r="O1" s="39">
         <v>14.0</v>
       </c>
-      <c r="P1" s="45">
+      <c r="P1" s="39">
         <v>15.0</v>
       </c>
-      <c r="Q1" s="45">
+      <c r="Q1" s="39">
         <v>16.0</v>
       </c>
-      <c r="R1" s="45">
+      <c r="R1" s="39">
         <v>17.0</v>
       </c>
-      <c r="S1" s="45">
+      <c r="S1" s="39">
         <v>18.0</v>
       </c>
-      <c r="T1" s="45">
+      <c r="T1" s="39">
         <v>19.0</v>
       </c>
-      <c r="U1" s="45">
+      <c r="U1" s="39">
         <v>20.0</v>
       </c>
-      <c r="V1" s="45">
+      <c r="V1" s="39">
         <v>21.0</v>
       </c>
-      <c r="W1" s="45">
+      <c r="W1" s="39">
         <v>22.0</v>
       </c>
-      <c r="X1" s="45">
+      <c r="X1" s="39">
         <v>23.0</v>
       </c>
-      <c r="Y1" s="45">
+      <c r="Y1" s="39">
         <v>24.0</v>
       </c>
-      <c r="Z1" s="45">
+      <c r="Z1" s="39">
         <v>25.0</v>
       </c>
-      <c r="AA1" s="45">
+      <c r="AA1" s="39">
         <v>26.0</v>
       </c>
-      <c r="AB1" s="45">
+      <c r="AB1" s="39">
         <v>27.0</v>
       </c>
-      <c r="AC1" s="45">
+      <c r="AC1" s="39">
         <v>28.0</v>
       </c>
-      <c r="AD1" s="45">
+      <c r="AD1" s="39">
         <v>29.0</v>
       </c>
-      <c r="AE1" s="45">
+      <c r="AE1" s="39">
         <v>30.0</v>
       </c>
-      <c r="AF1" s="45">
+      <c r="AF1" s="39">
         <v>31.0</v>
       </c>
-      <c r="AG1" s="45">
+      <c r="AG1" s="39">
         <v>32.0</v>
       </c>
-      <c r="AH1" s="45">
+      <c r="AH1" s="39">
         <v>33.0</v>
       </c>
-      <c r="AI1" s="45">
+      <c r="AI1" s="39">
         <v>34.0</v>
       </c>
-      <c r="AJ1" s="45">
+      <c r="AJ1" s="39">
         <v>35.0</v>
       </c>
-      <c r="AK1" s="45">
+      <c r="AK1" s="39">
         <v>36.0</v>
       </c>
-      <c r="AL1" s="45">
+      <c r="AL1" s="39">
         <v>37.0</v>
       </c>
-      <c r="AM1" s="45">
+      <c r="AM1" s="39">
         <v>38.0</v>
       </c>
-      <c r="AN1" s="45">
+      <c r="AN1" s="39">
         <v>39.0</v>
       </c>
-      <c r="AO1" s="45">
+      <c r="AO1" s="39">
         <v>40.0</v>
       </c>
-      <c r="AP1" s="45">
+      <c r="AP1" s="39">
         <v>41.0</v>
       </c>
-      <c r="AQ1" s="45">
+      <c r="AQ1" s="39">
         <v>42.0</v>
       </c>
-      <c r="AR1" s="45">
+      <c r="AR1" s="39">
         <v>43.0</v>
       </c>
-      <c r="AS1" s="45">
+      <c r="AS1" s="39">
         <v>44.0</v>
       </c>
-      <c r="AT1" s="45">
+      <c r="AT1" s="39">
         <v>45.0</v>
       </c>
     </row>
@@ -25601,7 +26214,7 @@
         <v>88</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2">
@@ -25639,7 +26252,7 @@
         <v>26.0</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -25679,7 +26292,7 @@
         <v>34.0</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
@@ -25703,7 +26316,7 @@
         <v>46.0</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
@@ -25719,7 +26332,7 @@
         <v>54.0</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -25751,7 +26364,7 @@
         <v>70.0</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
@@ -25783,7 +26396,7 @@
         <v>86.0</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
@@ -25807,7 +26420,7 @@
         <v>99.0</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/XLS/Covid19arData - historico.xlsx
+++ b/XLS/Covid19arData - historico.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="117">
   <si>
     <t>fecha</t>
   </si>
@@ -176,19 +176,7 @@
     <t>Santa Fe</t>
   </si>
   <si>
-    <t>COUNT de tot_casosconf</t>
-  </si>
-  <si>
     <t>https://www.argentina.gob.ar/sites/default/files/20-03-20_reporte_diario_covid_19_2.pdf</t>
-  </si>
-  <si>
-    <t>transmision comunitaria</t>
-  </si>
-  <si>
-    <t>transmision local</t>
-  </si>
-  <si>
-    <t>Suma total</t>
   </si>
   <si>
     <t>Corrientes</t>
@@ -198,6 +186,9 @@
   </si>
   <si>
     <t>Santiago Del Estero</t>
+  </si>
+  <si>
+    <t>transmision local</t>
   </si>
   <si>
     <t>https://www.argentina.gob.ar/sites/default/files/21-03-20-reporte-diario_covid19.pdf</t>
@@ -213,6 +204,15 @@
   </si>
   <si>
     <t>https://www.argentina.gob.ar/sites/default/files/22-03-20-reporte-diario_covid19.pdf</t>
+  </si>
+  <si>
+    <t>COUNT de tot_casosconf</t>
+  </si>
+  <si>
+    <t>transmision comunitaria</t>
+  </si>
+  <si>
+    <t>Suma total</t>
   </si>
   <si>
     <t>Misiones</t>
@@ -237,18 +237,6 @@
   </si>
   <si>
     <t>Rosario</t>
-  </si>
-  <si>
-    <t>SUM de nue_casosconf_diff</t>
-  </si>
-  <si>
-    <t>SUM de nue_fallecidos_diff</t>
-  </si>
-  <si>
-    <t>Confirmados</t>
-  </si>
-  <si>
-    <t>Fallecidos</t>
   </si>
   <si>
     <t>Galvez</t>
@@ -287,9 +275,6 @@
     <t>se suman 7casos, se compensa la diferencia entre los 20 casos del 27/3</t>
   </si>
   <si>
-    <t>provincia</t>
-  </si>
-  <si>
     <t>1 caso reclasificado el 28-3 a Cordoba.</t>
   </si>
   <si>
@@ -302,36 +287,6 @@
     <t>https://www.argentina.gob.ar/sites/default/files/27-03-20-reporte-diario-vespertino-covid-19.pdf</t>
   </si>
   <si>
-    <t>provinciaId</t>
-  </si>
-  <si>
-    <t>para mayor información visitar:</t>
-  </si>
-  <si>
-    <t>Catamarca</t>
-  </si>
-  <si>
-    <t>https://sistemasmapache.github.io/Covid19arData/</t>
-  </si>
-  <si>
-    <t>Chubut</t>
-  </si>
-  <si>
-    <t>Formosa</t>
-  </si>
-  <si>
-    <t>La Rioja</t>
-  </si>
-  <si>
-    <t>San Juan</t>
-  </si>
-  <si>
-    <t>Santiago del Estero</t>
-  </si>
-  <si>
-    <t>Indeterminado</t>
-  </si>
-  <si>
     <t>Pueblo Andino</t>
   </si>
   <si>
@@ -342,6 +297,12 @@
   </si>
   <si>
     <t>https://www.rionegro.gov.ar/?contID=58359</t>
+  </si>
+  <si>
+    <t>Santiago del Estero</t>
+  </si>
+  <si>
+    <t>Indeterminado</t>
   </si>
   <si>
     <t>"*El total de los casos fue de 101. Se suman en esta lista, 16 casos (anteriores) que en eldía de ayer figuraban sin localidad de residencia y hoy se agruparon en las jurisdiccionescorrespondientes."Se asigno el fallecido con provincia indeterminada a este registro hasta que sepamos a que provincia corresponde.
@@ -363,6 +324,18 @@
     <t>Chabás</t>
   </si>
   <si>
+    <t>SUM de nue_casosconf_diff</t>
+  </si>
+  <si>
+    <t>SUM de nue_fallecidos_diff</t>
+  </si>
+  <si>
+    <t>Confirmados</t>
+  </si>
+  <si>
+    <t>Fallecidos</t>
+  </si>
+  <si>
     <t>Capital</t>
   </si>
   <si>
@@ -376,6 +349,45 @@
   </si>
   <si>
     <t>Arroyo seco</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>La Rioja</t>
+  </si>
+  <si>
+    <t>https://www.argentina.gob.ar/sites/default/files/30-03-20-reporte-vespertino-covid-19.pdf</t>
+  </si>
+  <si>
+    <t>provincia</t>
+  </si>
+  <si>
+    <t>Armstrong</t>
+  </si>
+  <si>
+    <t>Funes</t>
+  </si>
+  <si>
+    <t>Ushuaia</t>
+  </si>
+  <si>
+    <t>provinciaId</t>
+  </si>
+  <si>
+    <t>para mayor información visitar:</t>
+  </si>
+  <si>
+    <t>Catamarca</t>
+  </si>
+  <si>
+    <t>https://sistemasmapache.github.io/Covid19arData/</t>
+  </si>
+  <si>
+    <t>Chubut</t>
+  </si>
+  <si>
+    <t>Formosa</t>
   </si>
 </sst>
 </file>
@@ -425,11 +437,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
     </font>
@@ -443,14 +455,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -467,12 +479,12 @@
       </top>
     </border>
     <border>
-      <right/>
-    </border>
-    <border>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <right/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -537,9 +549,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -559,47 +568,68 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -607,29 +637,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,7 +745,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CASOS TOTALES POR DIA'!$D$2:$D$22</c:f>
+              <c:f>'CASOS TOTALES POR DIA'!$D$2:$D$60</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -778,7 +790,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CASOS TOTALES POR DIA'!$E$2:$E$22</c:f>
+              <c:f>'CASOS TOTALES POR DIA'!$E$2:$E$60</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -809,7 +821,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CASOS TOTALES POR DIA'!$F$2:$F$22</c:f>
+              <c:f>'CASOS TOTALES POR DIA'!$F$2:$F$60</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -840,16 +852,16 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CASOS TOTALES POR DIA'!$G$2:$G$34</c:f>
+              <c:f>'CASOS TOTALES POR DIA'!$G$2:$G$60</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1809743428"/>
-        <c:axId val="1153349048"/>
+        <c:axId val="1279394406"/>
+        <c:axId val="1273134176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1809743428"/>
+        <c:axId val="1279394406"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40.0"/>
@@ -892,10 +904,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1153349048"/>
+        <c:crossAx val="1273134176"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1153349048"/>
+        <c:axId val="1273134176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000.0"/>
@@ -965,7 +977,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809743428"/>
+        <c:crossAx val="1279394406"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1085,7 +1097,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CASOS TOTALES POR DIA'!$D$2:$D$22</c:f>
+              <c:f>'CASOS TOTALES POR DIA'!$D$2:$D$100</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1130,16 +1142,16 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CASOS TOTALES POR DIA'!$E$2:$E$22</c:f>
+              <c:f>'CASOS TOTALES POR DIA'!$E$2:$E$100</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="341071063"/>
-        <c:axId val="397177925"/>
+        <c:axId val="848210030"/>
+        <c:axId val="2024965063"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="341071063"/>
+        <c:axId val="848210030"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40.0"/>
@@ -1182,10 +1194,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397177925"/>
+        <c:crossAx val="2024965063"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="397177925"/>
+        <c:axId val="2024965063"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000.0"/>
@@ -1255,7 +1267,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341071063"/>
+        <c:crossAx val="848210030"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1775,11 +1787,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1865568016"/>
-        <c:axId val="1599296112"/>
+        <c:axId val="345425403"/>
+        <c:axId val="798256980"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1865568016"/>
+        <c:axId val="345425403"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25.0"/>
@@ -1822,10 +1834,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1599296112"/>
+        <c:crossAx val="798256980"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1599296112"/>
+        <c:axId val="798256980"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,7 +1906,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1865568016"/>
+        <c:crossAx val="345425403"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2410,11 +2422,11 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" invalid="1" refreshOnLoad="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:N97" sheet="historico"/>
+    <worksheetSource ref="A1:N204" sheet="historico"/>
   </cacheSource>
   <cacheFields>
     <cacheField name="fecha" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsDate="1" containsString="0">
+      <sharedItems containsDate="1" containsString="0" containsBlank="1">
         <d v="2020-03-05T00:00:00Z"/>
         <d v="2020-03-06T00:00:00Z"/>
         <d v="2020-03-07T00:00:00Z"/>
@@ -2437,10 +2449,15 @@
         <d v="2020-03-24T00:00:00Z"/>
         <d v="2020-03-25T00:00:00Z"/>
         <d v="2020-03-26T00:00:00Z"/>
+        <d v="2020-03-27T00:00:00Z"/>
+        <d v="2020-03-28T00:00:00Z"/>
+        <d v="2020-03-29T00:00:00Z"/>
+        <d v="2020-03-30T00:00:00Z"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="dia_inicio" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1">
         <n v="1.0"/>
         <n v="2.0"/>
         <n v="3.0"/>
@@ -2463,6 +2480,11 @@
         <n v="20.0"/>
         <n v="21.0"/>
         <n v="22.0"/>
+        <n v="23.0"/>
+        <n v="24.0"/>
+        <n v="25.0"/>
+        <n v="26.0"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="dia_cuarentena_dnu260" numFmtId="0">
@@ -2474,15 +2496,20 @@
         <n v="4.0"/>
         <n v="5.0"/>
         <n v="6.0"/>
+        <n v="7.0"/>
+        <n v="8.0"/>
+        <n v="9.0"/>
+        <n v="10.0"/>
       </sharedItems>
     </cacheField>
     <cacheField name="osm_admin_level_2" numFmtId="0">
-      <sharedItems>
+      <sharedItems containsBlank="1">
         <s v="Argentina"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="osm_admin_level_4" numFmtId="0">
-      <sharedItems>
+      <sharedItems containsBlank="1">
         <s v="xx"/>
         <s v="CABA"/>
         <s v="Chaco"/>
@@ -2503,6 +2530,10 @@
         <s v="Misiones"/>
         <s v="La Pampa"/>
         <s v="San Luis"/>
+        <s v="Indeterminado"/>
+        <s v="San Juan"/>
+        <s v="La Rioja"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="osm_admin_level_8" numFmtId="0">
@@ -2515,10 +2546,24 @@
         <s v="Rosario"/>
         <s v="Galvez"/>
         <s v="Roldan"/>
+        <s v="Pueblo Andino"/>
+        <s v="Venado Tuerto"/>
+        <s v="Villa Constitución"/>
+        <s v="Santa Fe"/>
+        <s v="Rosaio"/>
+        <s v="Santo Tomé "/>
+        <s v="Chabás"/>
+        <s v="Capital"/>
+        <s v="Las lajas"/>
+        <s v="Gálvez"/>
+        <s v="Arroyo seco"/>
+        <s v="Armstrong"/>
+        <s v="Funes"/>
+        <s v="Ushuaia"/>
       </sharedItems>
     </cacheField>
     <cacheField name="tot_casosconf" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1">
         <n v="1.0"/>
         <n v="2.0"/>
         <n v="12.0"/>
@@ -2614,10 +2659,79 @@
         <n v="480.0"/>
         <n v="502.0"/>
         <n v="532.0"/>
+        <n v="559.0"/>
+        <n v="571.0"/>
+        <n v="574.0"/>
+        <n v="577.0"/>
+        <n v="580.0"/>
+        <n v="583.0"/>
+        <n v="585.0"/>
+        <n v="587.0"/>
+        <n v="588.0"/>
+        <n v="631.0"/>
+        <n v="667.0"/>
+        <n v="670.0"/>
+        <n v="675.0"/>
+        <n v="681.0"/>
+        <n v="687.0"/>
+        <n v="688.0"/>
+        <n v="689.0"/>
+        <n v="690.0"/>
+        <n v="693.0"/>
+        <n v="697.0"/>
+        <n v="698.0"/>
+        <n v="701.0"/>
+        <n v="703.0"/>
+        <n v="704.0"/>
+        <n v="705.0"/>
+        <n v="715.0"/>
+        <n v="719.0"/>
+        <n v="723.0"/>
+        <n v="726.0"/>
+        <n v="727.0"/>
+        <n v="728.0"/>
+        <n v="733.0"/>
+        <n v="734.0"/>
+        <n v="738.0"/>
+        <n v="739.0"/>
+        <n v="740.0"/>
+        <n v="741.0"/>
+        <n v="745.0"/>
+        <n v="761.0"/>
+        <n v="774.0"/>
+        <n v="778.0"/>
+        <n v="785.0"/>
+        <n v="788.0"/>
+        <n v="790.0"/>
+        <n v="791.0"/>
+        <n v="809.0"/>
+        <n v="813.0"/>
+        <n v="814.0"/>
+        <n v="815.0"/>
+        <n v="817.0"/>
+        <n v="818.0"/>
+        <n v="819.0"/>
+        <n v="820.0"/>
+        <n v="856.0"/>
+        <n v="890.0"/>
+        <n v="902.0"/>
+        <n v="916.0"/>
+        <n v="918.0"/>
+        <n v="920.0"/>
+        <n v="921.0"/>
+        <n v="922.0"/>
+        <n v="923.0"/>
+        <n v="931.0"/>
+        <n v="942.0"/>
+        <n v="952.0"/>
+        <n v="955.0"/>
+        <n v="958.0"/>
+        <n v="966.0"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="nue_casosconf_diff" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1">
         <n v="1.0"/>
         <n v="0.0"/>
         <n v="10.0"/>
@@ -2636,10 +2750,20 @@
         <n v="21.0"/>
         <n v="12.0"/>
         <n v="22.0"/>
+        <n v="27.0"/>
+        <n v="43.0"/>
+        <n v="36.0"/>
+        <n v="-16.0"/>
+        <n v="18.0"/>
+        <n v="16.0"/>
+        <n v="13.0"/>
+        <n v="34.0"/>
+        <n v="14.0"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="tot_fallecidos" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1">
         <n v="0.0"/>
         <n v="1.0"/>
         <n v="2.0"/>
@@ -2650,12 +2774,28 @@
         <n v="7.0"/>
         <n v="8.0"/>
         <n v="9.0"/>
+        <n v="11.0"/>
+        <n v="12.0"/>
+        <n v="13.0"/>
+        <n v="14.0"/>
+        <n v="15.0"/>
+        <n v="16.0"/>
+        <n v="17.0"/>
+        <n v="18.0"/>
+        <n v="19.0"/>
+        <n v="20.0"/>
+        <n v="22.0"/>
+        <n v="23.0"/>
+        <n v="24.0"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="nue_fallecidos_diff" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1">
         <n v="0.0"/>
         <n v="1.0"/>
+        <n v="2.0"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="transmision_tipo" numFmtId="0">
@@ -2671,6 +2811,7 @@
         <s v="informe nacional"/>
         <m/>
         <s v="informe provincial"/>
+        <s v="informe nacional vespertino"/>
       </sharedItems>
     </cacheField>
     <cacheField name="informe_link" numFmtId="0">
@@ -2699,6 +2840,12 @@
         <s v="https://www.santafe.gob.ar/index.php/web/content/download/257621/1357167/file/Informe_Coronavirus_24_03_2020%2021%20hs.pdf"/>
         <s v="https://www.argentina.gob.ar/sites/default/files/25-03-20-reporte-diario-vespertino-covid-19.pdf"/>
         <s v="https://www.argentina.gob.ar/sites/default/files/26-03-20-reporte-diario-vespertino-covid-19.pdf"/>
+        <s v="https://www.buenosaires.gob.ar/salud/noticias/actualizacion-de-los-casos-coronavirus-en-la-ciudad-buenos-aires"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/27-03-20-reporte-diario-vespertino-covid-19.pdf"/>
+        <s v="https://www.rionegro.gov.ar/?contID=58359"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/28-03-20-reporte-vespertino-covid-19.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/29-03-20_reporte_vespertino_covid_19.pdf"/>
+        <s v="https://www.argentina.gob.ar/sites/default/files/30-03-20-reporte-vespertino-covid-19.pdf"/>
       </sharedItems>
     </cacheField>
     <cacheField name="observacion" numFmtId="0">
@@ -2710,6 +2857,9 @@
         <s v="2 casos informados en el día de ayer se reclasificaron por lo que dejaron de formar parte del total. Se resto uno random en esta ciudad"/>
         <s v="Santa Fe Parte Provincial no son novedades son totales. Por esto viene el ruido."/>
         <s v="se suman 7casos, se compensa la diferencia entre los 20 casos del 27/3"/>
+        <s v="1 caso reclasificado el 28-3 a Cordoba."/>
+        <s v="GCABA publico que son 20 los casos nuevos. Cremos que acá estaría la diferencia de los 16 casos menos del parte diario nacional del dia."/>
+        <s v="&quot;*El total de los casos fue de 101. Se suman en esta lista, 16 casos (anteriores) que en eldía de ayer figuraban sin localidad de residencia y hoy se agruparon en las jurisdiccionescorrespondientes.&quot;Se asigno el fallecido con provincia indeterminada a est"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -3427,7 +3577,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CASOS TOTALES POR DIA" cacheId="1" dataCaption="" rowGrandTotals="0" compact="0" compactData="0">
-  <location ref="A1:C23" firstHeaderRow="0" firstDataRow="2" firstDataCol="0"/>
+  <location ref="A1:C28" firstHeaderRow="0" firstDataRow="2" firstDataCol="0"/>
   <pivotFields>
     <pivotField name="fecha" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
@@ -3453,11 +3603,17 @@
         <item x="19"/>
         <item x="20"/>
         <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField name="dia_inicio" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
       <items>
+        <item x="26"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -3480,6 +3636,10 @@
         <item x="19"/>
         <item x="20"/>
         <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3492,12 +3652,17 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField name="osm_admin_level_2" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3523,6 +3688,10 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3536,6 +3705,20 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3636,6 +3819,75 @@
         <item x="92"/>
         <item x="93"/>
         <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3659,6 +3911,16 @@
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3674,6 +3936,20 @@
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3681,6 +3957,8 @@
       <items>
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3698,6 +3976,7 @@
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3727,6 +4006,12 @@
         <item x="21"/>
         <item x="22"/>
         <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3739,6 +4024,9 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4352,7 +4640,7 @@
         <v>43895.0</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:B154" si="1">DAYS(A2,DATE(2020,3,4))</f>
+        <f t="shared" ref="B2:B170" si="1">DAYS(A2,DATE(2020,3,4))</f>
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
@@ -4403,7 +4691,7 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G154" si="2">G2+H3</f>
+        <f t="shared" ref="G3:G170" si="2">G2+H3</f>
         <v>2</v>
       </c>
       <c r="H3" s="3">
@@ -6014,7 +6302,7 @@
         <v>17</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N40" s="14"/>
       <c r="O40" s="10"/>
@@ -6074,7 +6362,7 @@
         <v>17</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N41" s="6"/>
     </row>
@@ -6114,7 +6402,7 @@
         <v>17</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N42" s="6"/>
     </row>
@@ -6154,7 +6442,7 @@
         <v>17</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N43" s="6"/>
     </row>
@@ -6195,7 +6483,7 @@
         <v>17</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N44" s="6"/>
     </row>
@@ -6236,7 +6524,7 @@
         <v>17</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N45" s="6"/>
     </row>
@@ -6253,7 +6541,7 @@
         <v>14</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G46" s="23">
         <f t="shared" si="2"/>
@@ -6276,7 +6564,7 @@
         <v>17</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N46" s="6"/>
     </row>
@@ -6293,7 +6581,7 @@
         <v>14</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="23">
@@ -6317,7 +6605,7 @@
         <v>17</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N47" s="6"/>
     </row>
@@ -6334,7 +6622,7 @@
         <v>14</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="23">
@@ -6358,7 +6646,7 @@
         <v>17</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N48" s="6"/>
     </row>
@@ -6371,7 +6659,7 @@
         <v>17</v>
       </c>
       <c r="C49" s="9">
-        <f t="shared" ref="C49:C154" si="4">DAYS(A49,DATE(2020,3,20))</f>
+        <f t="shared" ref="C49:C170" si="4">DAYS(A49,DATE(2020,3,20))</f>
         <v>1</v>
       </c>
       <c r="D49" s="9" t="s">
@@ -6396,13 +6684,13 @@
         <v>0.0</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L49" s="12" t="s">
         <v>17</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N49" s="14"/>
       <c r="O49" s="10"/>
@@ -6459,13 +6747,13 @@
         <v>1.0</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N50" s="6"/>
     </row>
@@ -6502,13 +6790,13 @@
         <v>0.0</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N51" s="6"/>
     </row>
@@ -6528,7 +6816,7 @@
         <v>14</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G52" s="23">
         <f t="shared" si="2"/>
@@ -6545,13 +6833,13 @@
         <v>0.0</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N52" s="6"/>
     </row>
@@ -6588,13 +6876,13 @@
         <v>0.0</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N53" s="6"/>
     </row>
@@ -6632,13 +6920,13 @@
         <v>0.0</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N54" s="6"/>
     </row>
@@ -6658,7 +6946,7 @@
         <v>14</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G55" s="23">
         <f t="shared" si="2"/>
@@ -6675,13 +6963,13 @@
         <v>0.0</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N55" s="6"/>
     </row>
@@ -6704,7 +6992,7 @@
         <v>45</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G56" s="23">
         <f t="shared" si="2"/>
@@ -6721,13 +7009,13 @@
         <v>0.0</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N56" s="6"/>
     </row>
@@ -6750,7 +7038,7 @@
         <v>45</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G57" s="23">
         <f t="shared" si="2"/>
@@ -6767,13 +7055,13 @@
         <v>0.0</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N57" s="6"/>
     </row>
@@ -6811,13 +7099,13 @@
         <v>0.0</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N58" s="6"/>
     </row>
@@ -6854,13 +7142,13 @@
         <v>0.0</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N59" s="6"/>
     </row>
@@ -6898,13 +7186,13 @@
         <v>0.0</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L60" s="12" t="s">
         <v>17</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N60" s="14"/>
       <c r="O60" s="10"/>
@@ -6961,13 +7249,13 @@
         <v>0.0</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N61" s="6"/>
     </row>
@@ -7004,13 +7292,13 @@
         <v>0.0</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N62" s="6"/>
     </row>
@@ -7047,13 +7335,13 @@
         <v>0.0</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N63" s="6"/>
     </row>
@@ -7091,13 +7379,13 @@
         <v>0.0</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N64" s="6"/>
     </row>
@@ -7135,13 +7423,13 @@
         <v>0.0</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L65" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N65" s="6"/>
     </row>
@@ -7179,7 +7467,7 @@
         <v>0.0</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L66" s="12" t="s">
         <v>17</v>
@@ -7242,7 +7530,7 @@
         <v>0.0</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L67" s="4" t="s">
         <v>17</v>
@@ -7288,7 +7576,7 @@
         <v>0.0</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>62</v>
@@ -7336,7 +7624,7 @@
         <v>0.0</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L69" s="4" t="s">
         <v>62</v>
@@ -7384,7 +7672,7 @@
         <v>0.0</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>62</v>
@@ -7415,7 +7703,7 @@
         <v>45</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G71" s="23">
         <f t="shared" si="2"/>
@@ -7432,7 +7720,7 @@
         <v>0.0</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>62</v>
@@ -7477,7 +7765,7 @@
         <v>0.0</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>17</v>
@@ -7520,7 +7808,7 @@
         <v>0.0</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L73" s="4" t="s">
         <v>17</v>
@@ -7564,16 +7852,16 @@
         <v>0.0</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L74" s="12" t="s">
         <v>17</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="N74" s="27" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="N74" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
@@ -7629,16 +7917,16 @@
         <v>1.0</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L75" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N75" s="28" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="N75" s="27" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="76" ht="16.5" customHeight="1">
@@ -7675,13 +7963,13 @@
         <v>1.0</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L76" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N76" s="6"/>
     </row>
@@ -7719,13 +8007,13 @@
         <v>0.0</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L77" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M77" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N77" s="6"/>
     </row>
@@ -7763,13 +8051,13 @@
         <v>0.0</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L78" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M78" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N78" s="6"/>
     </row>
@@ -7809,16 +8097,16 @@
         <v>0.0</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L79" s="4" t="s">
         <v>62</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" ht="16.5" customHeight="1">
@@ -7840,7 +8128,7 @@
         <v>45</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G80" s="23">
         <f t="shared" si="2"/>
@@ -7857,16 +8145,16 @@
         <v>0.0</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L80" s="4" t="s">
         <v>62</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" ht="16.5" customHeight="1">
@@ -7888,7 +8176,7 @@
         <v>45</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G81" s="23">
         <f t="shared" si="2"/>
@@ -7905,16 +8193,16 @@
         <v>0.0</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L81" s="4" t="s">
         <v>62</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" ht="16.5" customHeight="1">
@@ -7933,7 +8221,7 @@
         <v>14</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="23">
@@ -7951,13 +8239,13 @@
         <v>0.0</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L82" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N82" s="6"/>
     </row>
@@ -7977,7 +8265,7 @@
         <v>14</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="23">
@@ -7995,13 +8283,13 @@
         <v>0.0</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L83" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N83" s="6"/>
     </row>
@@ -8039,13 +8327,13 @@
         <v>0.0</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L84" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N84" s="6"/>
     </row>
@@ -8083,13 +8371,13 @@
         <v>0.0</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L85" s="12" t="s">
         <v>17</v>
       </c>
       <c r="M85" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N85" s="14"/>
       <c r="O85" s="10"/>
@@ -8146,13 +8434,13 @@
         <v>1.0</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L86" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M86" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N86" s="6"/>
     </row>
@@ -8189,13 +8477,13 @@
         <v>0.0</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L87" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M87" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N87" s="6"/>
     </row>
@@ -8232,13 +8520,13 @@
         <v>1.0</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L88" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N88" s="6"/>
     </row>
@@ -8275,13 +8563,13 @@
         <v>0.0</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L89" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N89" s="6"/>
     </row>
@@ -8301,7 +8589,7 @@
         <v>14</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G90" s="23">
         <f t="shared" si="2"/>
@@ -8318,13 +8606,13 @@
         <v>0.0</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L90" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N90" s="6"/>
     </row>
@@ -8361,13 +8649,13 @@
         <v>0.0</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L91" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N91" s="6"/>
     </row>
@@ -8387,7 +8675,7 @@
         <v>14</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G92" s="23">
         <f t="shared" si="2"/>
@@ -8404,13 +8692,13 @@
         <v>0.0</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L92" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N92" s="6"/>
     </row>
@@ -8430,7 +8718,7 @@
         <v>14</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G93" s="23">
         <f t="shared" si="2"/>
@@ -8447,13 +8735,13 @@
         <v>0.0</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N93" s="6"/>
     </row>
@@ -8473,7 +8761,7 @@
         <v>14</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G94" s="23">
         <f t="shared" si="2"/>
@@ -8490,13 +8778,13 @@
         <v>0.0</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L94" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N94" s="6"/>
     </row>
@@ -8533,13 +8821,13 @@
         <v>0.0</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L95" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N95" s="6"/>
     </row>
@@ -8576,81 +8864,81 @@
         <v>0.0</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L96" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N96" s="29"/>
+        <v>74</v>
+      </c>
+      <c r="N96" s="28"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="30">
+      <c r="A97" s="29">
         <v>43916.0</v>
       </c>
-      <c r="B97" s="31">
+      <c r="B97" s="30">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C97" s="31">
+      <c r="C97" s="30">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="D97" s="31" t="s">
+      <c r="D97" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="31" t="s">
+      <c r="E97" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F97" s="32"/>
-      <c r="G97" s="33">
+      <c r="F97" s="31"/>
+      <c r="G97" s="32">
         <f t="shared" si="2"/>
         <v>532</v>
       </c>
-      <c r="H97" s="34">
+      <c r="H97" s="33">
         <v>30.0</v>
       </c>
-      <c r="I97" s="33">
+      <c r="I97" s="32">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J97" s="35">
+      <c r="J97" s="33">
         <v>1.0</v>
       </c>
-      <c r="K97" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="L97" s="36" t="s">
+      <c r="K97" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="L97" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="M97" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="N97" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="O97" s="32"/>
-      <c r="P97" s="32"/>
-      <c r="Q97" s="32"/>
-      <c r="R97" s="32"/>
-      <c r="S97" s="32"/>
-      <c r="T97" s="32"/>
-      <c r="U97" s="32"/>
-      <c r="V97" s="32"/>
-      <c r="W97" s="32"/>
-      <c r="X97" s="32"/>
-      <c r="Y97" s="32"/>
-      <c r="Z97" s="32"/>
-      <c r="AA97" s="32"/>
-      <c r="AB97" s="32"/>
-      <c r="AC97" s="32"/>
-      <c r="AD97" s="32"/>
-      <c r="AE97" s="32"/>
-      <c r="AF97" s="32"/>
-      <c r="AG97" s="32"/>
-      <c r="AH97" s="32"/>
+      <c r="M97" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="N97" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="O97" s="31"/>
+      <c r="P97" s="31"/>
+      <c r="Q97" s="31"/>
+      <c r="R97" s="31"/>
+      <c r="S97" s="31"/>
+      <c r="T97" s="31"/>
+      <c r="U97" s="31"/>
+      <c r="V97" s="31"/>
+      <c r="W97" s="31"/>
+      <c r="X97" s="31"/>
+      <c r="Y97" s="31"/>
+      <c r="Z97" s="31"/>
+      <c r="AA97" s="31"/>
+      <c r="AB97" s="31"/>
+      <c r="AC97" s="31"/>
+      <c r="AD97" s="31"/>
+      <c r="AE97" s="31"/>
+      <c r="AF97" s="31"/>
+      <c r="AG97" s="31"/>
+      <c r="AH97" s="31"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="1">
@@ -8685,13 +8973,13 @@
         <v>2.0</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L98" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M98" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N98" s="6"/>
     </row>
@@ -8728,13 +9016,13 @@
         <v>0.0</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L99" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N99" s="6"/>
     </row>
@@ -8771,13 +9059,13 @@
         <v>1.0</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L100" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M100" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N100" s="6"/>
     </row>
@@ -8814,13 +9102,13 @@
         <v>0.0</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N101" s="6"/>
     </row>
@@ -8840,7 +9128,7 @@
         <v>14</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G102" s="23">
         <f t="shared" si="2"/>
@@ -8857,13 +9145,13 @@
         <v>0.0</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N102" s="6"/>
     </row>
@@ -8883,7 +9171,7 @@
         <v>14</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G103" s="23">
         <f t="shared" si="2"/>
@@ -8900,13 +9188,13 @@
         <v>0.0</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L103" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N103" s="6"/>
     </row>
@@ -8943,13 +9231,13 @@
         <v>0.0</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L104" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N104" s="6"/>
     </row>
@@ -8986,13 +9274,13 @@
         <v>0.0</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L105" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N105" s="6"/>
     </row>
@@ -9012,7 +9300,7 @@
         <v>14</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G106" s="23">
         <f t="shared" si="2"/>
@@ -9029,13 +9317,13 @@
         <v>0.0</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L106" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N106" s="6"/>
     </row>
@@ -9055,13 +9343,13 @@
         <v>14</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G107" s="23">
         <f t="shared" si="2"/>
         <v>588</v>
       </c>
-      <c r="H107" s="40">
+      <c r="H107" s="36">
         <v>0.0</v>
       </c>
       <c r="I107" s="23">
@@ -9072,86 +9360,86 @@
         <v>0.0</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L107" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N107" s="41" t="s">
-        <v>84</v>
+        <v>77</v>
+      </c>
+      <c r="N107" s="37" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="108" ht="16.5" customHeight="1">
-      <c r="A108" s="42">
+      <c r="A108" s="29">
         <v>43917.0</v>
       </c>
-      <c r="B108" s="31">
+      <c r="B108" s="30">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C108" s="31">
+      <c r="C108" s="30">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="D108" s="43" t="s">
+      <c r="D108" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E108" s="31" t="s">
+      <c r="E108" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F108" s="32"/>
-      <c r="G108" s="33">
+      <c r="F108" s="31"/>
+      <c r="G108" s="32">
         <f t="shared" si="2"/>
         <v>631</v>
       </c>
-      <c r="H108" s="34">
+      <c r="H108" s="33">
         <v>43.0</v>
       </c>
-      <c r="I108" s="33">
+      <c r="I108" s="32">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="J108" s="34">
+      <c r="J108" s="33">
         <v>1.0</v>
       </c>
-      <c r="K108" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="L108" s="38" t="s">
+      <c r="K108" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="L108" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="M108" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="N108" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="O108" s="32"/>
-      <c r="P108" s="32"/>
-      <c r="Q108" s="32"/>
-      <c r="R108" s="32"/>
-      <c r="S108" s="32"/>
-      <c r="T108" s="32"/>
-      <c r="U108" s="32"/>
-      <c r="V108" s="32"/>
-      <c r="W108" s="32"/>
-      <c r="X108" s="32"/>
-      <c r="Y108" s="32"/>
-      <c r="Z108" s="32"/>
-      <c r="AA108" s="32"/>
-      <c r="AB108" s="32"/>
-      <c r="AC108" s="32"/>
-      <c r="AD108" s="32"/>
-      <c r="AE108" s="32"/>
-      <c r="AF108" s="32"/>
-      <c r="AG108" s="32"/>
-      <c r="AH108" s="32"/>
+      <c r="M108" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="N108" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="O108" s="31"/>
+      <c r="P108" s="31"/>
+      <c r="Q108" s="31"/>
+      <c r="R108" s="31"/>
+      <c r="S108" s="31"/>
+      <c r="T108" s="31"/>
+      <c r="U108" s="31"/>
+      <c r="V108" s="31"/>
+      <c r="W108" s="31"/>
+      <c r="X108" s="31"/>
+      <c r="Y108" s="31"/>
+      <c r="Z108" s="31"/>
+      <c r="AA108" s="31"/>
+      <c r="AB108" s="31"/>
+      <c r="AC108" s="31"/>
+      <c r="AD108" s="31"/>
+      <c r="AE108" s="31"/>
+      <c r="AF108" s="31"/>
+      <c r="AG108" s="31"/>
+      <c r="AH108" s="31"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
-      <c r="A109" s="45">
+      <c r="A109" s="1">
         <v>43917.0</v>
       </c>
       <c r="B109" s="2">
@@ -9172,28 +9460,28 @@
         <f t="shared" si="2"/>
         <v>667</v>
       </c>
-      <c r="H109" s="46">
+      <c r="H109" s="3">
         <v>36.0</v>
       </c>
       <c r="I109" s="23">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="J109" s="46">
+      <c r="J109" s="3">
         <v>0.0</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L109" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="L109" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" ht="16.5" customHeight="1">
-      <c r="A110" s="45">
+      <c r="A110" s="1">
         <v>43917.0</v>
       </c>
       <c r="B110" s="2">
@@ -9214,29 +9502,29 @@
         <f t="shared" si="2"/>
         <v>670</v>
       </c>
-      <c r="H110" s="46">
+      <c r="H110" s="3">
         <v>3.0</v>
       </c>
       <c r="I110" s="23">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="J110" s="46">
+      <c r="J110" s="3">
         <v>0.0</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L110" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="L110" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M110" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N110" s="47"/>
+        <v>82</v>
+      </c>
+      <c r="N110" s="4"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
-      <c r="A111" s="45">
+      <c r="A111" s="1">
         <v>43917.0</v>
       </c>
       <c r="B111" s="2">
@@ -9257,29 +9545,29 @@
         <f t="shared" si="2"/>
         <v>675</v>
       </c>
-      <c r="H111" s="46">
+      <c r="H111" s="3">
         <v>5.0</v>
       </c>
       <c r="I111" s="23">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="J111" s="46">
+      <c r="J111" s="3">
         <v>0.0</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L111" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="L111" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M111" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N111" s="47"/>
+        <v>82</v>
+      </c>
+      <c r="N111" s="4"/>
     </row>
     <row r="112" ht="16.5" customHeight="1">
-      <c r="A112" s="45">
+      <c r="A112" s="1">
         <v>43917.0</v>
       </c>
       <c r="B112" s="2">
@@ -9300,29 +9588,29 @@
         <f t="shared" si="2"/>
         <v>681</v>
       </c>
-      <c r="H112" s="46">
+      <c r="H112" s="3">
         <v>6.0</v>
       </c>
       <c r="I112" s="23">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="J112" s="46">
+      <c r="J112" s="3">
         <v>0.0</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L112" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="L112" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M112" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N112" s="47"/>
+        <v>82</v>
+      </c>
+      <c r="N112" s="4"/>
     </row>
     <row r="113" ht="16.5" customHeight="1">
-      <c r="A113" s="45">
+      <c r="A113" s="1">
         <v>43917.0</v>
       </c>
       <c r="B113" s="2">
@@ -9346,26 +9634,26 @@
         <f t="shared" si="2"/>
         <v>687</v>
       </c>
-      <c r="H113" s="46">
+      <c r="H113" s="3">
         <v>6.0</v>
       </c>
       <c r="I113" s="23">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="J113" s="46">
+      <c r="J113" s="3">
         <v>0.0</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L113" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="L113" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M113" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N113" s="47"/>
+        <v>82</v>
+      </c>
+      <c r="N113" s="4"/>
     </row>
     <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="1">
@@ -9386,13 +9674,13 @@
         <v>45</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="G114" s="23">
         <f t="shared" si="2"/>
         <v>688</v>
       </c>
-      <c r="H114" s="46">
+      <c r="H114" s="3">
         <v>1.0</v>
       </c>
       <c r="I114" s="23">
@@ -9403,13 +9691,13 @@
         <v>0.0</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L114" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M114" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N114" s="4"/>
     </row>
@@ -9432,13 +9720,13 @@
         <v>45</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="G115" s="23">
         <f t="shared" si="2"/>
         <v>689</v>
       </c>
-      <c r="H115" s="46">
+      <c r="H115" s="3">
         <v>1.0</v>
       </c>
       <c r="I115" s="23">
@@ -9449,13 +9737,13 @@
         <v>0.0</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L115" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M115" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N115" s="4"/>
     </row>
@@ -9478,13 +9766,13 @@
         <v>45</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G116" s="23">
         <f t="shared" si="2"/>
         <v>690</v>
       </c>
-      <c r="H116" s="46">
+      <c r="H116" s="3">
         <v>1.0</v>
       </c>
       <c r="I116" s="23">
@@ -9495,18 +9783,18 @@
         <v>0.0</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L116" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M116" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N116" s="4"/>
     </row>
     <row r="117" ht="16.5" customHeight="1">
-      <c r="A117" s="45">
+      <c r="A117" s="1">
         <v>43917.0</v>
       </c>
       <c r="B117" s="2">
@@ -9527,29 +9815,29 @@
         <f t="shared" si="2"/>
         <v>693</v>
       </c>
-      <c r="H117" s="46">
+      <c r="H117" s="3">
         <v>3.0</v>
       </c>
       <c r="I117" s="23">
         <f>I113+J117</f>
         <v>13</v>
       </c>
-      <c r="J117" s="46">
+      <c r="J117" s="3">
         <v>0.0</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L117" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="L117" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M117" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N117" s="47"/>
+        <v>82</v>
+      </c>
+      <c r="N117" s="4"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
-      <c r="A118" s="45">
+      <c r="A118" s="1">
         <v>43917.0</v>
       </c>
       <c r="B118" s="2">
@@ -9564,35 +9852,35 @@
         <v>14</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G118" s="23">
         <f t="shared" si="2"/>
         <v>697</v>
       </c>
-      <c r="H118" s="46">
+      <c r="H118" s="3">
         <v>4.0</v>
       </c>
       <c r="I118" s="23">
         <f t="shared" ref="I118:I131" si="5">I117+J118</f>
         <v>14</v>
       </c>
-      <c r="J118" s="46">
+      <c r="J118" s="3">
         <v>1.0</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L118" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="L118" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M118" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N118" s="47"/>
+        <v>82</v>
+      </c>
+      <c r="N118" s="4"/>
     </row>
     <row r="119" ht="16.5" customHeight="1">
-      <c r="A119" s="45">
+      <c r="A119" s="1">
         <v>43917.0</v>
       </c>
       <c r="B119" s="2">
@@ -9607,35 +9895,35 @@
         <v>14</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G119" s="23">
         <f t="shared" si="2"/>
         <v>698</v>
       </c>
-      <c r="H119" s="46">
+      <c r="H119" s="3">
         <v>1.0</v>
       </c>
       <c r="I119" s="23">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="J119" s="46">
+      <c r="J119" s="3">
         <v>1.0</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L119" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="L119" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M119" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N119" s="47"/>
+        <v>82</v>
+      </c>
+      <c r="N119" s="4"/>
     </row>
     <row r="120" ht="16.5" customHeight="1">
-      <c r="A120" s="45">
+      <c r="A120" s="1">
         <v>43917.0</v>
       </c>
       <c r="B120" s="2">
@@ -9656,29 +9944,29 @@
         <f t="shared" si="2"/>
         <v>701</v>
       </c>
-      <c r="H120" s="46">
+      <c r="H120" s="3">
         <v>3.0</v>
       </c>
       <c r="I120" s="23">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="J120" s="46">
+      <c r="J120" s="3">
         <v>1.0</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L120" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="L120" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M120" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N120" s="47"/>
+        <v>86</v>
+      </c>
+      <c r="N120" s="4"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
-      <c r="A121" s="45">
+      <c r="A121" s="1">
         <v>43917.0</v>
       </c>
       <c r="B121" s="2">
@@ -9693,35 +9981,35 @@
         <v>14</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G121" s="23">
         <f t="shared" si="2"/>
         <v>703</v>
       </c>
-      <c r="H121" s="46">
+      <c r="H121" s="3">
         <v>2.0</v>
       </c>
       <c r="I121" s="23">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="J121" s="46">
+      <c r="J121" s="3">
         <v>0.0</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L121" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="L121" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M121" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N121" s="47"/>
+        <v>82</v>
+      </c>
+      <c r="N121" s="4"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
-      <c r="A122" s="45">
+      <c r="A122" s="1">
         <v>43917.0</v>
       </c>
       <c r="B122" s="2">
@@ -9736,35 +10024,35 @@
         <v>14</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G122" s="23">
         <f t="shared" si="2"/>
         <v>704</v>
       </c>
-      <c r="H122" s="46">
+      <c r="H122" s="3">
         <v>1.0</v>
       </c>
       <c r="I122" s="23">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="J122" s="46">
+      <c r="J122" s="3">
         <v>0.0</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L122" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="L122" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M122" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N122" s="47"/>
+        <v>82</v>
+      </c>
+      <c r="N122" s="4"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
-      <c r="A123" s="45">
+      <c r="A123" s="1">
         <v>43917.0</v>
       </c>
       <c r="B123" s="2">
@@ -9785,29 +10073,29 @@
         <f t="shared" si="2"/>
         <v>705</v>
       </c>
-      <c r="H123" s="46">
+      <c r="H123" s="3">
         <v>1.0</v>
       </c>
       <c r="I123" s="23">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="J123" s="46">
+      <c r="J123" s="3">
         <v>0.0</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L123" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="L123" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M123" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N123" s="4"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
-      <c r="A124" s="45">
+      <c r="A124" s="1">
         <v>43917.0</v>
       </c>
       <c r="B124" s="2">
@@ -9821,102 +10109,102 @@
       <c r="D124" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E124" s="50" t="s">
-        <v>97</v>
+      <c r="E124" s="39" t="s">
+        <v>88</v>
       </c>
       <c r="G124" s="23">
         <f t="shared" si="2"/>
         <v>689</v>
       </c>
-      <c r="H124" s="40">
+      <c r="H124" s="36">
         <v>-16.0</v>
       </c>
       <c r="I124" s="23">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="J124" s="40">
+      <c r="J124" s="36">
         <v>1.0</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L124" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="L124" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M124" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N124" s="47" t="s">
-        <v>102</v>
+        <v>82</v>
+      </c>
+      <c r="N124" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="125" ht="16.5" customHeight="1">
-      <c r="A125" s="42">
+      <c r="A125" s="29">
         <v>43918.0</v>
       </c>
-      <c r="B125" s="31">
+      <c r="B125" s="30">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C125" s="31">
+      <c r="C125" s="30">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="D125" s="43" t="s">
+      <c r="D125" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E125" s="31" t="s">
+      <c r="E125" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F125" s="32"/>
-      <c r="G125" s="33">
+      <c r="F125" s="31"/>
+      <c r="G125" s="32">
         <f t="shared" si="2"/>
         <v>697</v>
       </c>
-      <c r="H125" s="34">
+      <c r="H125" s="33">
         <v>8.0</v>
       </c>
-      <c r="I125" s="33">
+      <c r="I125" s="32">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="J125" s="34">
+      <c r="J125" s="33">
         <v>1.0</v>
       </c>
-      <c r="K125" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="L125" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="M125" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="N125" s="54"/>
-      <c r="O125" s="32"/>
-      <c r="P125" s="32"/>
-      <c r="Q125" s="32"/>
-      <c r="R125" s="32"/>
-      <c r="S125" s="32"/>
-      <c r="T125" s="32"/>
-      <c r="U125" s="32"/>
-      <c r="V125" s="32"/>
-      <c r="W125" s="32"/>
-      <c r="X125" s="32"/>
-      <c r="Y125" s="32"/>
-      <c r="Z125" s="32"/>
-      <c r="AA125" s="32"/>
-      <c r="AB125" s="32"/>
-      <c r="AC125" s="32"/>
-      <c r="AD125" s="32"/>
-      <c r="AE125" s="32"/>
-      <c r="AF125" s="32"/>
-      <c r="AG125" s="32"/>
-      <c r="AH125" s="32"/>
+      <c r="K125" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="L125" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="M125" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="N125" s="40"/>
+      <c r="O125" s="31"/>
+      <c r="P125" s="31"/>
+      <c r="Q125" s="31"/>
+      <c r="R125" s="31"/>
+      <c r="S125" s="31"/>
+      <c r="T125" s="31"/>
+      <c r="U125" s="31"/>
+      <c r="V125" s="31"/>
+      <c r="W125" s="31"/>
+      <c r="X125" s="31"/>
+      <c r="Y125" s="31"/>
+      <c r="Z125" s="31"/>
+      <c r="AA125" s="31"/>
+      <c r="AB125" s="31"/>
+      <c r="AC125" s="31"/>
+      <c r="AD125" s="31"/>
+      <c r="AE125" s="31"/>
+      <c r="AF125" s="31"/>
+      <c r="AG125" s="31"/>
+      <c r="AH125" s="31"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
-      <c r="A126" s="45">
+      <c r="A126" s="1">
         <v>43918.0</v>
       </c>
       <c r="B126" s="2">
@@ -9937,29 +10225,29 @@
         <f t="shared" si="2"/>
         <v>715</v>
       </c>
-      <c r="H126" s="46">
+      <c r="H126" s="3">
         <v>18.0</v>
       </c>
       <c r="I126" s="23">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="J126" s="46">
+      <c r="J126" s="3">
         <v>1.0</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L126" s="47" t="s">
-        <v>103</v>
+        <v>57</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M126" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N126" s="55"/>
+        <v>91</v>
+      </c>
+      <c r="N126" s="6"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
-      <c r="A127" s="45">
+      <c r="A127" s="1">
         <v>43918.0</v>
       </c>
       <c r="B127" s="2">
@@ -9977,35 +10265,35 @@
         <v>45</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G127" s="23">
         <f t="shared" si="2"/>
         <v>719</v>
       </c>
-      <c r="H127" s="46">
+      <c r="H127" s="3">
         <v>4.0</v>
       </c>
       <c r="I127" s="23">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="J127" s="46">
+      <c r="J127" s="3">
         <v>0.0</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L127" s="47" t="s">
-        <v>103</v>
+        <v>57</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M127" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N127" s="55"/>
+        <v>91</v>
+      </c>
+      <c r="N127" s="6"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
-      <c r="A128" s="45">
+      <c r="A128" s="1">
         <v>43918.0</v>
       </c>
       <c r="B128" s="2">
@@ -10016,7 +10304,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="D128" s="53" t="s">
+      <c r="D128" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E128" s="2" t="s">
@@ -10029,29 +10317,29 @@
         <f t="shared" si="2"/>
         <v>723</v>
       </c>
-      <c r="H128" s="46">
+      <c r="H128" s="3">
         <v>4.0</v>
       </c>
       <c r="I128" s="23">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="J128" s="46">
+      <c r="J128" s="3">
         <v>0.0</v>
       </c>
-      <c r="K128" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L128" s="47" t="s">
-        <v>103</v>
+      <c r="K128" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L128" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M128" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N128" s="55"/>
+        <v>91</v>
+      </c>
+      <c r="N128" s="6"/>
     </row>
     <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="45">
+      <c r="A129" s="1">
         <v>43918.0</v>
       </c>
       <c r="B129" s="2">
@@ -10062,42 +10350,42 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="D129" s="53" t="s">
+      <c r="D129" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G129" s="23">
         <f t="shared" si="2"/>
         <v>726</v>
       </c>
-      <c r="H129" s="46">
+      <c r="H129" s="3">
         <v>3.0</v>
       </c>
       <c r="I129" s="23">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="J129" s="46">
+      <c r="J129" s="3">
         <v>0.0</v>
       </c>
-      <c r="K129" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L129" s="47" t="s">
-        <v>103</v>
+      <c r="K129" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M129" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N129" s="55"/>
+        <v>91</v>
+      </c>
+      <c r="N129" s="6"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
-      <c r="A130" s="45">
+      <c r="A130" s="1">
         <v>43918.0</v>
       </c>
       <c r="B130" s="2">
@@ -10108,42 +10396,42 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="D130" s="53" t="s">
+      <c r="D130" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G130" s="23">
         <f t="shared" si="2"/>
         <v>727</v>
       </c>
-      <c r="H130" s="46">
+      <c r="H130" s="3">
         <v>1.0</v>
       </c>
       <c r="I130" s="23">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="J130" s="46">
+      <c r="J130" s="3">
         <v>0.0</v>
       </c>
-      <c r="K130" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L130" s="47" t="s">
-        <v>103</v>
+      <c r="K130" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L130" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M130" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N130" s="55"/>
+        <v>91</v>
+      </c>
+      <c r="N130" s="6"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="45">
+      <c r="A131" s="1">
         <v>43918.0</v>
       </c>
       <c r="B131" s="2">
@@ -10154,42 +10442,42 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="D131" s="53" t="s">
+      <c r="D131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F131" s="53" t="s">
-        <v>107</v>
+      <c r="F131" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="G131" s="23">
         <f t="shared" si="2"/>
         <v>728</v>
       </c>
-      <c r="H131" s="46">
+      <c r="H131" s="3">
         <v>1.0</v>
       </c>
       <c r="I131" s="23">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="J131" s="46">
+      <c r="J131" s="3">
         <v>0.0</v>
       </c>
-      <c r="K131" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L131" s="47" t="s">
-        <v>103</v>
+      <c r="K131" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M131" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N131" s="55"/>
+        <v>91</v>
+      </c>
+      <c r="N131" s="6"/>
     </row>
     <row r="132" ht="16.5" customHeight="1">
-      <c r="A132" s="45">
+      <c r="A132" s="1">
         <v>43918.0</v>
       </c>
       <c r="B132" s="2">
@@ -10210,29 +10498,29 @@
         <f t="shared" si="2"/>
         <v>733</v>
       </c>
-      <c r="H132" s="46">
+      <c r="H132" s="3">
         <v>5.0</v>
       </c>
       <c r="I132" s="23">
         <f>I127+J132</f>
         <v>19</v>
       </c>
-      <c r="J132" s="46">
+      <c r="J132" s="3">
         <v>0.0</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L132" s="47" t="s">
-        <v>103</v>
+        <v>57</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M132" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N132" s="55"/>
+        <v>91</v>
+      </c>
+      <c r="N132" s="6"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
-      <c r="A133" s="45">
+      <c r="A133" s="1">
         <v>43918.0</v>
       </c>
       <c r="B133" s="2">
@@ -10253,31 +10541,31 @@
         <f t="shared" si="2"/>
         <v>734</v>
       </c>
-      <c r="H133" s="46">
+      <c r="H133" s="3">
         <v>1.0</v>
       </c>
       <c r="I133" s="23">
         <f t="shared" ref="I133:I136" si="6">I132+J133</f>
         <v>19</v>
       </c>
-      <c r="J133" s="46">
+      <c r="J133" s="3">
         <v>0.0</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L133" s="47" t="s">
-        <v>103</v>
+        <v>57</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M133" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N133" s="41" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+      <c r="N133" s="37" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="134" ht="16.5" customHeight="1">
-      <c r="A134" s="45">
+      <c r="A134" s="1">
         <v>43918.0</v>
       </c>
       <c r="B134" s="2">
@@ -10292,35 +10580,35 @@
         <v>14</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G134" s="23">
         <f t="shared" si="2"/>
         <v>738</v>
       </c>
-      <c r="H134" s="46">
+      <c r="H134" s="3">
         <v>4.0</v>
       </c>
       <c r="I134" s="23">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="J134" s="46">
+      <c r="J134" s="3">
         <v>0.0</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L134" s="47" t="s">
-        <v>103</v>
+        <v>57</v>
+      </c>
+      <c r="L134" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M134" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N134" s="55"/>
+        <v>91</v>
+      </c>
+      <c r="N134" s="6"/>
     </row>
     <row r="135" ht="16.5" customHeight="1">
-      <c r="A135" s="45">
+      <c r="A135" s="1">
         <v>43918.0</v>
       </c>
       <c r="B135" s="2">
@@ -10335,38 +10623,38 @@
         <v>14</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G135" s="23">
         <f t="shared" si="2"/>
         <v>739</v>
       </c>
-      <c r="H135" s="46">
+      <c r="H135" s="3">
         <v>1.0</v>
       </c>
       <c r="I135" s="23">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="J135" s="46">
+      <c r="J135" s="3">
         <v>0.0</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L135" s="47" t="s">
-        <v>103</v>
+        <v>57</v>
+      </c>
+      <c r="L135" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M135" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N135" s="55"/>
+        <v>91</v>
+      </c>
+      <c r="N135" s="6"/>
     </row>
     <row r="136" ht="16.5" customHeight="1">
-      <c r="A136" s="45">
+      <c r="A136" s="1">
         <v>43918.0</v>
       </c>
       <c r="B136" s="2">
@@ -10377,42 +10665,42 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="D136" s="53" t="s">
+      <c r="D136" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G136" s="23">
         <f t="shared" si="2"/>
         <v>740</v>
       </c>
-      <c r="H136" s="46">
+      <c r="H136" s="3">
         <v>1.0</v>
       </c>
       <c r="I136" s="23">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="J136" s="46">
+      <c r="J136" s="3">
         <v>0.0</v>
       </c>
-      <c r="K136" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L136" s="47" t="s">
-        <v>103</v>
+      <c r="K136" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L136" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M136" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N136" s="55"/>
+        <v>91</v>
+      </c>
+      <c r="N136" s="6"/>
     </row>
     <row r="137" ht="16.5" customHeight="1">
-      <c r="A137" s="45">
+      <c r="A137" s="1">
         <v>43918.0</v>
       </c>
       <c r="B137" s="2">
@@ -10427,35 +10715,35 @@
         <v>14</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G137" s="23">
         <f t="shared" si="2"/>
         <v>741</v>
       </c>
-      <c r="H137" s="46">
+      <c r="H137" s="3">
         <v>1.0</v>
       </c>
       <c r="I137" s="23">
         <f>I135+J137</f>
         <v>19</v>
       </c>
-      <c r="J137" s="46">
+      <c r="J137" s="3">
         <v>0.0</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L137" s="47" t="s">
-        <v>103</v>
+        <v>57</v>
+      </c>
+      <c r="L137" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M137" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N137" s="55"/>
+        <v>91</v>
+      </c>
+      <c r="N137" s="6"/>
     </row>
     <row r="138" ht="16.5" customHeight="1">
-      <c r="A138" s="45">
+      <c r="A138" s="1">
         <v>43918.0</v>
       </c>
       <c r="B138" s="2">
@@ -10466,106 +10754,106 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="D138" s="53" t="s">
+      <c r="D138" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F138" s="53" t="s">
-        <v>108</v>
+        <v>47</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="G138" s="23">
         <f t="shared" si="2"/>
         <v>745</v>
       </c>
-      <c r="H138" s="46">
+      <c r="H138" s="3">
         <v>4.0</v>
       </c>
       <c r="I138" s="23">
-        <f t="shared" ref="I138:I154" si="7">I137+J138</f>
+        <f t="shared" ref="I138:I163" si="7">I137+J138</f>
         <v>19</v>
       </c>
-      <c r="J138" s="46">
+      <c r="J138" s="3">
         <v>0.0</v>
       </c>
-      <c r="K138" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="L138" s="47" t="s">
-        <v>103</v>
+      <c r="K138" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="L138" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M138" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N138" s="55"/>
+        <v>91</v>
+      </c>
+      <c r="N138" s="6"/>
     </row>
     <row r="139" ht="16.5" customHeight="1">
-      <c r="A139" s="42">
+      <c r="A139" s="29">
         <v>43919.0</v>
       </c>
-      <c r="B139" s="31">
+      <c r="B139" s="30">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C139" s="31">
+      <c r="C139" s="30">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="D139" s="43" t="s">
+      <c r="D139" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E139" s="31" t="s">
+      <c r="E139" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F139" s="32"/>
-      <c r="G139" s="33">
+      <c r="F139" s="31"/>
+      <c r="G139" s="32">
         <f t="shared" si="2"/>
         <v>761</v>
       </c>
-      <c r="H139" s="34">
+      <c r="H139" s="33">
         <v>16.0</v>
       </c>
-      <c r="I139" s="33">
+      <c r="I139" s="32">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="J139" s="34">
+      <c r="J139" s="33">
         <v>0.0</v>
       </c>
-      <c r="K139" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L139" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="M139" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="N139" s="54"/>
-      <c r="O139" s="32"/>
-      <c r="P139" s="32"/>
-      <c r="Q139" s="32"/>
-      <c r="R139" s="32"/>
-      <c r="S139" s="32"/>
-      <c r="T139" s="32"/>
-      <c r="U139" s="32"/>
-      <c r="V139" s="32"/>
-      <c r="W139" s="32"/>
-      <c r="X139" s="32"/>
-      <c r="Y139" s="32"/>
-      <c r="Z139" s="32"/>
-      <c r="AA139" s="32"/>
-      <c r="AB139" s="32"/>
-      <c r="AC139" s="32"/>
-      <c r="AD139" s="32"/>
-      <c r="AE139" s="32"/>
-      <c r="AF139" s="32"/>
-      <c r="AG139" s="32"/>
-      <c r="AH139" s="32"/>
+      <c r="K139" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L139" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="M139" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="N139" s="40"/>
+      <c r="O139" s="31"/>
+      <c r="P139" s="31"/>
+      <c r="Q139" s="31"/>
+      <c r="R139" s="31"/>
+      <c r="S139" s="31"/>
+      <c r="T139" s="31"/>
+      <c r="U139" s="31"/>
+      <c r="V139" s="31"/>
+      <c r="W139" s="31"/>
+      <c r="X139" s="31"/>
+      <c r="Y139" s="31"/>
+      <c r="Z139" s="31"/>
+      <c r="AA139" s="31"/>
+      <c r="AB139" s="31"/>
+      <c r="AC139" s="31"/>
+      <c r="AD139" s="31"/>
+      <c r="AE139" s="31"/>
+      <c r="AF139" s="31"/>
+      <c r="AG139" s="31"/>
+      <c r="AH139" s="31"/>
     </row>
     <row r="140" ht="16.5" customHeight="1">
-      <c r="A140" s="45">
+      <c r="A140" s="1">
         <v>43919.0</v>
       </c>
       <c r="B140" s="2">
@@ -10576,7 +10864,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="D140" s="53" t="s">
+      <c r="D140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E140" s="2" t="s">
@@ -10586,29 +10874,29 @@
         <f t="shared" si="2"/>
         <v>774</v>
       </c>
-      <c r="H140" s="46">
+      <c r="H140" s="3">
         <v>13.0</v>
       </c>
       <c r="I140" s="23">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="J140" s="46">
+      <c r="J140" s="3">
         <v>0.0</v>
       </c>
-      <c r="K140" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L140" s="47" t="s">
-        <v>103</v>
+      <c r="K140" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L140" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M140" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N140" s="55"/>
+        <v>101</v>
+      </c>
+      <c r="N140" s="6"/>
     </row>
     <row r="141" ht="16.5" customHeight="1">
-      <c r="A141" s="45">
+      <c r="A141" s="1">
         <v>43919.0</v>
       </c>
       <c r="B141" s="2">
@@ -10619,7 +10907,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="D141" s="53" t="s">
+      <c r="D141" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E141" s="2" t="s">
@@ -10629,29 +10917,29 @@
         <f t="shared" si="2"/>
         <v>778</v>
       </c>
-      <c r="H141" s="46">
+      <c r="H141" s="3">
         <v>4.0</v>
       </c>
       <c r="I141" s="23">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="J141" s="46">
+      <c r="J141" s="3">
         <v>0.0</v>
       </c>
-      <c r="K141" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L141" s="47" t="s">
-        <v>103</v>
+      <c r="K141" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L141" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M141" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N141" s="55"/>
+        <v>101</v>
+      </c>
+      <c r="N141" s="6"/>
     </row>
     <row r="142" ht="16.5" customHeight="1">
-      <c r="A142" s="45">
+      <c r="A142" s="1">
         <v>43919.0</v>
       </c>
       <c r="B142" s="2">
@@ -10675,29 +10963,29 @@
         <f t="shared" si="2"/>
         <v>785</v>
       </c>
-      <c r="H142" s="46">
+      <c r="H142" s="3">
         <v>7.0</v>
       </c>
       <c r="I142" s="23">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="J142" s="46">
+      <c r="J142" s="3">
         <v>0.0</v>
       </c>
-      <c r="K142" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L142" s="47" t="s">
-        <v>103</v>
+      <c r="K142" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L142" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M142" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N142" s="55"/>
+        <v>101</v>
+      </c>
+      <c r="N142" s="6"/>
     </row>
     <row r="143" ht="16.5" customHeight="1">
-      <c r="A143" s="45">
+      <c r="A143" s="1">
         <v>43919.0</v>
       </c>
       <c r="B143" s="2">
@@ -10708,42 +10996,42 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="D143" s="53" t="s">
+      <c r="D143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G143" s="23">
         <f t="shared" si="2"/>
         <v>788</v>
       </c>
-      <c r="H143" s="46">
+      <c r="H143" s="3">
         <v>3.0</v>
       </c>
       <c r="I143" s="23">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="J143" s="46">
+      <c r="J143" s="3">
         <v>0.0</v>
       </c>
-      <c r="K143" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L143" s="47" t="s">
-        <v>103</v>
+      <c r="K143" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L143" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M143" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N143" s="55"/>
+        <v>101</v>
+      </c>
+      <c r="N143" s="6"/>
     </row>
     <row r="144" ht="16.5" customHeight="1">
-      <c r="A144" s="45">
+      <c r="A144" s="1">
         <v>43919.0</v>
       </c>
       <c r="B144" s="2">
@@ -10754,42 +11042,42 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="D144" s="53" t="s">
+      <c r="D144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G144" s="23">
         <f t="shared" si="2"/>
         <v>790</v>
       </c>
-      <c r="H144" s="46">
+      <c r="H144" s="3">
         <v>2.0</v>
       </c>
       <c r="I144" s="23">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="J144" s="46">
+      <c r="J144" s="3">
         <v>0.0</v>
       </c>
-      <c r="K144" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L144" s="47" t="s">
-        <v>103</v>
+      <c r="K144" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L144" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M144" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N144" s="55"/>
+        <v>101</v>
+      </c>
+      <c r="N144" s="6"/>
     </row>
     <row r="145" ht="16.5" customHeight="1">
-      <c r="A145" s="45">
+      <c r="A145" s="1">
         <v>43919.0</v>
       </c>
       <c r="B145" s="2">
@@ -10800,7 +11088,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="D145" s="53" t="s">
+      <c r="D145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E145" s="2" t="s">
@@ -10813,29 +11101,29 @@
         <f t="shared" si="2"/>
         <v>791</v>
       </c>
-      <c r="H145" s="46">
+      <c r="H145" s="3">
         <v>1.0</v>
       </c>
       <c r="I145" s="23">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="J145" s="46">
+      <c r="J145" s="3">
         <v>0.0</v>
       </c>
-      <c r="K145" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L145" s="47" t="s">
-        <v>103</v>
+      <c r="K145" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L145" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M145" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N145" s="55"/>
+        <v>101</v>
+      </c>
+      <c r="N145" s="6"/>
     </row>
     <row r="146" ht="16.5" customHeight="1">
-      <c r="A146" s="45">
+      <c r="A146" s="1">
         <v>43919.0</v>
       </c>
       <c r="B146" s="2">
@@ -10856,29 +11144,29 @@
         <f t="shared" si="2"/>
         <v>809</v>
       </c>
-      <c r="H146" s="46">
+      <c r="H146" s="3">
         <v>18.0</v>
       </c>
       <c r="I146" s="23">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="J146" s="46">
+      <c r="J146" s="3">
         <v>0.0</v>
       </c>
-      <c r="K146" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L146" s="47" t="s">
-        <v>103</v>
+      <c r="K146" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L146" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M146" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N146" s="55"/>
+        <v>101</v>
+      </c>
+      <c r="N146" s="6"/>
     </row>
     <row r="147" ht="16.5" customHeight="1">
-      <c r="A147" s="45">
+      <c r="A147" s="1">
         <v>43919.0</v>
       </c>
       <c r="B147" s="2">
@@ -10893,35 +11181,35 @@
         <v>14</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G147" s="23">
         <f t="shared" si="2"/>
         <v>813</v>
       </c>
-      <c r="H147" s="46">
+      <c r="H147" s="3">
         <v>4.0</v>
       </c>
       <c r="I147" s="23">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="J147" s="46">
+      <c r="J147" s="3">
         <v>0.0</v>
       </c>
-      <c r="K147" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L147" s="47" t="s">
-        <v>103</v>
+      <c r="K147" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L147" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M147" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N147" s="55"/>
+        <v>101</v>
+      </c>
+      <c r="N147" s="6"/>
     </row>
     <row r="148" ht="16.5" customHeight="1">
-      <c r="A148" s="45">
+      <c r="A148" s="1">
         <v>43919.0</v>
       </c>
       <c r="B148" s="2">
@@ -10936,35 +11224,35 @@
         <v>14</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G148" s="23">
         <f t="shared" si="2"/>
         <v>814</v>
       </c>
-      <c r="H148" s="46">
+      <c r="H148" s="3">
         <v>1.0</v>
       </c>
       <c r="I148" s="23">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="J148" s="46">
+      <c r="J148" s="3">
         <v>0.0</v>
       </c>
-      <c r="K148" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L148" s="47" t="s">
-        <v>103</v>
+      <c r="K148" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L148" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M148" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N148" s="55"/>
+        <v>101</v>
+      </c>
+      <c r="N148" s="6"/>
     </row>
     <row r="149" ht="16.5" customHeight="1">
-      <c r="A149" s="45">
+      <c r="A149" s="1">
         <v>43919.0</v>
       </c>
       <c r="B149" s="2">
@@ -10979,35 +11267,35 @@
         <v>14</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G149" s="23">
         <f t="shared" si="2"/>
         <v>815</v>
       </c>
-      <c r="H149" s="46">
+      <c r="H149" s="3">
         <v>1.0</v>
       </c>
       <c r="I149" s="23">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="J149" s="46">
+      <c r="J149" s="3">
         <v>0.0</v>
       </c>
-      <c r="K149" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L149" s="47" t="s">
-        <v>103</v>
+      <c r="K149" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L149" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M149" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N149" s="55"/>
+        <v>101</v>
+      </c>
+      <c r="N149" s="6"/>
     </row>
     <row r="150" ht="16.5" customHeight="1">
-      <c r="A150" s="45">
+      <c r="A150" s="1">
         <v>43919.0</v>
       </c>
       <c r="B150" s="2">
@@ -11022,35 +11310,35 @@
         <v>14</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G150" s="23">
         <f t="shared" si="2"/>
         <v>817</v>
       </c>
-      <c r="H150" s="46">
+      <c r="H150" s="3">
         <v>2.0</v>
       </c>
       <c r="I150" s="23">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="J150" s="46">
+      <c r="J150" s="3">
         <v>0.0</v>
       </c>
-      <c r="K150" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L150" s="47" t="s">
-        <v>103</v>
+      <c r="K150" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L150" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M150" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N150" s="55"/>
+        <v>101</v>
+      </c>
+      <c r="N150" s="6"/>
     </row>
     <row r="151" ht="16.5" customHeight="1">
-      <c r="A151" s="45">
+      <c r="A151" s="1">
         <v>43919.0</v>
       </c>
       <c r="B151" s="2">
@@ -11065,35 +11353,35 @@
         <v>14</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G151" s="23">
         <f t="shared" si="2"/>
         <v>818</v>
       </c>
-      <c r="H151" s="46">
+      <c r="H151" s="3">
         <v>1.0</v>
       </c>
       <c r="I151" s="23">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="J151" s="46">
+      <c r="J151" s="3">
         <v>0.0</v>
       </c>
-      <c r="K151" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L151" s="47" t="s">
-        <v>103</v>
+      <c r="K151" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L151" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M151" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N151" s="55"/>
+        <v>101</v>
+      </c>
+      <c r="N151" s="6"/>
     </row>
     <row r="152" ht="16.5" customHeight="1">
-      <c r="A152" s="45">
+      <c r="A152" s="1">
         <v>43919.0</v>
       </c>
       <c r="B152" s="2">
@@ -11108,35 +11396,35 @@
         <v>14</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G152" s="23">
         <f t="shared" si="2"/>
         <v>819</v>
       </c>
-      <c r="H152" s="46">
+      <c r="H152" s="3">
         <v>1.0</v>
       </c>
       <c r="I152" s="23">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="J152" s="46">
+      <c r="J152" s="3">
         <v>0.0</v>
       </c>
-      <c r="K152" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L152" s="47" t="s">
-        <v>103</v>
+      <c r="K152" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L152" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M152" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N152" s="55"/>
+        <v>101</v>
+      </c>
+      <c r="N152" s="6"/>
     </row>
     <row r="153" ht="16.5" customHeight="1">
-      <c r="A153" s="45">
+      <c r="A153" s="1">
         <v>43919.0</v>
       </c>
       <c r="B153" s="2">
@@ -11157,29 +11445,29 @@
         <f t="shared" si="2"/>
         <v>820</v>
       </c>
-      <c r="H153" s="46">
+      <c r="H153" s="3">
         <v>1.0</v>
       </c>
       <c r="I153" s="23">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="J153" s="46">
+      <c r="J153" s="3">
         <v>0.0</v>
       </c>
-      <c r="K153" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L153" s="47" t="s">
-        <v>103</v>
+      <c r="K153" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="M153" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N153" s="55"/>
+        <v>101</v>
+      </c>
+      <c r="N153" s="6"/>
     </row>
     <row r="154" ht="16.5" customHeight="1">
-      <c r="A154" s="45">
+      <c r="A154" s="1">
         <v>43919.0</v>
       </c>
       <c r="B154" s="2">
@@ -11200,202 +11488,759 @@
         <f t="shared" si="2"/>
         <v>820</v>
       </c>
-      <c r="H154" s="46">
+      <c r="H154" s="3">
         <v>0.0</v>
       </c>
       <c r="I154" s="23">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="J154" s="46">
+      <c r="J154" s="3">
         <v>1.0</v>
       </c>
-      <c r="K154" s="53" t="s">
+      <c r="K154" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L154" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M154" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N154" s="6"/>
+    </row>
+    <row r="155" ht="16.5" customHeight="1">
+      <c r="A155" s="43">
+        <v>43920.0</v>
+      </c>
+      <c r="B155" s="30">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C155" s="30">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D155" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F155" s="31"/>
+      <c r="G155" s="32">
+        <f t="shared" si="2"/>
+        <v>856</v>
+      </c>
+      <c r="H155" s="45">
+        <v>36.0</v>
+      </c>
+      <c r="I155" s="32">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="J155" s="45">
+        <v>2.0</v>
+      </c>
+      <c r="K155" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="L155" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="M155" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="N155" s="47"/>
+      <c r="O155" s="31"/>
+      <c r="P155" s="31"/>
+      <c r="Q155" s="31"/>
+      <c r="R155" s="31"/>
+      <c r="S155" s="31"/>
+      <c r="T155" s="31"/>
+      <c r="U155" s="31"/>
+      <c r="V155" s="31"/>
+      <c r="W155" s="31"/>
+      <c r="X155" s="31"/>
+      <c r="Y155" s="31"/>
+      <c r="Z155" s="31"/>
+      <c r="AA155" s="31"/>
+      <c r="AB155" s="31"/>
+      <c r="AC155" s="31"/>
+      <c r="AD155" s="31"/>
+      <c r="AE155" s="31"/>
+      <c r="AF155" s="31"/>
+      <c r="AG155" s="31"/>
+      <c r="AH155" s="31"/>
+    </row>
+    <row r="156" ht="16.5" customHeight="1">
+      <c r="A156" s="48">
+        <v>43920.0</v>
+      </c>
+      <c r="B156" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C156" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G156" s="23">
+        <f t="shared" si="2"/>
+        <v>890</v>
+      </c>
+      <c r="H156" s="49">
+        <v>34.0</v>
+      </c>
+      <c r="I156" s="23">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="J156" s="49">
+        <v>0.0</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L156" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="M156" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N156" s="51"/>
+    </row>
+    <row r="157" ht="16.5" customHeight="1">
+      <c r="A157" s="48">
+        <v>43920.0</v>
+      </c>
+      <c r="B157" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C157" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G157" s="23">
+        <f t="shared" si="2"/>
+        <v>902</v>
+      </c>
+      <c r="H157" s="49">
+        <v>12.0</v>
+      </c>
+      <c r="I157" s="23">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="J157" s="49">
+        <v>0.0</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L157" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="M157" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N157" s="51"/>
+    </row>
+    <row r="158" ht="16.5" customHeight="1">
+      <c r="A158" s="48">
+        <v>43920.0</v>
+      </c>
+      <c r="B158" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C158" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G158" s="23">
+        <f t="shared" si="2"/>
+        <v>916</v>
+      </c>
+      <c r="H158" s="49">
+        <v>14.0</v>
+      </c>
+      <c r="I158" s="23">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="J158" s="49">
+        <v>0.0</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L158" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="M158" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N158" s="51"/>
+    </row>
+    <row r="159" ht="16.5" customHeight="1">
+      <c r="A159" s="48">
+        <v>43920.0</v>
+      </c>
+      <c r="B159" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C159" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D159" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G159" s="23">
+        <f t="shared" si="2"/>
+        <v>918</v>
+      </c>
+      <c r="H159" s="49">
+        <v>2.0</v>
+      </c>
+      <c r="I159" s="23">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="J159" s="49">
+        <v>0.0</v>
+      </c>
+      <c r="K159" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="L159" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="M159" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N159" s="51"/>
+    </row>
+    <row r="160" ht="16.5" customHeight="1">
+      <c r="A160" s="48">
+        <v>43920.0</v>
+      </c>
+      <c r="B160" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C160" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D160" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G160" s="23">
+        <f t="shared" si="2"/>
+        <v>920</v>
+      </c>
+      <c r="H160" s="49">
+        <v>2.0</v>
+      </c>
+      <c r="I160" s="23">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="J160" s="49">
+        <v>0.0</v>
+      </c>
+      <c r="K160" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="L160" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="M160" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N160" s="51"/>
+    </row>
+    <row r="161" ht="16.5" customHeight="1">
+      <c r="A161" s="48">
+        <v>43920.0</v>
+      </c>
+      <c r="B161" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C161" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D161" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G161" s="23">
+        <f t="shared" si="2"/>
+        <v>921</v>
+      </c>
+      <c r="H161" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="I161" s="23">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="J161" s="49">
+        <v>0.0</v>
+      </c>
+      <c r="K161" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="L161" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="M161" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N161" s="51"/>
+    </row>
+    <row r="162" ht="16.5" customHeight="1">
+      <c r="A162" s="48">
+        <v>43920.0</v>
+      </c>
+      <c r="B162" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C162" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D162" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G162" s="23">
+        <f t="shared" si="2"/>
+        <v>922</v>
+      </c>
+      <c r="H162" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="I162" s="23">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="J162" s="49">
+        <v>0.0</v>
+      </c>
+      <c r="K162" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="L162" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="M162" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N162" s="51"/>
+    </row>
+    <row r="163" ht="16.5" customHeight="1">
+      <c r="A163" s="48">
+        <v>43920.0</v>
+      </c>
+      <c r="B163" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C163" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D163" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G163" s="23">
+        <f t="shared" si="2"/>
+        <v>923</v>
+      </c>
+      <c r="H163" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="I163" s="23">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="J163" s="49">
+        <v>0.0</v>
+      </c>
+      <c r="K163" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="L163" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="M163" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N163" s="51"/>
+    </row>
+    <row r="164" ht="16.5" customHeight="1">
+      <c r="A164" s="48">
+        <v>43920.0</v>
+      </c>
+      <c r="B164" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C164" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G164" s="23">
+        <f t="shared" si="2"/>
+        <v>931</v>
+      </c>
+      <c r="H164" s="49">
+        <v>8.0</v>
+      </c>
+      <c r="I164" s="23">
+        <f>I158+J164</f>
+        <v>22</v>
+      </c>
+      <c r="J164" s="49">
+        <v>0.0</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L164" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="M164" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N164" s="51"/>
+    </row>
+    <row r="165" ht="16.5" customHeight="1">
+      <c r="A165" s="48">
+        <v>43920.0</v>
+      </c>
+      <c r="B165" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C165" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F165" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="G165" s="23">
+        <f t="shared" si="2"/>
+        <v>942</v>
+      </c>
+      <c r="H165" s="49">
+        <v>11.0</v>
+      </c>
+      <c r="I165" s="23">
+        <f t="shared" ref="I165:I170" si="8">I164+J165</f>
+        <v>22</v>
+      </c>
+      <c r="J165" s="49">
+        <v>0.0</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L165" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="M165" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N165" s="51"/>
+    </row>
+    <row r="166" ht="16.5" customHeight="1">
+      <c r="A166" s="48">
+        <v>43920.0</v>
+      </c>
+      <c r="B166" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C166" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G166" s="23">
+        <f t="shared" si="2"/>
+        <v>952</v>
+      </c>
+      <c r="H166" s="49">
+        <v>10.0</v>
+      </c>
+      <c r="I166" s="23">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="J166" s="49">
+        <v>0.0</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L166" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="M166" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N166" s="51"/>
+    </row>
+    <row r="167" ht="16.5" customHeight="1">
+      <c r="A167" s="48">
+        <v>43920.0</v>
+      </c>
+      <c r="B167" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C167" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G167" s="23">
+        <f t="shared" si="2"/>
+        <v>955</v>
+      </c>
+      <c r="H167" s="49">
+        <v>3.0</v>
+      </c>
+      <c r="I167" s="23">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="J167" s="49">
+        <v>0.0</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L167" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="M167" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N167" s="51"/>
+    </row>
+    <row r="168" ht="16.5" customHeight="1">
+      <c r="A168" s="48">
+        <v>43920.0</v>
+      </c>
+      <c r="B168" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C168" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G168" s="23">
+        <f t="shared" si="2"/>
+        <v>958</v>
+      </c>
+      <c r="H168" s="49">
+        <v>3.0</v>
+      </c>
+      <c r="I168" s="23">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="J168" s="49">
+        <v>0.0</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L168" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="M168" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N168" s="51"/>
+    </row>
+    <row r="169" ht="16.5" customHeight="1">
+      <c r="A169" s="48">
+        <v>43920.0</v>
+      </c>
+      <c r="B169" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C169" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L154" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="M154" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N154" s="55"/>
-    </row>
-    <row r="155" ht="16.5" customHeight="1">
-      <c r="A155" s="45"/>
-      <c r="E155" s="25"/>
-      <c r="G155" s="57"/>
-      <c r="H155" s="46"/>
-      <c r="I155" s="57"/>
-      <c r="J155" s="46"/>
-      <c r="L155" s="47"/>
-      <c r="M155" s="47"/>
-      <c r="N155" s="55"/>
-    </row>
-    <row r="156" ht="16.5" customHeight="1">
-      <c r="A156" s="19"/>
-      <c r="E156" s="25"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="21"/>
-      <c r="I156" s="21"/>
-      <c r="J156" s="21"/>
-      <c r="L156" s="6"/>
-      <c r="M156" s="6"/>
-      <c r="N156" s="6"/>
-    </row>
-    <row r="157" ht="16.5" customHeight="1">
-      <c r="A157" s="19"/>
-      <c r="E157" s="25"/>
-      <c r="G157" s="21"/>
-      <c r="H157" s="21"/>
-      <c r="I157" s="21"/>
-      <c r="J157" s="21"/>
-      <c r="L157" s="6"/>
-      <c r="M157" s="6"/>
-      <c r="N157" s="6"/>
-    </row>
-    <row r="158" ht="16.5" customHeight="1">
-      <c r="A158" s="19"/>
-      <c r="E158" s="25"/>
-      <c r="G158" s="21"/>
-      <c r="H158" s="21"/>
-      <c r="I158" s="21"/>
-      <c r="J158" s="21"/>
-      <c r="L158" s="6"/>
-      <c r="M158" s="6"/>
-      <c r="N158" s="6"/>
-    </row>
-    <row r="159" ht="16.5" customHeight="1">
-      <c r="A159" s="19"/>
-      <c r="E159" s="25"/>
-      <c r="G159" s="21"/>
-      <c r="H159" s="21"/>
-      <c r="I159" s="21"/>
-      <c r="J159" s="21"/>
-      <c r="L159" s="6"/>
-      <c r="M159" s="6"/>
-      <c r="N159" s="6"/>
-    </row>
-    <row r="160" ht="16.5" customHeight="1">
-      <c r="A160" s="19"/>
-      <c r="E160" s="25"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="21"/>
-      <c r="I160" s="21"/>
-      <c r="J160" s="21"/>
-      <c r="L160" s="6"/>
-      <c r="M160" s="6"/>
-      <c r="N160" s="6"/>
-    </row>
-    <row r="161" ht="16.5" customHeight="1">
-      <c r="A161" s="19"/>
-      <c r="E161" s="25"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="21"/>
-      <c r="I161" s="21"/>
-      <c r="J161" s="21"/>
-      <c r="L161" s="6"/>
-      <c r="M161" s="6"/>
-      <c r="N161" s="6"/>
-    </row>
-    <row r="162" ht="16.5" customHeight="1">
-      <c r="A162" s="19"/>
-      <c r="E162" s="25"/>
-      <c r="G162" s="21"/>
-      <c r="H162" s="21"/>
-      <c r="I162" s="21"/>
-      <c r="J162" s="21"/>
-      <c r="L162" s="6"/>
-      <c r="M162" s="6"/>
-      <c r="N162" s="6"/>
-    </row>
-    <row r="163" ht="16.5" customHeight="1">
-      <c r="A163" s="19"/>
-      <c r="E163" s="25"/>
-      <c r="G163" s="21"/>
-      <c r="H163" s="21"/>
-      <c r="I163" s="21"/>
-      <c r="J163" s="21"/>
-      <c r="L163" s="6"/>
-      <c r="M163" s="6"/>
-      <c r="N163" s="6"/>
-    </row>
-    <row r="164" ht="16.5" customHeight="1">
-      <c r="A164" s="19"/>
-      <c r="E164" s="25"/>
-      <c r="G164" s="21"/>
-      <c r="H164" s="21"/>
-      <c r="I164" s="21"/>
-      <c r="J164" s="21"/>
-      <c r="L164" s="6"/>
-      <c r="M164" s="6"/>
-      <c r="N164" s="6"/>
-    </row>
-    <row r="165" ht="16.5" customHeight="1">
-      <c r="A165" s="19"/>
-      <c r="E165" s="25"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="21"/>
-      <c r="I165" s="21"/>
-      <c r="J165" s="21"/>
-      <c r="L165" s="6"/>
-      <c r="M165" s="6"/>
-      <c r="N165" s="6"/>
-    </row>
-    <row r="166" ht="16.5" customHeight="1">
-      <c r="A166" s="19"/>
-      <c r="E166" s="25"/>
-      <c r="G166" s="21"/>
-      <c r="H166" s="21"/>
-      <c r="I166" s="21"/>
-      <c r="J166" s="21"/>
-      <c r="L166" s="6"/>
-      <c r="M166" s="6"/>
-      <c r="N166" s="6"/>
-    </row>
-    <row r="167" ht="16.5" customHeight="1">
-      <c r="A167" s="19"/>
-      <c r="E167" s="25"/>
-      <c r="G167" s="21"/>
-      <c r="H167" s="21"/>
-      <c r="I167" s="21"/>
-      <c r="J167" s="21"/>
-      <c r="L167" s="6"/>
-      <c r="M167" s="6"/>
-      <c r="N167" s="6"/>
-    </row>
-    <row r="168" ht="16.5" customHeight="1">
-      <c r="A168" s="19"/>
-      <c r="E168" s="25"/>
-      <c r="G168" s="21"/>
-      <c r="H168" s="21"/>
-      <c r="I168" s="21"/>
-      <c r="J168" s="21"/>
-      <c r="L168" s="6"/>
-      <c r="M168" s="6"/>
-      <c r="N168" s="6"/>
-    </row>
-    <row r="169" ht="16.5" customHeight="1">
-      <c r="A169" s="19"/>
-      <c r="E169" s="25"/>
-      <c r="G169" s="21"/>
-      <c r="H169" s="21"/>
-      <c r="I169" s="21"/>
-      <c r="J169" s="21"/>
-      <c r="L169" s="6"/>
-      <c r="M169" s="6"/>
-      <c r="N169" s="6"/>
+      <c r="F169" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G169" s="23">
+        <f t="shared" si="2"/>
+        <v>966</v>
+      </c>
+      <c r="H169" s="49">
+        <v>8.0</v>
+      </c>
+      <c r="I169" s="23">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="J169" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L169" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="M169" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N169" s="51"/>
     </row>
     <row r="170" ht="16.5" customHeight="1">
-      <c r="A170" s="19"/>
-      <c r="E170" s="25"/>
-      <c r="G170" s="21"/>
-      <c r="H170" s="21"/>
-      <c r="I170" s="21"/>
-      <c r="J170" s="21"/>
-      <c r="L170" s="6"/>
-      <c r="M170" s="6"/>
-      <c r="N170" s="6"/>
+      <c r="A170" s="48">
+        <v>43920.0</v>
+      </c>
+      <c r="B170" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C170" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G170" s="23">
+        <f t="shared" si="2"/>
+        <v>966</v>
+      </c>
+      <c r="H170" s="49">
+        <v>0.0</v>
+      </c>
+      <c r="I170" s="23">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="J170" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L170" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="M170" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N170" s="51"/>
     </row>
     <row r="171" ht="16.5" customHeight="1">
       <c r="A171" s="19"/>
@@ -20606,6 +21451,7 @@
     </row>
     <row r="1008" ht="16.5" customHeight="1">
       <c r="A1008" s="19"/>
+      <c r="E1008" s="25"/>
       <c r="G1008" s="21"/>
       <c r="H1008" s="21"/>
       <c r="I1008" s="21"/>
@@ -20616,6 +21462,7 @@
     </row>
     <row r="1009" ht="16.5" customHeight="1">
       <c r="A1009" s="19"/>
+      <c r="E1009" s="25"/>
       <c r="G1009" s="21"/>
       <c r="H1009" s="21"/>
       <c r="I1009" s="21"/>
@@ -20626,6 +21473,7 @@
     </row>
     <row r="1010" ht="16.5" customHeight="1">
       <c r="A1010" s="19"/>
+      <c r="E1010" s="25"/>
       <c r="G1010" s="21"/>
       <c r="H1010" s="21"/>
       <c r="I1010" s="21"/>
@@ -20636,6 +21484,7 @@
     </row>
     <row r="1011" ht="16.5" customHeight="1">
       <c r="A1011" s="19"/>
+      <c r="E1011" s="25"/>
       <c r="G1011" s="21"/>
       <c r="H1011" s="21"/>
       <c r="I1011" s="21"/>
@@ -21134,12 +21983,52 @@
       <c r="M1060" s="6"/>
       <c r="N1060" s="6"/>
     </row>
+    <row r="1061" ht="16.5" customHeight="1">
+      <c r="A1061" s="19"/>
+      <c r="G1061" s="21"/>
+      <c r="H1061" s="21"/>
+      <c r="I1061" s="21"/>
+      <c r="J1061" s="21"/>
+      <c r="L1061" s="6"/>
+      <c r="M1061" s="6"/>
+      <c r="N1061" s="6"/>
+    </row>
+    <row r="1062" ht="16.5" customHeight="1">
+      <c r="A1062" s="19"/>
+      <c r="G1062" s="21"/>
+      <c r="H1062" s="21"/>
+      <c r="I1062" s="21"/>
+      <c r="J1062" s="21"/>
+      <c r="L1062" s="6"/>
+      <c r="M1062" s="6"/>
+      <c r="N1062" s="6"/>
+    </row>
+    <row r="1063" ht="16.5" customHeight="1">
+      <c r="A1063" s="19"/>
+      <c r="G1063" s="21"/>
+      <c r="H1063" s="21"/>
+      <c r="I1063" s="21"/>
+      <c r="J1063" s="21"/>
+      <c r="L1063" s="6"/>
+      <c r="M1063" s="6"/>
+      <c r="N1063" s="6"/>
+    </row>
+    <row r="1064" ht="16.5" customHeight="1">
+      <c r="A1064" s="19"/>
+      <c r="G1064" s="21"/>
+      <c r="H1064" s="21"/>
+      <c r="I1064" s="21"/>
+      <c r="J1064" s="21"/>
+      <c r="L1064" s="6"/>
+      <c r="M1064" s="6"/>
+      <c r="N1064" s="6"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E123 E156:E1007">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E123 E171:E1011">
       <formula1>contexto!$B$2:$B$25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E124:E155">
+    <dataValidation type="list" allowBlank="1" sqref="E124:E170">
       <formula1>contexto!$B$2:$B$26</formula1>
     </dataValidation>
   </dataValidations>
@@ -21296,9 +22185,25 @@
     <hyperlink r:id="rId151" ref="M152"/>
     <hyperlink r:id="rId152" ref="M153"/>
     <hyperlink r:id="rId153" ref="M154"/>
+    <hyperlink r:id="rId154" ref="M155"/>
+    <hyperlink r:id="rId155" ref="M156"/>
+    <hyperlink r:id="rId156" ref="M157"/>
+    <hyperlink r:id="rId157" ref="M158"/>
+    <hyperlink r:id="rId158" ref="M159"/>
+    <hyperlink r:id="rId159" ref="M160"/>
+    <hyperlink r:id="rId160" ref="M161"/>
+    <hyperlink r:id="rId161" ref="M162"/>
+    <hyperlink r:id="rId162" ref="M163"/>
+    <hyperlink r:id="rId163" ref="M164"/>
+    <hyperlink r:id="rId164" ref="M165"/>
+    <hyperlink r:id="rId165" ref="M166"/>
+    <hyperlink r:id="rId166" ref="M167"/>
+    <hyperlink r:id="rId167" ref="M168"/>
+    <hyperlink r:id="rId168" ref="M169"/>
+    <hyperlink r:id="rId169" ref="M170"/>
   </hyperlinks>
-  <drawing r:id="rId154"/>
-  <legacyDrawing r:id="rId155"/>
+  <drawing r:id="rId170"/>
+  <legacyDrawing r:id="rId171"/>
 </worksheet>
 </file>
 
@@ -21359,10 +22264,10 @@
   <sheetData>
     <row r="1">
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>concatenate("Duplica cada ",ROUND(H2,1)," días")</f>
@@ -21372,7 +22277,7 @@
         <f>concatenate("Duplica cada ",ROUND(H2,1)*2," días")</f>
         <v>Duplica cada 8 días</v>
       </c>
-      <c r="H1" s="26">
+      <c r="H1" s="41">
         <v>0.25</v>
       </c>
     </row>
@@ -21385,11 +22290,11 @@
       </c>
       <c r="F2" s="25">
         <f t="shared" ref="F2:F52" si="2">(1+$H$1)^A2</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="G2" s="25">
         <f t="shared" ref="G2:G34" si="3">(1+$H$1/2)^A2</f>
-        <v>1.125</v>
+        <v>1</v>
       </c>
       <c r="H2" s="25">
         <f>1/H1</f>
@@ -21407,17 +22312,17 @@
       </c>
       <c r="F3" s="25">
         <f t="shared" si="2"/>
-        <v>1.5625</v>
+        <v>1.25</v>
       </c>
       <c r="G3" s="25">
         <f t="shared" si="3"/>
-        <v>1.265625</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="4">
       <c r="D4" s="21">
         <f t="shared" ref="D4:E4" si="4">D3+B4</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="21">
         <f t="shared" si="4"/>
@@ -21425,17 +22330,17 @@
       </c>
       <c r="F4" s="25">
         <f t="shared" si="2"/>
-        <v>1.953125</v>
+        <v>1.5625</v>
       </c>
       <c r="G4" s="25">
         <f t="shared" si="3"/>
-        <v>1.423828125</v>
+        <v>1.265625</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" s="21">
         <f t="shared" ref="D5:E5" si="5">D4+B5</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E5" s="21">
         <f t="shared" si="5"/>
@@ -21443,35 +22348,35 @@
       </c>
       <c r="F5" s="25">
         <f t="shared" si="2"/>
-        <v>2.44140625</v>
+        <v>1.953125</v>
       </c>
       <c r="G5" s="25">
         <f t="shared" si="3"/>
-        <v>1.601806641</v>
+        <v>1.423828125</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="21">
         <f t="shared" ref="D6:E6" si="6">D5+B6</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" s="21">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="25">
         <f t="shared" si="2"/>
-        <v>3.051757813</v>
+        <v>2.44140625</v>
       </c>
       <c r="G6" s="25">
         <f t="shared" si="3"/>
-        <v>1.802032471</v>
+        <v>1.601806641</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="21">
         <f t="shared" ref="D7:E7" si="7">D6+B7</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="21">
         <f t="shared" si="7"/>
@@ -21479,17 +22384,17 @@
       </c>
       <c r="F7" s="25">
         <f t="shared" si="2"/>
-        <v>3.814697266</v>
+        <v>3.051757813</v>
       </c>
       <c r="G7" s="25">
         <f t="shared" si="3"/>
-        <v>2.02728653</v>
+        <v>1.802032471</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="21">
         <f t="shared" ref="D8:E8" si="8">D7+B8</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="21">
         <f t="shared" si="8"/>
@@ -21497,17 +22402,17 @@
       </c>
       <c r="F8" s="25">
         <f t="shared" si="2"/>
-        <v>4.768371582</v>
+        <v>3.814697266</v>
       </c>
       <c r="G8" s="25">
         <f t="shared" si="3"/>
-        <v>2.280697346</v>
+        <v>2.02728653</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="21">
         <f t="shared" ref="D9:E9" si="9">D8+B9</f>
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E9" s="21">
         <f t="shared" si="9"/>
@@ -21515,35 +22420,35 @@
       </c>
       <c r="F9" s="25">
         <f t="shared" si="2"/>
-        <v>5.960464478</v>
+        <v>4.768371582</v>
       </c>
       <c r="G9" s="25">
         <f t="shared" si="3"/>
-        <v>2.565784514</v>
+        <v>2.280697346</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="21">
         <f t="shared" ref="D10:E10" si="10">D9+B10</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="21">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="25">
         <f t="shared" si="2"/>
-        <v>7.450580597</v>
+        <v>5.960464478</v>
       </c>
       <c r="G10" s="25">
         <f t="shared" si="3"/>
-        <v>2.886507578</v>
+        <v>2.565784514</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" s="21">
         <f t="shared" ref="D11:E11" si="11">D10+B11</f>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E11" s="21">
         <f t="shared" si="11"/>
@@ -21551,17 +22456,17 @@
       </c>
       <c r="F11" s="25">
         <f t="shared" si="2"/>
-        <v>9.313225746</v>
+        <v>7.450580597</v>
       </c>
       <c r="G11" s="25">
         <f t="shared" si="3"/>
-        <v>3.247321025</v>
+        <v>2.886507578</v>
       </c>
     </row>
     <row r="12">
       <c r="D12" s="21">
         <f t="shared" ref="D12:E12" si="12">D11+B12</f>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E12" s="21">
         <f t="shared" si="12"/>
@@ -21569,17 +22474,17 @@
       </c>
       <c r="F12" s="25">
         <f t="shared" si="2"/>
-        <v>11.64153218</v>
+        <v>9.313225746</v>
       </c>
       <c r="G12" s="25">
         <f t="shared" si="3"/>
-        <v>3.653236154</v>
+        <v>3.247321025</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" s="21">
         <f t="shared" ref="D13:E13" si="13">D12+B13</f>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E13" s="21">
         <f t="shared" si="13"/>
@@ -21587,17 +22492,17 @@
       </c>
       <c r="F13" s="25">
         <f t="shared" si="2"/>
-        <v>14.55191523</v>
+        <v>11.64153218</v>
       </c>
       <c r="G13" s="25">
         <f t="shared" si="3"/>
-        <v>4.109890673</v>
+        <v>3.653236154</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" s="21">
         <f t="shared" ref="D14:E14" si="14">D13+B14</f>
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E14" s="21">
         <f t="shared" si="14"/>
@@ -21605,17 +22510,17 @@
       </c>
       <c r="F14" s="25">
         <f t="shared" si="2"/>
-        <v>18.18989404</v>
+        <v>14.55191523</v>
       </c>
       <c r="G14" s="25">
         <f t="shared" si="3"/>
-        <v>4.623627007</v>
+        <v>4.109890673</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" s="21">
         <f t="shared" ref="D15:E15" si="15">D14+B15</f>
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E15" s="21">
         <f t="shared" si="15"/>
@@ -21623,35 +22528,35 @@
       </c>
       <c r="F15" s="25">
         <f t="shared" si="2"/>
-        <v>22.73736754</v>
+        <v>18.18989404</v>
       </c>
       <c r="G15" s="25">
         <f t="shared" si="3"/>
-        <v>5.201580383</v>
+        <v>4.623627007</v>
       </c>
     </row>
     <row r="16">
       <c r="D16" s="21">
         <f t="shared" ref="D16:E16" si="16">D15+B16</f>
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="E16" s="21">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="25">
         <f t="shared" si="2"/>
-        <v>28.42170943</v>
+        <v>22.73736754</v>
       </c>
       <c r="G16" s="25">
         <f t="shared" si="3"/>
-        <v>5.851777931</v>
+        <v>5.201580383</v>
       </c>
     </row>
     <row r="17">
       <c r="D17" s="21">
         <f t="shared" ref="D17:E17" si="17">D16+B17</f>
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="E17" s="21">
         <f t="shared" si="17"/>
@@ -21659,35 +22564,35 @@
       </c>
       <c r="F17" s="25">
         <f t="shared" si="2"/>
-        <v>35.52713679</v>
+        <v>28.42170943</v>
       </c>
       <c r="G17" s="25">
         <f t="shared" si="3"/>
-        <v>6.583250172</v>
+        <v>5.851777931</v>
       </c>
     </row>
     <row r="18">
       <c r="D18" s="21">
         <f t="shared" ref="D18:E18" si="18">D17+B18</f>
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="E18" s="21">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" s="25">
         <f t="shared" si="2"/>
-        <v>44.40892099</v>
+        <v>35.52713679</v>
       </c>
       <c r="G18" s="25">
         <f t="shared" si="3"/>
-        <v>7.406156444</v>
+        <v>6.583250172</v>
       </c>
     </row>
     <row r="19">
       <c r="D19" s="21">
         <f t="shared" ref="D19:E19" si="19">D18+B19</f>
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="E19" s="21">
         <f t="shared" si="19"/>
@@ -21695,17 +22600,17 @@
       </c>
       <c r="F19" s="25">
         <f t="shared" si="2"/>
-        <v>55.51115123</v>
+        <v>44.40892099</v>
       </c>
       <c r="G19" s="25">
         <f t="shared" si="3"/>
-        <v>8.331925999</v>
+        <v>7.406156444</v>
       </c>
     </row>
     <row r="20">
       <c r="D20" s="21">
         <f t="shared" ref="D20:E20" si="20">D19+B20</f>
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="E20" s="21">
         <f t="shared" si="20"/>
@@ -21713,323 +22618,287 @@
       </c>
       <c r="F20" s="25">
         <f t="shared" si="2"/>
-        <v>69.38893904</v>
+        <v>55.51115123</v>
       </c>
       <c r="G20" s="25">
         <f t="shared" si="3"/>
-        <v>9.373416749</v>
+        <v>8.331925999</v>
       </c>
     </row>
     <row r="21">
       <c r="D21" s="21">
         <f t="shared" ref="D21:E21" si="21">D20+B21</f>
-        <v>385</v>
+        <v>302</v>
       </c>
       <c r="E21" s="21">
         <f t="shared" si="21"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" s="25">
         <f t="shared" si="2"/>
-        <v>86.7361738</v>
+        <v>69.38893904</v>
       </c>
       <c r="G21" s="25">
         <f t="shared" si="3"/>
-        <v>10.54509384</v>
+        <v>9.373416749</v>
       </c>
     </row>
     <row r="22">
       <c r="D22" s="21">
         <f t="shared" ref="D22:E22" si="22">D21+B22</f>
-        <v>502</v>
+        <v>386</v>
       </c>
       <c r="E22" s="21">
         <f t="shared" si="22"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" s="25">
         <f t="shared" si="2"/>
-        <v>108.4202172</v>
+        <v>86.7361738</v>
       </c>
       <c r="G22" s="25">
         <f t="shared" si="3"/>
-        <v>11.86323057</v>
+        <v>10.54509384</v>
       </c>
     </row>
     <row r="23">
       <c r="D23" s="21">
         <f t="shared" ref="D23:E23" si="23">D22+B23</f>
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="E23" s="21">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" s="25">
         <f t="shared" si="2"/>
-        <v>135.5252716</v>
+        <v>108.4202172</v>
       </c>
       <c r="G23" s="25">
         <f t="shared" si="3"/>
-        <v>13.34613439</v>
+        <v>11.86323057</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
-        <v>23.0</v>
-      </c>
       <c r="D24" s="21">
         <f t="shared" ref="D24:E24" si="24">D23+B24</f>
-        <v>532</v>
+        <v>589</v>
       </c>
       <c r="E24" s="21">
         <f t="shared" si="24"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F24" s="25">
         <f t="shared" si="2"/>
-        <v>169.4065895</v>
+        <v>135.5252716</v>
       </c>
       <c r="G24" s="25">
         <f t="shared" si="3"/>
-        <v>15.01440119</v>
+        <v>13.34613439</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
-        <v>24.0</v>
-      </c>
       <c r="D25" s="21">
         <f t="shared" ref="D25:E25" si="25">D24+B25</f>
-        <v>532</v>
+        <v>690</v>
       </c>
       <c r="E25" s="21">
         <f t="shared" si="25"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F25" s="25">
         <f t="shared" si="2"/>
-        <v>211.7582368</v>
+        <v>169.4065895</v>
       </c>
       <c r="G25" s="25">
         <f t="shared" si="3"/>
-        <v>16.89120134</v>
+        <v>15.01440119</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
-        <v>25.0</v>
-      </c>
       <c r="D26" s="21">
         <f t="shared" ref="D26:E26" si="26">D25+B26</f>
-        <v>532</v>
+        <v>746</v>
       </c>
       <c r="E26" s="21">
         <f t="shared" si="26"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F26" s="25">
         <f t="shared" si="2"/>
-        <v>264.697796</v>
+        <v>211.7582368</v>
       </c>
       <c r="G26" s="25">
         <f t="shared" si="3"/>
-        <v>19.00260151</v>
+        <v>16.89120134</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
-        <v>26.0</v>
-      </c>
       <c r="D27" s="21">
         <f t="shared" ref="D27:E27" si="27">D26+B27</f>
-        <v>532</v>
+        <v>821</v>
       </c>
       <c r="E27" s="21">
         <f t="shared" si="27"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F27" s="25">
         <f t="shared" si="2"/>
-        <v>330.872245</v>
+        <v>264.697796</v>
       </c>
       <c r="G27" s="25">
         <f t="shared" si="3"/>
-        <v>21.3779267</v>
+        <v>19.00260151</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
-        <v>27.0</v>
-      </c>
       <c r="D28" s="21">
         <f t="shared" ref="D28:E28" si="28">D27+B28</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E28" s="21">
         <f t="shared" si="28"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F28" s="25">
         <f t="shared" si="2"/>
-        <v>413.5903063</v>
+        <v>330.872245</v>
       </c>
       <c r="G28" s="25">
         <f t="shared" si="3"/>
-        <v>24.05016754</v>
+        <v>21.3779267</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
-        <v>28.0</v>
-      </c>
       <c r="D29" s="21">
         <f t="shared" ref="D29:E29" si="29">D28+B29</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E29" s="21">
         <f t="shared" si="29"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F29" s="25">
         <f t="shared" si="2"/>
-        <v>516.9878828</v>
+        <v>1</v>
       </c>
       <c r="G29" s="25">
         <f t="shared" si="3"/>
-        <v>27.05643848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
-        <v>29.0</v>
-      </c>
       <c r="D30" s="21">
         <f t="shared" ref="D30:E30" si="30">D29+B30</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E30" s="21">
         <f t="shared" si="30"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F30" s="25">
         <f t="shared" si="2"/>
-        <v>646.2348536</v>
+        <v>1</v>
       </c>
       <c r="G30" s="25">
         <f t="shared" si="3"/>
-        <v>30.43849329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
-        <v>30.0</v>
-      </c>
       <c r="D31" s="21">
         <f t="shared" ref="D31:E31" si="31">D30+B31</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E31" s="21">
         <f t="shared" si="31"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F31" s="25">
         <f t="shared" si="2"/>
-        <v>807.7935669</v>
+        <v>1</v>
       </c>
       <c r="G31" s="25">
         <f t="shared" si="3"/>
-        <v>34.24330495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
-        <v>31.0</v>
-      </c>
       <c r="D32" s="21">
         <f t="shared" ref="D32:E32" si="32">D31+B32</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E32" s="21">
         <f t="shared" si="32"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F32" s="25">
         <f t="shared" si="2"/>
-        <v>1009.741959</v>
+        <v>1</v>
       </c>
       <c r="G32" s="25">
         <f t="shared" si="3"/>
-        <v>38.52371807</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
-        <v>32.0</v>
-      </c>
       <c r="D33" s="21">
         <f t="shared" ref="D33:E33" si="33">D32+B33</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E33" s="21">
         <f t="shared" si="33"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F33" s="25">
         <f t="shared" si="2"/>
-        <v>1262.177448</v>
+        <v>1</v>
       </c>
       <c r="G33" s="25">
         <f t="shared" si="3"/>
-        <v>43.33918283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
-        <v>33.0</v>
-      </c>
       <c r="D34" s="21">
         <f t="shared" ref="D34:E34" si="34">D33+B34</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E34" s="21">
         <f t="shared" si="34"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F34" s="25">
         <f t="shared" si="2"/>
-        <v>1577.72181</v>
+        <v>1</v>
       </c>
       <c r="G34" s="25">
         <f t="shared" si="3"/>
-        <v>48.75658068</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
-        <v>34.0</v>
-      </c>
       <c r="D35" s="21">
         <f t="shared" ref="D35:E35" si="35">D34+B35</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E35" s="21">
         <f t="shared" si="35"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F35" s="25">
         <f t="shared" si="2"/>
-        <v>1972.152263</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="D36" s="21">
         <f t="shared" ref="D36:E36" si="36">D35+B36</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E36" s="21">
         <f t="shared" si="36"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F36" s="25">
         <f t="shared" si="2"/>
@@ -22039,11 +22908,11 @@
     <row r="37">
       <c r="D37" s="21">
         <f t="shared" ref="D37:E37" si="37">D36+B37</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E37" s="21">
         <f t="shared" si="37"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F37" s="25">
         <f t="shared" si="2"/>
@@ -22053,11 +22922,11 @@
     <row r="38">
       <c r="D38" s="21">
         <f t="shared" ref="D38:E38" si="38">D37+B38</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E38" s="21">
         <f t="shared" si="38"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F38" s="25">
         <f t="shared" si="2"/>
@@ -22067,11 +22936,11 @@
     <row r="39">
       <c r="D39" s="21">
         <f t="shared" ref="D39:E39" si="39">D38+B39</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E39" s="21">
         <f t="shared" si="39"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F39" s="25">
         <f t="shared" si="2"/>
@@ -22081,11 +22950,11 @@
     <row r="40">
       <c r="D40" s="21">
         <f t="shared" ref="D40:E40" si="40">D39+B40</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E40" s="21">
         <f t="shared" si="40"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F40" s="25">
         <f t="shared" si="2"/>
@@ -22095,11 +22964,11 @@
     <row r="41">
       <c r="D41" s="21">
         <f t="shared" ref="D41:E41" si="41">D40+B41</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E41" s="21">
         <f t="shared" si="41"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F41" s="25">
         <f t="shared" si="2"/>
@@ -22109,11 +22978,11 @@
     <row r="42">
       <c r="D42" s="21">
         <f t="shared" ref="D42:E42" si="42">D41+B42</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E42" s="21">
         <f t="shared" si="42"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F42" s="25">
         <f t="shared" si="2"/>
@@ -22123,11 +22992,11 @@
     <row r="43">
       <c r="D43" s="21">
         <f t="shared" ref="D43:E43" si="43">D42+B43</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E43" s="21">
         <f t="shared" si="43"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F43" s="25">
         <f t="shared" si="2"/>
@@ -22137,11 +23006,11 @@
     <row r="44">
       <c r="D44" s="21">
         <f t="shared" ref="D44:E44" si="44">D43+B44</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E44" s="21">
         <f t="shared" si="44"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F44" s="25">
         <f t="shared" si="2"/>
@@ -22151,11 +23020,11 @@
     <row r="45">
       <c r="D45" s="21">
         <f t="shared" ref="D45:E45" si="45">D44+B45</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E45" s="21">
         <f t="shared" si="45"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F45" s="25">
         <f t="shared" si="2"/>
@@ -22165,11 +23034,11 @@
     <row r="46">
       <c r="D46" s="21">
         <f t="shared" ref="D46:E46" si="46">D45+B46</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E46" s="21">
         <f t="shared" si="46"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F46" s="25">
         <f t="shared" si="2"/>
@@ -22179,11 +23048,11 @@
     <row r="47">
       <c r="D47" s="21">
         <f t="shared" ref="D47:E47" si="47">D46+B47</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E47" s="21">
         <f t="shared" si="47"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F47" s="25">
         <f t="shared" si="2"/>
@@ -22193,11 +23062,11 @@
     <row r="48">
       <c r="D48" s="21">
         <f t="shared" ref="D48:E48" si="48">D47+B48</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E48" s="21">
         <f t="shared" si="48"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F48" s="25">
         <f t="shared" si="2"/>
@@ -22207,11 +23076,11 @@
     <row r="49">
       <c r="D49" s="21">
         <f t="shared" ref="D49:E49" si="49">D48+B49</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E49" s="21">
         <f t="shared" si="49"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F49" s="25">
         <f t="shared" si="2"/>
@@ -22221,11 +23090,11 @@
     <row r="50">
       <c r="D50" s="21">
         <f t="shared" ref="D50:E50" si="50">D49+B50</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E50" s="21">
         <f t="shared" si="50"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F50" s="25">
         <f t="shared" si="2"/>
@@ -22235,11 +23104,11 @@
     <row r="51">
       <c r="D51" s="21">
         <f t="shared" ref="D51:E51" si="51">D50+B51</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E51" s="21">
         <f t="shared" si="51"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F51" s="25">
         <f t="shared" si="2"/>
@@ -22249,11 +23118,11 @@
     <row r="52">
       <c r="D52" s="21">
         <f t="shared" ref="D52:E52" si="52">D51+B52</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E52" s="21">
         <f t="shared" si="52"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F52" s="25">
         <f t="shared" si="2"/>
@@ -22263,21 +23132,21 @@
     <row r="53">
       <c r="D53" s="21">
         <f t="shared" ref="D53:E53" si="53">D52+B53</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E53" s="21">
         <f t="shared" si="53"/>
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="D54" s="21">
         <f t="shared" ref="D54:E54" si="54">D53+B54</f>
-        <v>532</v>
+        <v>967</v>
       </c>
       <c r="E54" s="21">
         <f t="shared" si="54"/>
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -22340,142 +23209,142 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="39">
+      <c r="A1" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="53">
         <v>1.0</v>
       </c>
-      <c r="C1" s="39">
+      <c r="C1" s="53">
         <v>2.0</v>
       </c>
-      <c r="D1" s="39">
+      <c r="D1" s="53">
         <v>3.0</v>
       </c>
-      <c r="E1" s="39">
+      <c r="E1" s="53">
         <v>4.0</v>
       </c>
-      <c r="F1" s="39">
+      <c r="F1" s="53">
         <v>5.0</v>
       </c>
-      <c r="G1" s="39">
+      <c r="G1" s="53">
         <v>6.0</v>
       </c>
-      <c r="H1" s="39">
+      <c r="H1" s="53">
         <v>7.0</v>
       </c>
-      <c r="I1" s="39">
+      <c r="I1" s="53">
         <v>8.0</v>
       </c>
-      <c r="J1" s="39">
+      <c r="J1" s="53">
         <v>9.0</v>
       </c>
-      <c r="K1" s="39">
+      <c r="K1" s="53">
         <v>10.0</v>
       </c>
-      <c r="L1" s="39">
+      <c r="L1" s="53">
         <v>11.0</v>
       </c>
-      <c r="M1" s="39">
+      <c r="M1" s="53">
         <v>12.0</v>
       </c>
-      <c r="N1" s="39">
+      <c r="N1" s="53">
         <v>13.0</v>
       </c>
-      <c r="O1" s="39">
+      <c r="O1" s="53">
         <v>14.0</v>
       </c>
-      <c r="P1" s="39">
+      <c r="P1" s="53">
         <v>15.0</v>
       </c>
-      <c r="Q1" s="39">
+      <c r="Q1" s="53">
         <v>16.0</v>
       </c>
-      <c r="R1" s="39">
+      <c r="R1" s="53">
         <v>17.0</v>
       </c>
-      <c r="S1" s="39">
+      <c r="S1" s="53">
         <v>18.0</v>
       </c>
-      <c r="T1" s="39">
+      <c r="T1" s="53">
         <v>19.0</v>
       </c>
-      <c r="U1" s="39">
+      <c r="U1" s="53">
         <v>20.0</v>
       </c>
-      <c r="V1" s="39">
+      <c r="V1" s="53">
         <v>21.0</v>
       </c>
-      <c r="W1" s="39">
+      <c r="W1" s="53">
         <v>22.0</v>
       </c>
-      <c r="X1" s="39">
+      <c r="X1" s="53">
         <v>23.0</v>
       </c>
-      <c r="Y1" s="39">
+      <c r="Y1" s="53">
         <v>24.0</v>
       </c>
-      <c r="Z1" s="39">
+      <c r="Z1" s="53">
         <v>25.0</v>
       </c>
-      <c r="AA1" s="39">
+      <c r="AA1" s="53">
         <v>26.0</v>
       </c>
-      <c r="AB1" s="39">
+      <c r="AB1" s="53">
         <v>27.0</v>
       </c>
-      <c r="AC1" s="39">
+      <c r="AC1" s="53">
         <v>28.0</v>
       </c>
-      <c r="AD1" s="39">
+      <c r="AD1" s="53">
         <v>29.0</v>
       </c>
-      <c r="AE1" s="39">
+      <c r="AE1" s="53">
         <v>30.0</v>
       </c>
-      <c r="AF1" s="39">
+      <c r="AF1" s="53">
         <v>31.0</v>
       </c>
-      <c r="AG1" s="39">
+      <c r="AG1" s="53">
         <v>32.0</v>
       </c>
-      <c r="AH1" s="39">
+      <c r="AH1" s="53">
         <v>33.0</v>
       </c>
-      <c r="AI1" s="39">
+      <c r="AI1" s="53">
         <v>34.0</v>
       </c>
-      <c r="AJ1" s="39">
+      <c r="AJ1" s="53">
         <v>35.0</v>
       </c>
-      <c r="AK1" s="39">
+      <c r="AK1" s="53">
         <v>36.0</v>
       </c>
-      <c r="AL1" s="39">
+      <c r="AL1" s="53">
         <v>37.0</v>
       </c>
-      <c r="AM1" s="39">
+      <c r="AM1" s="53">
         <v>38.0</v>
       </c>
-      <c r="AN1" s="39">
+      <c r="AN1" s="53">
         <v>39.0</v>
       </c>
-      <c r="AO1" s="39">
+      <c r="AO1" s="53">
         <v>40.0</v>
       </c>
-      <c r="AP1" s="39">
+      <c r="AP1" s="53">
         <v>41.0</v>
       </c>
-      <c r="AQ1" s="39">
+      <c r="AQ1" s="53">
         <v>42.0</v>
       </c>
-      <c r="AR1" s="39">
+      <c r="AR1" s="53">
         <v>43.0</v>
       </c>
-      <c r="AS1" s="39">
+      <c r="AS1" s="53">
         <v>44.0</v>
       </c>
-      <c r="AT1" s="39">
+      <c r="AT1" s="53">
         <v>45.0</v>
       </c>
     </row>
@@ -26210,208 +27079,208 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>83</v>
+      <c r="A1" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49">
+      <c r="A2" s="55">
         <v>6.0</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="50" t="s">
-        <v>89</v>
+      <c r="E2" s="39" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="49">
+      <c r="A3" s="55">
         <v>10.0</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>91</v>
+      <c r="B3" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49">
+      <c r="A4" s="55">
         <v>22.0</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="54" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="49">
+      <c r="A5" s="55">
         <v>26.0</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>92</v>
+      <c r="B5" s="54" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="49">
+      <c r="A6" s="55">
         <v>2.0</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="57" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="49">
+      <c r="A7" s="55">
         <v>14.0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="54" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="49">
+      <c r="A8" s="55">
         <v>18.0</v>
       </c>
-      <c r="B8" s="48" t="s">
-        <v>51</v>
+      <c r="B8" s="54" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="49">
+      <c r="A9" s="55">
         <v>30.0</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="54" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="49">
+      <c r="A10" s="55">
         <v>34.0</v>
       </c>
-      <c r="B10" s="48" t="s">
-        <v>93</v>
+      <c r="B10" s="54" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="49">
+      <c r="A11" s="55">
         <v>38.0</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="54" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="49">
+      <c r="A12" s="55">
         <v>42.0</v>
       </c>
-      <c r="B12" s="48" t="s">
-        <v>77</v>
+      <c r="B12" s="54" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="49">
+      <c r="A13" s="55">
         <v>46.0</v>
       </c>
-      <c r="B13" s="48" t="s">
-        <v>94</v>
+      <c r="B13" s="54" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="49">
+      <c r="A14" s="55">
         <v>50.0</v>
       </c>
-      <c r="B14" s="48" t="s">
-        <v>55</v>
+      <c r="B14" s="54" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="49">
+      <c r="A15" s="55">
         <v>54.0</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="54" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="49">
+      <c r="A16" s="55">
         <v>58.0</v>
       </c>
-      <c r="B16" s="48" t="s">
-        <v>52</v>
+      <c r="B16" s="54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="49">
+      <c r="A17" s="55">
         <v>62.0</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="54" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="49">
+      <c r="A18" s="55">
         <v>66.0</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="54" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="49">
+      <c r="A19" s="55">
         <v>70.0</v>
       </c>
-      <c r="B19" s="48" t="s">
-        <v>95</v>
+      <c r="B19" s="54" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="49">
+      <c r="A20" s="55">
         <v>74.0</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>79</v>
+      <c r="B20" s="54" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="49">
+      <c r="A21" s="55">
         <v>78.0</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="54" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="49">
+      <c r="A22" s="55">
         <v>82.0</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="54" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="49">
+      <c r="A23" s="55">
         <v>86.0</v>
       </c>
-      <c r="B23" s="52" t="s">
-        <v>96</v>
+      <c r="B23" s="57" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="49">
+      <c r="A24" s="55">
         <v>94.0</v>
       </c>
-      <c r="B24" s="48" t="s">
-        <v>80</v>
+      <c r="B24" s="54" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="49">
+      <c r="A25" s="55">
         <v>90.0</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="54" t="s">
         <v>44</v>
       </c>
     </row>
@@ -26419,8 +27288,8 @@
       <c r="A26" s="2">
         <v>99.0</v>
       </c>
-      <c r="B26" s="53" t="s">
-        <v>97</v>
+      <c r="B26" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
